--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10422"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9339F836-9D8B-3C45-BA9C-0DE0F349A4EE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A007B44D-A461-2F4A-AFE5-480B9F56A106}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
     <sheet name="base_showcase" r:id="rId2" sheetId="5"/>
-    <sheet name="sentry_function_projectfile" r:id="rId3" sheetId="6"/>
-    <sheet name="sentry_function_array" r:id="rId4" sheetId="7"/>
-    <sheet name="sentry_function_count" r:id="rId5" sheetId="9"/>
-    <sheet name="sentry_function_date" r:id="rId6" sheetId="10"/>
+    <sheet name="nexial_function_projectfile" r:id="rId3" sheetId="6"/>
+    <sheet name="nexial_function_array" r:id="rId4" sheetId="7"/>
+    <sheet name="nexial_function_count" r:id="rId5" sheetId="9"/>
+    <sheet name="nexial_function_date" r:id="rId6" sheetId="10"/>
     <sheet name="actual_in_output" r:id="rId7" sheetId="8"/>
     <sheet name="crypto" r:id="rId8" sheetId="11"/>
     <sheet name="macro-test" r:id="rId9" sheetId="13"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -57,7 +57,7 @@
     <definedName name="ws">'#system'!$V$2:$V$16</definedName>
     <definedName name="xml">'#system'!$W$2:$W$11</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="845">
   <si>
     <t>description</t>
   </si>
@@ -1512,12 +1512,6 @@
   </si>
   <si>
     <t>38</t>
-  </si>
-  <si>
-    <t>test out date format via sentry function (iteration1)</t>
-  </si>
-  <si>
-    <t>test out date format via sentry function (iteration2)</t>
   </si>
   <si>
     <t>Monday, May 1, 2017</t>
@@ -2107,10 +2101,6 @@
   </si>
   <si>
     <t>saveListData(var,contains)</t>
-  </si>
-  <si>
-    <t>unit test for sentry expression
-(additional tests in src/test/**/*/variable)</t>
   </si>
   <si>
     <t>Apple</t>
@@ -2181,9 +2171,6 @@
   </si>
   <si>
     <t>${myJson}</t>
-  </si>
-  <si>
-    <t>alternative with Sentry expression</t>
   </si>
   <si>
     <t>message</t>
@@ -2692,13 +2679,32 @@
 Goodbye!
 </t>
   </si>
+  <si>
+    <t>test out date format via nexial function (iteration1)</t>
+  </si>
+  <si>
+    <t>test out date format via nexial function (iteration2)</t>
+  </si>
+  <si>
+    <t>unit test for nexial expression
+(additional tests in src/test/**/*/variable)</t>
+  </si>
+  <si>
+    <t>alternative with nexial expression</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2885,84 +2891,8 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="47">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3106,127 +3036,8 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="54">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3585,200 +3396,6 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3814,7 +3431,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4064,76 +3681,40 @@
     <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="7" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="10" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="13" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="16" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="19" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="19" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="22" fontId="24" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="25" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="22" fontId="26" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4818,7 +4399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -4836,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4860,7 +4441,7 @@
         <v>146</v>
       </c>
       <c r="J1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K1" t="s">
         <v>187</v>
@@ -4872,19 +4453,19 @@
         <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="O1" t="s">
         <v>186</v>
       </c>
       <c r="P1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="Q1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="R1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -4899,15 +4480,15 @@
         <v>133</v>
       </c>
       <c r="W1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -4925,37 +4506,37 @@
         <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="I2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="K2" t="s">
         <v>188</v>
       </c>
       <c r="L2" t="s">
-        <v>199</v>
+        <v>844</v>
       </c>
       <c r="M2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="N2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O2" t="s">
         <v>403</v>
       </c>
       <c r="P2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="Q2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="R2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="S2" t="s">
         <v>45</v>
@@ -4970,7 +4551,7 @@
         <v>135</v>
       </c>
       <c r="W2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3">
@@ -4978,52 +4559,52 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E3" t="s">
         <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G3" t="s">
         <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="I3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K3" t="s">
         <v>189</v>
       </c>
       <c r="M3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="O3" t="s">
         <v>404</v>
       </c>
       <c r="P3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="Q3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="R3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="S3" t="s">
         <v>46</v>
@@ -5035,10 +4616,10 @@
         <v>127</v>
       </c>
       <c r="V3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="W3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4">
@@ -5046,7 +4627,7 @@
         <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -5055,19 +4636,19 @@
         <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="I4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K4" t="s">
         <v>190</v>
@@ -5076,22 +4657,22 @@
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="O4" t="s">
         <v>405</v>
       </c>
       <c r="P4" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="Q4" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="R4" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="S4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="T4" t="s">
         <v>123</v>
@@ -5103,7 +4684,7 @@
         <v>134</v>
       </c>
       <c r="W4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5">
@@ -5111,19 +4692,19 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C5" t="s">
         <v>459</v>
       </c>
       <c r="E5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="I5" t="s">
         <v>178</v>
@@ -5135,19 +4716,19 @@
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O5" t="s">
         <v>406</v>
       </c>
       <c r="P5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="Q5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="S5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="T5" t="s">
         <v>124</v>
@@ -5159,7 +4740,7 @@
         <v>136</v>
       </c>
       <c r="W5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6">
@@ -5167,16 +4748,16 @@
         <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E6" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I6" t="s">
         <v>149</v>
@@ -5188,16 +4769,16 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="P6" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="Q6" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="S6" t="s">
         <v>47</v>
@@ -5212,7 +4793,7 @@
         <v>137</v>
       </c>
       <c r="W6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7">
@@ -5220,16 +4801,16 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I7" t="s">
         <v>171</v>
@@ -5241,13 +4822,13 @@
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="P7" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="Q7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="S7" t="s">
         <v>48</v>
@@ -5259,7 +4840,7 @@
         <v>138</v>
       </c>
       <c r="W7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8">
@@ -5267,16 +4848,16 @@
         <v>374</v>
       </c>
       <c r="B8" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E8" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I8" t="s">
         <v>150</v>
@@ -5288,13 +4869,13 @@
         <v>165</v>
       </c>
       <c r="N8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="P8" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="Q8" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="S8" t="s">
         <v>49</v>
@@ -5306,7 +4887,7 @@
         <v>139</v>
       </c>
       <c r="W8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9">
@@ -5314,16 +4895,16 @@
         <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I9" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K9" t="s">
         <v>195</v>
@@ -5332,13 +4913,13 @@
         <v>166</v>
       </c>
       <c r="N9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P9" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="Q9" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="S9" t="s">
         <v>212</v>
@@ -5347,18 +4928,18 @@
         <v>184</v>
       </c>
       <c r="W9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E10" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I10" t="s">
         <v>151</v>
@@ -5370,19 +4951,19 @@
         <v>167</v>
       </c>
       <c r="N10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="P10" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="S10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="V10" t="s">
         <v>185</v>
       </c>
       <c r="W10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11">
@@ -5390,10 +4971,10 @@
         <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I11" t="s">
         <v>152</v>
@@ -5405,16 +4986,16 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="V11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12">
@@ -5425,7 +5006,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I12" t="s">
         <v>172</v>
@@ -5434,7 +5015,7 @@
         <v>168</v>
       </c>
       <c r="N12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="S12" t="s">
         <v>50</v>
@@ -5451,7 +5032,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I13" t="s">
         <v>173</v>
@@ -5460,10 +5041,10 @@
         <v>169</v>
       </c>
       <c r="N13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="S13" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="V13" t="s">
         <v>141</v>
@@ -5471,13 +5052,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C14" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I14" t="s">
         <v>174</v>
@@ -5486,7 +5067,7 @@
         <v>170</v>
       </c>
       <c r="N14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S14" t="s">
         <v>51</v>
@@ -5500,16 +5081,16 @@
         <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I15" t="s">
         <v>175</v>
       </c>
       <c r="N15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="S15" t="s">
         <v>52</v>
@@ -5520,19 +5101,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>843</v>
       </c>
       <c r="E16" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I16" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="N16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="S16" t="s">
         <v>44</v>
@@ -5543,10 +5124,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
         <v>182</v>
@@ -5560,16 +5141,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C18" t="s">
-        <v>553</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
         <v>183</v>
       </c>
       <c r="I18" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="S18" t="s">
         <v>54</v>
@@ -5580,10 +5161,10 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>551</v>
       </c>
       <c r="E19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I19" t="s">
         <v>154</v>
@@ -5597,10 +5178,10 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>635</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I20" t="s">
         <v>155</v>
@@ -5614,10 +5195,10 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>633</v>
       </c>
       <c r="E21" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I21" t="s">
         <v>156</v>
@@ -5631,10 +5212,10 @@
         <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>460</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="S22" t="s">
         <v>58</v>
@@ -5642,13 +5223,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="S23" t="s">
         <v>59</v>
@@ -5656,10 +5237,10 @@
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>161</v>
+        <v>461</v>
       </c>
       <c r="E24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S24" t="s">
         <v>60</v>
@@ -5667,7 +5248,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
         <v>159</v>
@@ -5678,10 +5259,10 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="S26" t="s">
         <v>62</v>
@@ -5689,21 +5270,21 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S28" t="s">
         <v>63</v>
@@ -5711,10 +5292,10 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="S29" t="s">
         <v>64</v>
@@ -5722,7 +5303,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
         <v>399</v>
@@ -5733,18 +5314,21 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="S31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
       <c r="E32" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S32" t="s">
         <v>67</v>
@@ -5752,7 +5336,7 @@
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="S33" t="s">
         <v>68</v>
@@ -5760,7 +5344,7 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="S34" t="s">
         <v>213</v>
@@ -5768,7 +5352,7 @@
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="S35" t="s">
         <v>69</v>
@@ -5776,23 +5360,23 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="S36" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="S37" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="S38" t="s">
         <v>70</v>
@@ -5816,7 +5400,7 @@
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="S41" t="s">
         <v>73</v>
@@ -5824,7 +5408,7 @@
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="S42" t="s">
         <v>74</v>
@@ -5832,7 +5416,7 @@
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="S43" t="s">
         <v>75</v>
@@ -5840,7 +5424,7 @@
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="S44" t="s">
         <v>400</v>
@@ -5848,7 +5432,7 @@
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="S45" t="s">
         <v>76</v>
@@ -5864,7 +5448,7 @@
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="S47" t="s">
         <v>78</v>
@@ -5872,7 +5456,7 @@
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="S48" t="s">
         <v>79</v>
@@ -5880,7 +5464,7 @@
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="S49" t="s">
         <v>80</v>
@@ -5888,15 +5472,15 @@
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="S50" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="S51" t="s">
         <v>81</v>
@@ -5904,7 +5488,7 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="S52" t="s">
         <v>82</v>
@@ -5912,7 +5496,7 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="S53" t="s">
         <v>83</v>
@@ -5920,7 +5504,7 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="S54" t="s">
         <v>84</v>
@@ -5928,7 +5512,7 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="S55" t="s">
         <v>85</v>
@@ -5936,7 +5520,7 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="S56" t="s">
         <v>86</v>
@@ -5944,7 +5528,7 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="S57" t="s">
         <v>87</v>
@@ -5952,7 +5536,7 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="S58" t="s">
         <v>401</v>
@@ -5960,15 +5544,15 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="S59" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S60" t="s">
         <v>88</v>
@@ -5976,7 +5560,7 @@
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="S61" t="s">
         <v>89</v>
@@ -5984,7 +5568,7 @@
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="S62" t="s">
         <v>90</v>
@@ -5992,7 +5576,7 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="S63" t="s">
         <v>91</v>
@@ -6000,7 +5584,7 @@
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="S64" t="s">
         <v>200</v>
@@ -6008,7 +5592,7 @@
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="S65" t="s">
         <v>201</v>
@@ -6016,7 +5600,7 @@
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="S66" t="s">
         <v>92</v>
@@ -6024,7 +5608,7 @@
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="S67" t="s">
         <v>93</v>
@@ -6032,7 +5616,7 @@
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S68" t="s">
         <v>94</v>
@@ -6040,7 +5624,7 @@
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="S69" t="s">
         <v>95</v>
@@ -6048,7 +5632,7 @@
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="S70" t="s">
         <v>96</v>
@@ -6056,7 +5640,7 @@
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="S71" t="s">
         <v>202</v>
@@ -6064,7 +5648,7 @@
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="S72" t="s">
         <v>203</v>
@@ -6072,7 +5656,7 @@
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="S73" t="s">
         <v>204</v>
@@ -6080,7 +5664,7 @@
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="S74" t="s">
         <v>205</v>
@@ -6088,7 +5672,7 @@
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="S75" t="s">
         <v>402</v>
@@ -6096,7 +5680,7 @@
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="S76" t="s">
         <v>97</v>
@@ -6104,7 +5688,7 @@
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="S77" t="s">
         <v>206</v>
@@ -6112,7 +5696,7 @@
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="S78" t="s">
         <v>98</v>
@@ -6120,7 +5704,7 @@
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="S79" t="s">
         <v>207</v>
@@ -6128,7 +5712,7 @@
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="S80" t="s">
         <v>208</v>
@@ -6136,7 +5720,7 @@
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="S81" t="s">
         <v>209</v>
@@ -6144,7 +5728,7 @@
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="S82" t="s">
         <v>210</v>
@@ -6152,7 +5736,7 @@
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="S83" t="s">
         <v>458</v>
@@ -6160,7 +5744,7 @@
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="S84" t="s">
         <v>211</v>
@@ -6168,7 +5752,7 @@
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S85" t="s">
         <v>99</v>
@@ -6176,15 +5760,15 @@
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="S86" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S87" t="s">
         <v>100</v>
@@ -6192,7 +5776,7 @@
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="S88" t="s">
         <v>101</v>
@@ -6200,7 +5784,7 @@
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="S89" t="s">
         <v>102</v>
@@ -6208,7 +5792,7 @@
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="S90" t="s">
         <v>103</v>
@@ -6216,7 +5800,7 @@
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="S91" t="s">
         <v>104</v>
@@ -6316,7 +5900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -6354,10 +5938,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -6456,7 +6040,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -6466,7 +6050,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>284</v>
@@ -6491,7 +6075,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -6507,19 +6091,19 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>234</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -6534,19 +6118,19 @@
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -6561,7 +6145,7 @@
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
@@ -6570,7 +6154,7 @@
         <v>157</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -6586,7 +6170,7 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>13</v>
@@ -6595,7 +6179,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -6611,7 +6195,7 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="27" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>31</v>
@@ -6620,10 +6204,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -6638,7 +6222,7 @@
     <row customHeight="1" ht="37" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>146</v>
@@ -6647,10 +6231,10 @@
         <v>154</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>240</v>
@@ -6666,7 +6250,7 @@
     </row>
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -6676,7 +6260,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -6692,7 +6276,7 @@
     <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>146</v>
@@ -6701,10 +6285,10 @@
         <v>172</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -6726,7 +6310,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -6775,7 +6359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A18" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -6812,10 +6396,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -6831,7 +6415,7 @@
     </row>
     <row customHeight="1" ht="49" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>677</v>
+        <v>841</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -6914,7 +6498,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="36" t="s">
@@ -6924,10 +6508,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
@@ -6949,10 +6533,10 @@
         <v>40</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
@@ -6974,7 +6558,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -6997,7 +6581,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -7020,7 +6604,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -7036,7 +6620,7 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="53"/>
       <c r="B10" s="39" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>13</v>
@@ -7045,7 +6629,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>232</v>
@@ -7070,10 +6654,10 @@
         <v>40</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
@@ -7088,7 +6672,7 @@
     <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="33" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>13</v>
@@ -7097,7 +6681,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -7113,7 +6697,7 @@
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
       <c r="B13" s="33" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>13</v>
@@ -7122,7 +6706,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -7137,7 +6721,7 @@
     </row>
     <row customHeight="1" ht="138" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="36" t="s">
@@ -7147,10 +6731,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -7172,7 +6756,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -7187,7 +6771,7 @@
     </row>
     <row customHeight="1" ht="92" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="36" t="s">
@@ -7197,10 +6781,10 @@
         <v>40</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
@@ -7222,7 +6806,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -7237,7 +6821,7 @@
     </row>
     <row customHeight="1" ht="273" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="36" t="s">
@@ -7247,10 +6831,10 @@
         <v>40</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -7265,7 +6849,7 @@
     <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
       <c r="B19" s="33" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>13</v>
@@ -7274,7 +6858,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="37"/>
@@ -7297,7 +6881,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="37"/>
@@ -7320,7 +6904,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -7336,7 +6920,7 @@
     <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="33" t="s">
-        <v>694</v>
+        <v>842</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>187</v>
@@ -7345,13 +6929,13 @@
         <v>197</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
@@ -7372,7 +6956,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -7387,7 +6971,7 @@
     </row>
     <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="36" t="s">
@@ -7397,10 +6981,10 @@
         <v>40</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -7422,7 +7006,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="37"/>
@@ -7445,7 +7029,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
@@ -7468,7 +7052,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -7483,7 +7067,7 @@
     </row>
     <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="36" t="s">
@@ -7493,7 +7077,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
@@ -7509,7 +7093,7 @@
     <row ht="75" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
       <c r="B29" s="33" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>146</v>
@@ -7518,10 +7102,10 @@
         <v>154</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>246</v>
@@ -7545,10 +7129,10 @@
         <v>154</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>240</v>
@@ -7572,10 +7156,10 @@
         <v>172</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -7597,10 +7181,10 @@
         <v>459</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>422</v>
@@ -7624,7 +7208,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -7639,10 +7223,10 @@
     </row>
     <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="53" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>13</v>
@@ -7651,10 +7235,10 @@
         <v>40</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -7676,10 +7260,10 @@
         <v>154</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>240</v>
@@ -7703,10 +7287,10 @@
         <v>154</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>240</v>
@@ -7730,10 +7314,10 @@
         <v>154</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>240</v>
@@ -7757,10 +7341,10 @@
         <v>154</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>240</v>
@@ -7784,7 +7368,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -7807,7 +7391,7 @@
         <v>43</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -7823,7 +7407,7 @@
     <row customHeight="1" ht="32" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="53"/>
       <c r="B41" s="33" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>13</v>
@@ -7832,10 +7416,10 @@
         <v>40</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
@@ -7857,7 +7441,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -7925,7 +7509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -7961,10 +7545,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -8061,20 +7645,20 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -8093,13 +7677,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -8118,13 +7702,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -8143,13 +7727,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -8168,13 +7752,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -8222,7 +7806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -8259,10 +7843,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -8361,10 +7945,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>13</v>
@@ -8373,7 +7957,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>234</v>
@@ -8391,7 +7975,7 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
@@ -8400,14 +7984,14 @@
         <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="14"/>
@@ -8418,7 +8002,7 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
@@ -8427,10 +8011,10 @@
         <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -8452,7 +8036,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -8467,10 +8051,10 @@
     </row>
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
@@ -8479,7 +8063,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>234</v>
@@ -8497,19 +8081,19 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -8524,7 +8108,7 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
@@ -8533,14 +8117,14 @@
         <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="24" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="14"/>
@@ -8558,7 +8142,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -8607,10 +8191,10 @@
     </row>
     <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
@@ -8619,14 +8203,14 @@
         <v>37</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="24" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="14"/>
@@ -8644,7 +8228,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -8696,7 +8280,7 @@
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
+      <selection pane="bottomLeft" sqref="A5" activeCell="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8730,10 +8314,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -8844,7 +8428,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
@@ -8989,7 +8573,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>223</v>
@@ -9014,7 +8598,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>221</v>
@@ -9066,7 +8650,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>223</v>
@@ -9143,7 +8727,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>223</v>
@@ -9270,7 +8854,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>219</v>
@@ -9483,7 +9067,7 @@
         <v>40</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>248</v>
@@ -9642,7 +9226,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>261</v>
@@ -9696,7 +9280,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>266</v>
@@ -9752,7 +9336,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>271</v>
@@ -9804,7 +9388,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>275</v>
@@ -9860,7 +9444,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>455</v>
@@ -9944,7 +9528,7 @@
         <v>40</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>284</v>
@@ -9953,7 +9537,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="14"/>
@@ -9973,7 +9557,7 @@
         <v>40</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>286</v>
@@ -9982,7 +9566,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="14"/>
@@ -10002,7 +9586,7 @@
         <v>40</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>288</v>
@@ -10011,7 +9595,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="14"/>
@@ -10031,7 +9615,7 @@
         <v>40</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>290</v>
@@ -10040,7 +9624,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="14"/>
@@ -10065,7 +9649,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="14"/>
@@ -10085,7 +9669,7 @@
         <v>40</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>284</v>
@@ -10114,7 +9698,7 @@
         <v>43</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -10139,7 +9723,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>296</v>
@@ -10166,7 +9750,7 @@
         <v>43</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -10191,7 +9775,7 @@
         <v>43</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -10355,7 +9939,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>308</v>
@@ -10380,7 +9964,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>310</v>
@@ -10405,7 +9989,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>312</v>
@@ -10430,7 +10014,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>314</v>
@@ -10455,7 +10039,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>316</v>
@@ -10480,7 +10064,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>318</v>
@@ -10505,7 +10089,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>320</v>
@@ -10530,7 +10114,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>322</v>
@@ -10555,7 +10139,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>324</v>
@@ -10580,7 +10164,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>326</v>
@@ -10605,7 +10189,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>328</v>
@@ -10630,7 +10214,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>330</v>
@@ -10655,7 +10239,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>332</v>
@@ -10895,13 +10479,13 @@
     <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>479</v>
+        <v>839</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>347</v>
@@ -10913,7 +10497,7 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="24" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="14"/>
@@ -10924,16 +10508,16 @@
     <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>348</v>
@@ -10942,7 +10526,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="24" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="14"/>
@@ -11102,10 +10686,10 @@
         <v>462</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -11118,28 +10702,28 @@
     </row>
     <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="24" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="14"/>
@@ -11154,19 +10738,19 @@
         <v>31</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="24" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="14"/>
@@ -11177,19 +10761,19 @@
     <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -11271,7 +10855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -11306,10 +10890,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -11418,7 +11002,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>240</v>
@@ -11522,10 +11106,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -11546,7 +11130,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>357</v>
@@ -11644,7 +11228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -11680,10 +11264,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -11792,7 +11376,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>232</v>
@@ -11839,7 +11423,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>361</v>
@@ -11864,7 +11448,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>363</v>
@@ -11889,7 +11473,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>365</v>
@@ -11914,7 +11498,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>367</v>
@@ -11939,7 +11523,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>369</v>
@@ -11964,7 +11548,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>371</v>
@@ -11989,7 +11573,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>373</v>
@@ -12014,7 +11598,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>375</v>
@@ -12039,7 +11623,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>377</v>
@@ -12089,7 +11673,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>381</v>
@@ -12114,7 +11698,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>383</v>
@@ -12139,7 +11723,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>385</v>
@@ -12164,7 +11748,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>387</v>
@@ -12189,7 +11773,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>389</v>
@@ -12214,7 +11798,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>391</v>
@@ -12239,7 +11823,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>393</v>
@@ -12264,7 +11848,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>395</v>
@@ -12289,7 +11873,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>396</v>
@@ -12343,7 +11927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -12379,10 +11963,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -12481,7 +12065,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -12491,7 +12075,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>232</v>
@@ -12538,7 +12122,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>361</v>
@@ -12563,7 +12147,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>363</v>
@@ -12588,7 +12172,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>365</v>
@@ -12613,7 +12197,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>367</v>
@@ -12638,7 +12222,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>369</v>
@@ -12663,7 +12247,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>371</v>
@@ -12688,7 +12272,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>373</v>
@@ -12713,7 +12297,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>375</v>
@@ -12738,7 +12322,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>377</v>
@@ -12788,7 +12372,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>381</v>
@@ -12813,7 +12397,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>383</v>
@@ -12838,7 +12422,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>385</v>
@@ -12863,7 +12447,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>387</v>
@@ -12888,7 +12472,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>389</v>
@@ -12913,7 +12497,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>391</v>
@@ -12940,7 +12524,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>464</v>
@@ -12965,7 +12549,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>465</v>
@@ -12990,7 +12574,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>467</v>
@@ -13015,7 +12599,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>468</v>
@@ -13040,7 +12624,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>470</v>
@@ -13065,7 +12649,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>471</v>
@@ -13090,7 +12674,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>472</v>
@@ -13115,7 +12699,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>473</v>
@@ -13140,7 +12724,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>475</v>
@@ -13165,7 +12749,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>476</v>
@@ -13185,7 +12769,7 @@
     </row>
     <row ht="60" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
@@ -13195,7 +12779,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -13295,7 +12879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -13330,10 +12914,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -13432,7 +13016,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -13445,7 +13029,7 @@
         <v>335</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -13467,7 +13051,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -13490,7 +13074,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -13513,7 +13097,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -13536,7 +13120,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -13559,7 +13143,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -13582,7 +13166,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -13605,7 +13189,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -13628,7 +13212,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -13651,7 +13235,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -13674,7 +13258,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -13697,7 +13281,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -13720,7 +13304,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -13743,7 +13327,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -13766,7 +13350,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -14478,7 +14062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -14513,10 +14097,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -14677,7 +14261,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>232</v>
@@ -14728,7 +14312,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>420</v>
@@ -14753,7 +14337,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>436</v>
@@ -14934,7 +14518,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>420</v>
@@ -15117,7 +14701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -15154,10 +14738,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -15256,7 +14840,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -15266,7 +14850,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -15289,7 +14873,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -15309,13 +14893,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -15329,7 +14913,7 @@
     </row>
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -15339,7 +14923,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -15359,13 +14943,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -26662,7 +26246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -26698,10 +26282,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -26800,7 +26384,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -26810,7 +26394,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -26830,16 +26414,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -26860,7 +26444,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -26883,7 +26467,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -26903,16 +26487,16 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{A007B44D-A461-2F4A-AFE5-480B9F56A106}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -46,16 +46,17 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="853">
   <si>
     <t>description</t>
   </si>
@@ -2698,13 +2699,37 @@
   <si>
     <t>send(profile,to,subject,body)</t>
   </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(profile,text)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2891,8 +2916,236 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="89">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3036,8 +3289,365 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -3396,6 +4006,588 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3431,7 +4623,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="120">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3681,40 +4873,148 @@
     <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="7" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="10" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="13" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="16" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="19" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="19" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="22" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="22" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="28" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="34" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="37" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="40" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="40" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="61" fillId="49" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="42" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="55" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="58" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="61" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="61" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="67" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="70" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="76" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="79" borderId="89" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="82" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="82" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="88" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4397,9 +5697,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -4462,24 +5762,27 @@
         <v>818</v>
       </c>
       <c r="Q1" t="s">
+        <v>845</v>
+      </c>
+      <c r="R1" t="s">
         <v>745</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>814</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4533,24 +5836,27 @@
         <v>819</v>
       </c>
       <c r="Q2" t="s">
+        <v>847</v>
+      </c>
+      <c r="R2" t="s">
         <v>772</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>815</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>45</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>121</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>126</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>135</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4601,24 +5907,27 @@
         <v>820</v>
       </c>
       <c r="Q3" t="s">
+        <v>848</v>
+      </c>
+      <c r="R3" t="s">
         <v>773</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>816</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>46</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>122</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>127</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>752</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4666,24 +5975,27 @@
         <v>821</v>
       </c>
       <c r="Q4" t="s">
+        <v>851</v>
+      </c>
+      <c r="R4" t="s">
         <v>746</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>817</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>723</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>123</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>128</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>134</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4725,21 +6037,24 @@
         <v>822</v>
       </c>
       <c r="Q5" t="s">
+        <v>852</v>
+      </c>
+      <c r="R5" t="s">
         <v>747</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>724</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>124</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>129</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>136</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4778,21 +6093,24 @@
         <v>823</v>
       </c>
       <c r="Q6" t="s">
+        <v>850</v>
+      </c>
+      <c r="R6" t="s">
         <v>749</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>47</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>125</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>130</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>137</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4824,22 +6142,25 @@
       <c r="N7" t="s">
         <v>523</v>
       </c>
+      <c r="O7" t="s">
+        <v>846</v>
+      </c>
       <c r="P7" t="s">
         <v>824</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>748</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>48</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>131</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>138</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4874,19 +6195,19 @@
       <c r="P8" t="s">
         <v>825</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>750</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>49</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>132</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>139</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4918,16 +6239,16 @@
       <c r="P9" t="s">
         <v>826</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>751</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>212</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>184</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>497</v>
       </c>
     </row>
@@ -4956,13 +6277,13 @@
       <c r="P10" t="s">
         <v>827</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>560</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>185</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4988,13 +6309,13 @@
       <c r="N11" t="s">
         <v>527</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>561</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>562</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5017,10 +6338,10 @@
       <c r="N12" t="s">
         <v>528</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>50</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5043,10 +6364,10 @@
       <c r="N13" t="s">
         <v>533</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>648</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5069,10 +6390,10 @@
       <c r="N14" t="s">
         <v>529</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>51</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5092,10 +6413,10 @@
       <c r="N15" t="s">
         <v>530</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>52</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5115,16 +6436,16 @@
       <c r="N16" t="s">
         <v>531</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>44</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>745</v>
+        <v>845</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -5135,13 +6456,13 @@
       <c r="I17" t="s">
         <v>153</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>814</v>
+        <v>745</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -5152,13 +6473,13 @@
       <c r="I18" t="s">
         <v>784</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>814</v>
       </c>
       <c r="C19" t="s">
         <v>551</v>
@@ -5169,13 +6490,13 @@
       <c r="I19" t="s">
         <v>154</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -5186,13 +6507,13 @@
       <c r="I20" t="s">
         <v>155</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>633</v>
@@ -5203,13 +6524,13 @@
       <c r="I21" t="s">
         <v>156</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -5217,13 +6538,13 @@
       <c r="E22" t="s">
         <v>602</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>489</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
         <v>460</v>
@@ -5231,18 +6552,21 @@
       <c r="E23" t="s">
         <v>593</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>489</v>
+      </c>
       <c r="C24" t="s">
         <v>461</v>
       </c>
       <c r="E24" t="s">
         <v>582</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5253,7 +6577,7 @@
       <c r="E25" t="s">
         <v>159</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5264,7 +6588,7 @@
       <c r="E26" t="s">
         <v>585</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5275,7 +6599,7 @@
       <c r="E27" t="s">
         <v>569</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>649</v>
       </c>
     </row>
@@ -5286,7 +6610,7 @@
       <c r="E28" t="s">
         <v>586</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5297,7 +6621,7 @@
       <c r="E29" t="s">
         <v>587</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5308,7 +6632,7 @@
       <c r="E30" t="s">
         <v>399</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5319,7 +6643,7 @@
       <c r="E31" t="s">
         <v>578</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5330,7 +6654,7 @@
       <c r="E32" t="s">
         <v>588</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5338,7 +6662,7 @@
       <c r="E33" t="s">
         <v>563</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5346,7 +6670,7 @@
       <c r="E34" t="s">
         <v>652</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5354,7 +6678,7 @@
       <c r="E35" t="s">
         <v>611</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5362,7 +6686,7 @@
       <c r="E36" t="s">
         <v>564</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>667</v>
       </c>
     </row>
@@ -5370,7 +6694,7 @@
       <c r="E37" t="s">
         <v>612</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>785</v>
       </c>
     </row>
@@ -5378,7 +6702,7 @@
       <c r="E38" t="s">
         <v>570</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5386,7 +6710,7 @@
       <c r="E39" t="s">
         <v>160</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5394,7 +6718,7 @@
       <c r="E40" t="s">
         <v>398</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5402,7 +6726,7 @@
       <c r="E41" t="s">
         <v>592</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5410,7 +6734,7 @@
       <c r="E42" t="s">
         <v>603</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5418,7 +6742,7 @@
       <c r="E43" t="s">
         <v>604</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5426,7 +6750,7 @@
       <c r="E44" t="s">
         <v>672</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5434,7 +6758,7 @@
       <c r="E45" t="s">
         <v>671</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5442,7 +6766,7 @@
       <c r="E46" t="s">
         <v>214</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5450,7 +6774,7 @@
       <c r="E47" t="s">
         <v>605</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5458,7 +6782,7 @@
       <c r="E48" t="s">
         <v>668</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5466,7 +6790,7 @@
       <c r="E49" t="s">
         <v>756</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5474,7 +6798,7 @@
       <c r="E50" t="s">
         <v>606</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>712</v>
       </c>
     </row>
@@ -5482,7 +6806,7 @@
       <c r="E51" t="s">
         <v>744</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5490,7 +6814,7 @@
       <c r="E52" t="s">
         <v>653</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5498,7 +6822,7 @@
       <c r="E53" t="s">
         <v>571</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5506,7 +6830,7 @@
       <c r="E54" t="s">
         <v>595</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5514,7 +6838,7 @@
       <c r="E55" t="s">
         <v>596</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5522,7 +6846,7 @@
       <c r="E56" t="s">
         <v>597</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5530,7 +6854,7 @@
       <c r="E57" t="s">
         <v>607</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5538,7 +6862,7 @@
       <c r="E58" t="s">
         <v>616</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5546,7 +6870,7 @@
       <c r="E59" t="s">
         <v>666</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>781</v>
       </c>
     </row>
@@ -5554,7 +6878,7 @@
       <c r="E60" t="s">
         <v>613</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5562,7 +6886,7 @@
       <c r="E61" t="s">
         <v>614</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5570,7 +6894,7 @@
       <c r="E62" t="s">
         <v>757</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5578,7 +6902,7 @@
       <c r="E63" t="s">
         <v>758</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5586,7 +6910,7 @@
       <c r="E64" t="s">
         <v>674</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5594,7 +6918,7 @@
       <c r="E65" t="s">
         <v>617</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5602,7 +6926,7 @@
       <c r="E66" t="s">
         <v>572</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5610,7 +6934,7 @@
       <c r="E67" t="s">
         <v>718</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5618,7 +6942,7 @@
       <c r="E68" t="s">
         <v>618</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5626,7 +6950,7 @@
       <c r="E69" t="s">
         <v>828</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5634,7 +6958,7 @@
       <c r="E70" t="s">
         <v>608</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5642,7 +6966,7 @@
       <c r="E71" t="s">
         <v>829</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5650,7 +6974,7 @@
       <c r="E72" t="s">
         <v>565</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5658,7 +6982,7 @@
       <c r="E73" t="s">
         <v>673</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5666,7 +6990,7 @@
       <c r="E74" t="s">
         <v>583</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5674,7 +6998,7 @@
       <c r="E75" t="s">
         <v>589</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5682,7 +7006,7 @@
       <c r="E76" t="s">
         <v>594</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5690,7 +7014,7 @@
       <c r="E77" t="s">
         <v>654</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5698,7 +7022,7 @@
       <c r="E78" t="s">
         <v>573</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5706,7 +7030,7 @@
       <c r="E79" t="s">
         <v>584</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5714,7 +7038,7 @@
       <c r="E80" t="s">
         <v>590</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5722,7 +7046,7 @@
       <c r="E81" t="s">
         <v>579</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5730,7 +7054,7 @@
       <c r="E82" t="s">
         <v>574</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5738,7 +7062,7 @@
       <c r="E83" t="s">
         <v>591</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5746,7 +7070,7 @@
       <c r="E84" t="s">
         <v>575</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5754,7 +7078,7 @@
       <c r="E85" t="s">
         <v>576</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5762,7 +7086,7 @@
       <c r="E86" t="s">
         <v>609</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>774</v>
       </c>
     </row>
@@ -5770,7 +7094,7 @@
       <c r="E87" t="s">
         <v>615</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5778,7 +7102,7 @@
       <c r="E88" t="s">
         <v>598</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5786,7 +7110,7 @@
       <c r="E89" t="s">
         <v>669</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5794,7 +7118,7 @@
       <c r="E90" t="s">
         <v>580</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5802,92 +7126,92 @@
       <c r="E91" t="s">
         <v>581</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="92">
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="93">
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="94">
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95">
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="96">
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="97">
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="98">
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="99">
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="100">
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="101">
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="102">
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="103">
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="104">
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="105">
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="106">
-      <c r="S106" t="s">
+      <c r="T106" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="107">
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="108">
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5900,7 +7224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -6359,7 +7683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A18" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -7509,7 +8833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -7806,7 +9130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -8280,7 +9604,7 @@
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection pane="bottomLeft" sqref="A5" activeCell="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10855,7 +12179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -11228,7 +12552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -11927,7 +13251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -12879,7 +14203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -14062,7 +15386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -14701,7 +16025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -26246,7 +27570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A504F286-5791-F440-A0A7-8FB1C8D57A41}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505ECC65-6B72-8849-8B81-C2BF465EA235}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7700" yWindow="10740" windowWidth="38400" windowHeight="14100" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="869">
   <si>
     <t>description</t>
   </si>
@@ -2744,6 +2744,33 @@
   <si>
     <t>SkipIf ( 1 != 1)
 EndIf (    "a" = "b" &amp; "c" = "d"  )</t>
+  </si>
+  <si>
+    <t>import loop</t>
+  </si>
+  <si>
+    <t>Importing Repeat-Until from Macro</t>
+  </si>
+  <si>
+    <t>base-showcase-macro</t>
+  </si>
+  <si>
+    <t>macro-with-repeat</t>
+  </si>
+  <si>
+    <t>Outside of section</t>
+  </si>
+  <si>
+    <t>import macro with loop</t>
+  </si>
+  <si>
+    <t>executing imported steps</t>
+  </si>
+  <si>
+    <t>all done with this section</t>
+  </si>
+  <si>
+    <t>SkipIf(1 = 1)</t>
   </si>
 </sst>
 </file>
@@ -25889,22 +25916,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" style="8" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.5" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="29.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="32.5" style="9" customWidth="1" collapsed="1"/>
     <col min="6" max="9" width="23.1640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.1640625" style="25" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="36" style="25" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
@@ -26241,6 +26268,60 @@
       </c>
       <c r="E15" s="9" t="s">
         <v>853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>864</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505ECC65-6B72-8849-8B81-C2BF465EA235}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90A220E-0806-CF40-9ED1-DBE6ED40E348}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="10740" windowWidth="38400" windowHeight="14100" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -48,7 +48,7 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
     <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$24</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="882">
   <si>
     <t>description</t>
   </si>
@@ -2703,13 +2703,7 @@
     <t>saveResults(db,sqls,outputDir)</t>
   </si>
   <si>
-    <t>lazer(repeats)</t>
-  </si>
-  <si>
     <t>play(audio)</t>
-  </si>
-  <si>
-    <t>warp(repeats)</t>
   </si>
   <si>
     <t>speak(text)</t>
@@ -2770,7 +2764,52 @@
     <t>all done with this section</t>
   </si>
   <si>
-    <t>SkipIf(1 = 1)</t>
+    <t>now, a new section</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>The current script is $(execution|script|name)</t>
+  </si>
+  <si>
+    <t>macro-test</t>
+  </si>
+  <si>
+    <t>$(execution|scenario|name)</t>
+  </si>
+  <si>
+    <t>The current time is $(sysdate|now|yyy MMM dd, HH:mm:ss)</t>
+  </si>
+  <si>
+    <t>check current script</t>
+  </si>
+  <si>
+    <t>check current macro-test</t>
+  </si>
+  <si>
+    <t>check current time</t>
+  </si>
+  <si>
+    <t>current counter: ${counter}</t>
+  </si>
+  <si>
+    <t>SkipIf(1 != 1)</t>
+  </si>
+  <si>
+    <t>la la la</t>
+  </si>
+  <si>
+    <t>oo-loong, that is</t>
+  </si>
+  <si>
+    <t>importing last line</t>
+  </si>
+  <si>
+    <t>check command name</t>
   </si>
 </sst>
 </file>
@@ -3115,7 +3154,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3364,6 +3403,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -4184,7 +4227,7 @@
         <v>818</v>
       </c>
       <c r="Q2" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
       <c r="R2" t="s">
         <v>771</v>
@@ -4255,7 +4298,7 @@
         <v>819</v>
       </c>
       <c r="Q3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="R3" t="s">
         <v>772</v>
@@ -4323,7 +4366,7 @@
         <v>820</v>
       </c>
       <c r="Q4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="R4" t="s">
         <v>745</v>
@@ -4385,7 +4428,7 @@
         <v>821</v>
       </c>
       <c r="Q5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="R5" t="s">
         <v>746</v>
@@ -4440,9 +4483,6 @@
       <c r="P6" t="s">
         <v>822</v>
       </c>
-      <c r="Q6" t="s">
-        <v>848</v>
-      </c>
       <c r="R6" t="s">
         <v>748</v>
       </c>
@@ -4920,7 +4960,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>161</v>
+        <v>867</v>
       </c>
       <c r="E25" t="s">
         <v>159</v>
@@ -4931,7 +4971,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
         <v>584</v>
@@ -4942,7 +4982,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
         <v>568</v>
@@ -4953,7 +4993,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
         <v>585</v>
@@ -4964,7 +5004,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
         <v>586</v>
@@ -4975,7 +5015,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
         <v>398</v>
@@ -4986,7 +5026,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s">
         <v>577</v>
@@ -4997,7 +5037,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
         <v>587</v>
@@ -5006,7 +5046,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
       <c r="E33" t="s">
         <v>562</v>
       </c>
@@ -5014,7 +5057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>651</v>
       </c>
@@ -5022,7 +5065,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>610</v>
       </c>
@@ -5030,7 +5073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>563</v>
       </c>
@@ -5038,7 +5081,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="37" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>611</v>
       </c>
@@ -5046,7 +5089,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="38" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>569</v>
       </c>
@@ -5054,7 +5097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>160</v>
       </c>
@@ -5062,7 +5105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>397</v>
       </c>
@@ -5070,7 +5113,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>591</v>
       </c>
@@ -5078,7 +5121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>602</v>
       </c>
@@ -5086,7 +5129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>603</v>
       </c>
@@ -5094,7 +5137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>671</v>
       </c>
@@ -5102,7 +5145,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>670</v>
       </c>
@@ -5110,7 +5153,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>213</v>
       </c>
@@ -5118,7 +5161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>604</v>
       </c>
@@ -5126,7 +5169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>667</v>
       </c>
@@ -7951,7 +7994,7 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -25916,11 +25959,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25929,7 +25972,7 @@
     <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="29.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.6640625" style="9" customWidth="1" collapsed="1"/>
     <col min="6" max="9" width="23.1640625" style="9" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="36" style="25" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
@@ -25971,7 +26014,7 @@
       <c r="N1" s="60"/>
       <c r="O1" s="61"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>28</v>
       </c>
@@ -26073,7 +26116,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="24" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="14"/>
@@ -26110,7 +26153,9 @@
     </row>
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>878</v>
+      </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
@@ -26133,7 +26178,9 @@
     </row>
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>879</v>
+      </c>
       <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
@@ -26156,9 +26203,11 @@
     </row>
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>855</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>880</v>
+      </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
@@ -26184,6 +26233,10 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="72" t="s">
+        <v>881</v>
+      </c>
       <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
@@ -26191,10 +26244,19 @@
         <v>622</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>851</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
     </row>
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11"/>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
@@ -26202,13 +26264,21 @@
         <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>283</v>
       </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
     </row>
     <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12"/>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
@@ -26221,10 +26291,17 @@
       <c r="F12" s="9" t="s">
         <v>629</v>
       </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13"/>
       <c r="B13" s="8" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>31</v>
@@ -26233,15 +26310,22 @@
         <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>396</v>
       </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
     </row>
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
       <c r="B14" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
@@ -26250,15 +26334,22 @@
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>546</v>
       </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
     </row>
     <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15"/>
       <c r="B15" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>13</v>
@@ -26267,15 +26358,22 @@
         <v>43</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>851</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -26284,12 +26382,20 @@
         <v>43</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+        <v>859</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17"/>
       <c r="B17" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>13</v>
@@ -26298,21 +26404,26 @@
         <v>550</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>554</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>863</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="J17" s="25" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18"/>
       <c r="B18" s="8" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>13</v>
@@ -26321,7 +26432,92 @@
         <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -26343,7 +26539,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>target</formula1>
     </dataValidation>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90A220E-0806-CF40-9ED1-DBE6ED40E348}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC04BC5A-D343-0F49-8681-CDD73BD31B0D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="25160" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="895">
   <si>
     <t>description</t>
   </si>
@@ -2810,6 +2810,45 @@
   </si>
   <si>
     <t>check command name</t>
+  </si>
+  <si>
+    <t>simple section</t>
+  </si>
+  <si>
+    <t>First section of this simple section</t>
+  </si>
+  <si>
+    <t>counter1</t>
+  </si>
+  <si>
+    <t>Still in repeat-until loop, counter1=${counter1}</t>
+  </si>
+  <si>
+    <t>Last statement of this simple section</t>
+  </si>
+  <si>
+    <t>in-section loop starts</t>
+  </si>
+  <si>
+    <t>check for termination</t>
+  </si>
+  <si>
+    <t>… do task</t>
+  </si>
+  <si>
+    <t>get ready for next loop</t>
+  </si>
+  <si>
+    <t>out of loop, out of section</t>
+  </si>
+  <si>
+    <t>simple section starts</t>
+  </si>
+  <si>
+    <t>${counter1}</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -3353,6 +3392,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3403,10 +3446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -5640,12 +5679,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -5663,20 +5702,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -5686,10 +5725,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -6098,12 +6137,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="51" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -6121,20 +6160,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>840</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -6144,10 +6183,10 @@
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="31"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" s="51" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -7247,12 +7286,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -7270,18 +7309,18 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -7291,10 +7330,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -7545,12 +7584,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -7568,20 +7607,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -7591,10 +7630,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -8016,12 +8055,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -8039,20 +8078,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -8062,10 +8101,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -10592,12 +10631,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -10615,20 +10654,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -10638,10 +10677,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -10966,12 +11005,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -10989,20 +11028,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -11012,10 +11051,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -11665,12 +11704,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -11688,20 +11727,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -11711,10 +11750,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -12616,12 +12655,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -12639,20 +12678,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -12662,10 +12701,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -13799,12 +13838,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -13822,20 +13861,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -13845,10 +13884,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -14440,12 +14479,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -14463,20 +14502,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -14486,10 +14525,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -25959,11 +25998,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25971,7 +26010,7 @@
     <col min="1" max="1" width="13.5" style="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.83203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="25.6640625" style="9" customWidth="1" collapsed="1"/>
     <col min="6" max="9" width="23.1640625" style="9" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="36" style="25" customWidth="1" collapsed="1"/>
@@ -25984,12 +26023,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -26007,20 +26046,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -26030,10 +26069,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -26234,7 +26273,7 @@
     </row>
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="57" t="s">
         <v>881</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -26518,6 +26557,130 @@
       </c>
       <c r="E23" s="9" t="s">
         <v>872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -26539,7 +26702,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>target</formula1>
     </dataValidation>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAEC4AB-0A48-0442-80A1-53A22E397E6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC540C3F-914B-BB46-97DC-3B0B9C193F12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31460" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -8934,9 +8934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11884,9 +11884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DF1F0F-B282-0943-91B8-08553FB5A8B7}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+    <sheetView zoomScale="164" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC540C3F-914B-BB46-97DC-3B0B9C193F12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA42D8-6752-0946-9CD2-357C851DED3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9260" yWindow="-20560" windowWidth="33600" windowHeight="13700" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="908">
   <si>
     <t>description</t>
   </si>
@@ -2527,15 +2527,6 @@
   </si>
   <si>
     <t>Column A,Column B,Column C,Column D,Column E</t>
-  </si>
-  <si>
-    <t>1-A,1-B,1-C,1-D,1-E</t>
-  </si>
-  <si>
-    <t>2-A,2-B,2-C,2-D,2-E</t>
-  </si>
-  <si>
-    <t>3-A,3-B,3-C,3-D,3-E</t>
   </si>
   <si>
     <t>UPDATE table1 SET Col_A='${Column A}', Col_B='${Column B}', Col_C='${Column C}';</t>
@@ -2877,6 +2868,28 @@
   </si>
   <si>
     <t>$(random|characters|abcdefghijklmnopqrstuvwxyz!@#$%^\(\)\|*|8) random chars</t>
+  </si>
+  <si>
+    <t>TimeTrackStart(Transaction 1)</t>
+  </si>
+  <si>
+    <t>TimeTrackEnd()
+TimeTrackStart(Transaction 2)</t>
+  </si>
+  <si>
+    <t>TimeTrackEnd()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-A,1-B,1-C,1-D,1-E
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-A,2-B,2-C,2-D,2-E
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-A,3-B,3-C,3-D,3-E
+</t>
   </si>
 </sst>
 </file>
@@ -4247,19 +4260,19 @@
         <v>186</v>
       </c>
       <c r="P1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="Q1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="R1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="S1" t="s">
         <v>744</v>
       </c>
       <c r="T1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="U1" t="s">
         <v>32</v>
@@ -4274,7 +4287,7 @@
         <v>133</v>
       </c>
       <c r="Y1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="Z1" t="s">
         <v>488</v>
@@ -4315,10 +4328,10 @@
         <v>188</v>
       </c>
       <c r="L2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="M2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="N2" t="s">
         <v>531</v>
@@ -4327,19 +4340,19 @@
         <v>402</v>
       </c>
       <c r="P2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="Q2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="R2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="S2" t="s">
         <v>771</v>
       </c>
       <c r="T2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="U2" t="s">
         <v>45</v>
@@ -4404,16 +4417,16 @@
         <v>403</v>
       </c>
       <c r="P3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="R3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="S3" t="s">
         <v>772</v>
       </c>
       <c r="T3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="U3" t="s">
         <v>46</v>
@@ -4428,7 +4441,7 @@
         <v>751</v>
       </c>
       <c r="Y3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="Z3" t="s">
         <v>490</v>
@@ -4475,16 +4488,16 @@
         <v>404</v>
       </c>
       <c r="P4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="R4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="S4" t="s">
         <v>745</v>
       </c>
       <c r="T4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="U4" t="s">
         <v>722</v>
@@ -4499,7 +4512,7 @@
         <v>134</v>
       </c>
       <c r="Y4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="Z4" t="s">
         <v>491</v>
@@ -4540,10 +4553,10 @@
         <v>405</v>
       </c>
       <c r="P5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="R5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="S5" t="s">
         <v>746</v>
@@ -4561,7 +4574,7 @@
         <v>136</v>
       </c>
       <c r="Y5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="Z5" t="s">
         <v>492</v>
@@ -4599,7 +4612,7 @@
         <v>782</v>
       </c>
       <c r="P6" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="S6" t="s">
         <v>748</v>
@@ -4617,7 +4630,7 @@
         <v>137</v>
       </c>
       <c r="Y6" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="Z6" t="s">
         <v>493</v>
@@ -4652,10 +4665,10 @@
         <v>522</v>
       </c>
       <c r="O7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="P7" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="S7" t="s">
         <v>747</v>
@@ -4670,7 +4683,7 @@
         <v>138</v>
       </c>
       <c r="Y7" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="Z7" t="s">
         <v>494</v>
@@ -4705,7 +4718,7 @@
         <v>523</v>
       </c>
       <c r="P8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="S8" t="s">
         <v>749</v>
@@ -4749,7 +4762,7 @@
         <v>524</v>
       </c>
       <c r="P9" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="S9" t="s">
         <v>750</v>
@@ -4787,7 +4800,7 @@
         <v>525</v>
       </c>
       <c r="P10" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="U10" t="s">
         <v>559</v>
@@ -4934,10 +4947,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C16" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E16" t="s">
         <v>620</v>
@@ -4957,7 +4970,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -4974,7 +4987,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -5008,7 +5021,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -5084,10 +5097,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C25" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E25" t="s">
         <v>159</v>
@@ -5469,7 +5482,7 @@
     </row>
     <row r="69" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="U69" t="s">
         <v>95</v>
@@ -5485,7 +5498,7 @@
     </row>
     <row r="71" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="U71" t="s">
         <v>201</v>
@@ -5781,10 +5794,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -5900,7 +5913,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="24" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="14"/>
@@ -5938,7 +5951,7 @@
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -5963,7 +5976,7 @@
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>13</v>
@@ -5987,10 +6000,10 @@
     </row>
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
@@ -6019,7 +6032,7 @@
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="57" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>13</v>
@@ -6028,7 +6041,7 @@
         <v>622</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -6048,7 +6061,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>283</v>
@@ -6085,7 +6098,7 @@
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="8" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>31</v>
@@ -6094,7 +6107,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>396</v>
@@ -6109,7 +6122,7 @@
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
@@ -6118,7 +6131,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>546</v>
@@ -6133,7 +6146,7 @@
     <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="8" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>13</v>
@@ -6142,7 +6155,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -6154,10 +6167,10 @@
     </row>
     <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -6166,7 +6179,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -6179,7 +6192,7 @@
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>13</v>
@@ -6188,18 +6201,18 @@
         <v>550</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>554</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" s="25" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -6207,7 +6220,7 @@
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="8" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>13</v>
@@ -6216,7 +6229,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -6229,13 +6242,13 @@
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="8" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -6258,7 +6271,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -6271,7 +6284,7 @@
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="8" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>13</v>
@@ -6280,7 +6293,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -6293,7 +6306,7 @@
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>13</v>
@@ -6302,10 +6315,10 @@
         <v>618</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -6317,7 +6330,7 @@
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>13</v>
@@ -6326,7 +6339,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -6338,19 +6351,19 @@
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -6363,7 +6376,7 @@
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="8" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>13</v>
@@ -6372,7 +6385,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -6392,7 +6405,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>283</v>
@@ -6407,7 +6420,7 @@
     <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>13</v>
@@ -6431,7 +6444,7 @@
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="8" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>31</v>
@@ -6440,7 +6453,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>396</v>
@@ -6455,7 +6468,7 @@
     <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="8" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>13</v>
@@ -6464,7 +6477,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -6477,7 +6490,7 @@
     <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="8" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>31</v>
@@ -6486,7 +6499,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>546</v>
@@ -6501,7 +6514,7 @@
     <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="8" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>13</v>
@@ -6510,7 +6523,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -6594,10 +6607,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -7016,8 +7029,8 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7052,10 +7065,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -7071,7 +7084,7 @@
     </row>
     <row r="2" spans="1:15" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -7390,7 +7403,7 @@
         <v>680</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -7576,7 +7589,7 @@
     <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="33" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>187</v>
@@ -7733,7 +7746,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
@@ -7761,7 +7774,7 @@
         <v>725</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>245</v>
@@ -7788,7 +7801,7 @@
         <v>725</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>239</v>
@@ -7946,7 +7959,7 @@
         <v>734</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>807</v>
+        <v>905</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>239</v>
@@ -7973,7 +7986,7 @@
         <v>734</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>808</v>
+        <v>906</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>239</v>
@@ -8000,7 +8013,7 @@
         <v>734</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>809</v>
+        <v>907</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>239</v>
@@ -8075,7 +8088,7 @@
         <v>736</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
@@ -8201,10 +8214,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -8464,7 +8477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8499,10 +8512,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -8934,9 +8947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8957,12 +8970,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -8970,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -9165,7 +9178,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="24" t="s">
+        <v>902</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="14"/>
       <c r="M8" s="11"/>
@@ -10193,7 +10208,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="14"/>
@@ -10222,7 +10237,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="14"/>
@@ -10251,7 +10266,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="14"/>
@@ -10280,7 +10295,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="14"/>
@@ -10305,7 +10320,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="14"/>
@@ -10538,7 +10553,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="12" t="s">
@@ -10554,7 +10569,9 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="24"/>
+      <c r="J61" s="24" t="s">
+        <v>903</v>
+      </c>
       <c r="K61" s="2"/>
       <c r="L61" s="14"/>
       <c r="M61" s="11"/>
@@ -11135,7 +11152,7 @@
     <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>13</v>
@@ -11164,7 +11181,7 @@
     <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>13</v>
@@ -11512,7 +11529,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11533,12 +11550,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -11546,10 +11563,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -11884,9 +11901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DF1F0F-B282-0943-91B8-08553FB5A8B7}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11920,10 +11937,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -12022,7 +12039,7 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -12032,7 +12049,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -12080,13 +12097,15 @@
         <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="24"/>
+      <c r="J7" s="24" t="s">
+        <v>904</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="14"/>
       <c r="M7" s="11"/>
@@ -12622,9 +12641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12645,12 +12664,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -12658,10 +12677,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -13357,10 +13376,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -14308,10 +14327,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -15491,10 +15510,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -16132,10 +16151,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10806"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E3BA42D8-6752-0946-9CD2-357C851DED3F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FCC28805-38CD-3F41-B099-A669A7373535}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -54,7 +54,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="917">
   <si>
     <t>description</t>
   </si>
@@ -368,9 +368,6 @@
   </si>
   <si>
     <t>saveLocation(var)</t>
-  </si>
-  <si>
-    <t>savePageAsFile(sessionIdName,url,fileName)</t>
   </si>
   <si>
     <t>scrollLeft(locator,pixel)</t>
@@ -2584,9 +2581,6 @@
   </si>
   <si>
     <t>saveTableRowsRange(var,beginRow,endRow)</t>
-  </si>
-  <si>
-    <t>assertBetween(num,min,max)</t>
   </si>
   <si>
     <t>SkipIf( ${nexial.delayBetweenStepsMs}="0")</t>
@@ -2904,34 +2898,25 @@
     <t>assertEqual(num1,num2)</t>
   </si>
   <si>
-    <t>average(variableName,array)</t>
-  </si>
-  <si>
-    <t>ceiling(variableName)</t>
-  </si>
-  <si>
-    <t>decrement(variableName,amount)</t>
-  </si>
-  <si>
-    <t>floor(variableName)</t>
-  </si>
-  <si>
-    <t>increment(variableName,amount)</t>
-  </si>
-  <si>
-    <t>max(variableName,array)</t>
-  </si>
-  <si>
-    <t>min(variableName,array)</t>
-  </si>
-  <si>
-    <t>round(variableName,closestDigit)</t>
-  </si>
-  <si>
     <t>delete(url,body,output)</t>
   </si>
   <si>
     <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -2939,7 +2924,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3144,290 +3129,8 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="113">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3605,467 +3308,8 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="126">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -4512,852 +3756,6 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5393,7 +3791,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5597,11 +3995,11 @@
       <protection locked="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5635,11 +4033,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5647,184 +4045,49 @@
     <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="7" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="10" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="13" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="19" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="22" fontId="24" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="25" fontId="25" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="25" fontId="26" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="27" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="28" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="29" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="34" fontId="31" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="37" fontId="33" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="40" fontId="34" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="36" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="61" fillId="46" fontId="38" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="49" fontId="39" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="52" fontId="40" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="52" fontId="41" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="42" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="43" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="44" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="61" fontId="46" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="64" fontId="48" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="67" fontId="49" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="51" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="89" fillId="73" fontId="53" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="76" fontId="54" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="79" fontId="55" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="79" fontId="56" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="57" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="58" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="59" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="88" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="91" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="94" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="100" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="103" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="106" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="106" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6537,9 +4800,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -6557,61 +4820,61 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" t="s">
         <v>145</v>
       </c>
-      <c r="H1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I1" t="s">
-        <v>146</v>
-      </c>
       <c r="J1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="R1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="S1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U1" t="s">
         <v>32</v>
@@ -6623,93 +4886,93 @@
         <v>34</v>
       </c>
       <c r="X1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="Z1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" t="s">
         <v>758</v>
-      </c>
-      <c r="B2" t="s">
-        <v>759</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="L2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="M2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="N2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="Q2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="R2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="S2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="T2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U2" t="s">
         <v>45</v>
       </c>
       <c r="V2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y2" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="Z2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3">
@@ -6717,144 +4980,144 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="N3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="T3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U3" t="s">
         <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Y3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="S4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="V4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="Z4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5">
@@ -6862,357 +5125,357 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="S5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="U5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="V5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="Z5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="U6" t="s">
         <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="Z6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O7" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="P7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="S7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U7" t="s">
         <v>48</v>
       </c>
       <c r="W7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="Z7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="S8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U8" t="s">
         <v>49</v>
       </c>
       <c r="W8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y8" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="Z8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="S9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M10" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="N10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="X10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="U11" t="s">
+        <v>559</v>
+      </c>
+      <c r="X11" t="s">
         <v>560</v>
       </c>
-      <c r="X11" t="s">
-        <v>561</v>
-      </c>
       <c r="Z11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U12" t="s">
         <v>50</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -7223,111 +5486,111 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="X13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="U14" t="s">
         <v>51</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U15" t="s">
         <v>52</v>
       </c>
       <c r="X15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C16" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U16" t="s">
         <v>44</v>
       </c>
       <c r="X16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U17" t="s">
         <v>53</v>
@@ -7335,16 +5598,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U18" t="s">
         <v>54</v>
@@ -7352,16 +5615,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U19" t="s">
         <v>55</v>
@@ -7369,16 +5632,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U20" t="s">
         <v>56</v>
@@ -7389,13 +5652,13 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U21" t="s">
         <v>57</v>
@@ -7409,7 +5672,7 @@
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U22" t="s">
         <v>58</v>
@@ -7420,10 +5683,10 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U23" t="s">
         <v>59</v>
@@ -7431,13 +5694,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="U24" t="s">
         <v>60</v>
@@ -7445,13 +5708,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C25" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U25" t="s">
         <v>61</v>
@@ -7459,13 +5722,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="U26" t="s">
         <v>62</v>
@@ -7476,10 +5739,10 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28">
@@ -7487,7 +5750,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="U28" t="s">
         <v>63</v>
@@ -7495,10 +5758,10 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="U29" t="s">
         <v>64</v>
@@ -7506,10 +5769,10 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U30" t="s">
         <v>65</v>
@@ -7517,10 +5780,10 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="U31" t="s">
         <v>66</v>
@@ -7531,7 +5794,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="U32" t="s">
         <v>67</v>
@@ -7539,10 +5802,10 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U33" t="s">
         <v>68</v>
@@ -7550,15 +5813,15 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U35" t="s">
         <v>69</v>
@@ -7566,538 +5829,553 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U37" t="s">
-        <v>784</v>
+        <v>912</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="U38" t="s">
-        <v>70</v>
+        <v>783</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="U41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="U42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="U43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="U44" t="s">
-        <v>399</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="U45" t="s">
-        <v>76</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="U47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="U48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U50" t="s">
-        <v>711</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U51" t="s">
-        <v>81</v>
+        <v>710</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="U53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="U54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="U55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U58" t="s">
-        <v>400</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U59" t="s">
-        <v>780</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U60" t="s">
-        <v>88</v>
+        <v>779</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U63" t="s">
-        <v>91</v>
+        <v>913</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="U64" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U65" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="U66" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U67" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="U70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U71" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U72" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="U73" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="U74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U75" t="s">
-        <v>401</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U76" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="U77" t="s">
-        <v>205</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="U78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="U79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="U80" t="s">
-        <v>207</v>
+        <v>914</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U81" t="s">
-        <v>208</v>
+        <v>916</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="U82" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="U83" t="s">
-        <v>457</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="U84" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="U85" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="U86" t="s">
-        <v>773</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="U87" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="U89" t="s">
-        <v>102</v>
+        <v>772</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="U90" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="U91" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="U92" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="U109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -8109,7 +6387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -8132,12 +6410,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -8145,10 +6423,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -8202,13 +6480,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -8245,9 +6523,9 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row ht="48" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -8257,14 +6535,14 @@
         <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="24" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="14"/>
@@ -8279,16 +6557,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -8302,7 +6580,7 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -8311,7 +6589,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -8327,7 +6605,7 @@
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>13</v>
@@ -8336,7 +6614,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -8351,25 +6629,25 @@
     </row>
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>554</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -8383,16 +6661,16 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="57" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -8412,10 +6690,10 @@
         <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -8431,13 +6709,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -8449,7 +6727,7 @@
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>31</v>
@@ -8458,10 +6736,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -8473,7 +6751,7 @@
     <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
@@ -8482,10 +6760,10 @@
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -8497,7 +6775,7 @@
     <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>13</v>
@@ -8506,7 +6784,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -8518,10 +6796,10 @@
     </row>
     <row ht="16" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -8530,7 +6808,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -8543,27 +6821,27 @@
     <row ht="16" r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" s="25" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -8571,7 +6849,7 @@
     <row ht="16" r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>13</v>
@@ -8580,7 +6858,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -8593,13 +6871,13 @@
     <row ht="16" r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -8622,7 +6900,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -8635,7 +6913,7 @@
     <row ht="16" r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="8" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>13</v>
@@ -8644,7 +6922,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -8657,19 +6935,19 @@
     <row ht="16" r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -8681,7 +6959,7 @@
     <row ht="16" r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>13</v>
@@ -8690,7 +6968,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -8702,19 +6980,19 @@
     </row>
     <row ht="16" r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -8727,7 +7005,7 @@
     <row ht="16" r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="8" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>13</v>
@@ -8736,7 +7014,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -8756,10 +7034,10 @@
         <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -8771,19 +7049,19 @@
     <row ht="16" r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -8795,7 +7073,7 @@
     <row ht="16" r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="8" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>31</v>
@@ -8804,10 +7082,10 @@
         <v>21</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -8819,7 +7097,7 @@
     <row ht="16" r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="8" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>13</v>
@@ -8828,7 +7106,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -8841,7 +7119,7 @@
     <row ht="16" r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="8" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>31</v>
@@ -8850,10 +7128,10 @@
         <v>26</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -8862,10 +7140,10 @@
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row ht="28" r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row ht="30" r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="8" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>13</v>
@@ -8874,7 +7152,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -8920,7 +7198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -8945,12 +7223,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -8958,10 +7236,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -9015,13 +7293,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -9060,7 +7338,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -9070,10 +7348,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -9095,7 +7373,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9111,19 +7389,19 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -9138,19 +7416,19 @@
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>624</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -9165,16 +7443,16 @@
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -9190,7 +7468,7 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>13</v>
@@ -9199,7 +7477,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -9215,7 +7493,7 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="27" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>31</v>
@@ -9224,10 +7502,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -9242,22 +7520,22 @@
     <row customHeight="1" ht="37" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -9270,7 +7548,7 @@
     </row>
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -9280,7 +7558,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -9296,19 +7574,19 @@
     <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -9330,7 +7608,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -9379,7 +7657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A30" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -9403,12 +7681,12 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="23" r="1" s="51" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -9416,10 +7694,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -9435,7 +7713,7 @@
     </row>
     <row customHeight="1" ht="49" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -9473,13 +7751,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="52" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -9518,7 +7796,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="36" t="s">
@@ -9528,10 +7806,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
@@ -9553,10 +7831,10 @@
         <v>40</v>
       </c>
       <c r="E6" s="37" t="s">
+        <v>675</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>676</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>677</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
@@ -9578,7 +7856,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -9601,7 +7879,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -9624,7 +7902,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -9640,7 +7918,7 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="53"/>
       <c r="B10" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>13</v>
@@ -9649,10 +7927,10 @@
         <v>40</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
@@ -9674,10 +7952,10 @@
         <v>40</v>
       </c>
       <c r="E11" s="37" t="s">
+        <v>693</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>694</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>695</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
@@ -9692,7 +7970,7 @@
     <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>13</v>
@@ -9701,7 +7979,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -9717,7 +7995,7 @@
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
       <c r="B13" s="33" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>13</v>
@@ -9726,7 +8004,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -9741,7 +8019,7 @@
     </row>
     <row customHeight="1" ht="138" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="36" t="s">
@@ -9751,10 +8029,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -9776,7 +8054,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -9791,7 +8069,7 @@
     </row>
     <row customHeight="1" ht="92" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="36" t="s">
@@ -9801,10 +8079,10 @@
         <v>40</v>
       </c>
       <c r="E16" s="37" t="s">
+        <v>682</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>683</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>684</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
@@ -9826,7 +8104,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -9841,7 +8119,7 @@
     </row>
     <row customHeight="1" ht="273" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="36" t="s">
@@ -9851,10 +8129,10 @@
         <v>40</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -9869,7 +8147,7 @@
     <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
       <c r="B19" s="33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>13</v>
@@ -9878,7 +8156,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="37"/>
@@ -9901,7 +8179,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="37"/>
@@ -9924,7 +8202,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -9940,22 +8218,22 @@
     <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="33" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
@@ -9976,7 +8254,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -9991,7 +8269,7 @@
     </row>
     <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="36" t="s">
@@ -10001,10 +8279,10 @@
         <v>40</v>
       </c>
       <c r="E24" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="F24" s="37" t="s">
         <v>690</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>691</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -10026,7 +8304,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="37"/>
@@ -10049,7 +8327,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
@@ -10072,7 +8350,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -10087,7 +8365,7 @@
     </row>
     <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="36" t="s">
@@ -10097,7 +8375,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
@@ -10110,25 +8388,25 @@
       <c r="N28" s="35"/>
       <c r="O28" s="31"/>
     </row>
-    <row ht="75" r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row ht="80" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
       <c r="B29" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="37" t="s">
         <v>724</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>725</v>
-      </c>
       <c r="F29" s="38" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -10139,23 +8417,23 @@
       <c r="N29" s="35"/>
       <c r="O29" s="31"/>
     </row>
-    <row ht="45" r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row ht="48" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="33"/>
       <c r="C30" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
@@ -10170,16 +8448,16 @@
       <c r="A31" s="53"/>
       <c r="B31" s="33"/>
       <c r="C31" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -10198,16 +8476,16 @@
         <v>13</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E32" s="37" t="s">
+        <v>726</v>
+      </c>
+      <c r="F32" s="37" t="s">
         <v>727</v>
       </c>
-      <c r="F32" s="37" t="s">
-        <v>728</v>
-      </c>
       <c r="G32" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
@@ -10228,7 +8506,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -10243,10 +8521,10 @@
     </row>
     <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="53" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>13</v>
@@ -10255,10 +8533,10 @@
         <v>40</v>
       </c>
       <c r="E34" s="37" t="s">
+        <v>731</v>
+      </c>
+      <c r="F34" s="37" t="s">
         <v>732</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>733</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -10274,19 +8552,19 @@
       <c r="A35" s="53"/>
       <c r="B35" s="33"/>
       <c r="C35" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
@@ -10301,19 +8579,19 @@
       <c r="A36" s="53"/>
       <c r="B36" s="33"/>
       <c r="C36" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
@@ -10328,19 +8606,19 @@
       <c r="A37" s="53"/>
       <c r="B37" s="33"/>
       <c r="C37" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
@@ -10355,19 +8633,19 @@
       <c r="A38" s="53"/>
       <c r="B38" s="44"/>
       <c r="C38" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H38" s="37"/>
       <c r="I38" s="37"/>
@@ -10388,7 +8666,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -10411,7 +8689,7 @@
         <v>43</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -10427,7 +8705,7 @@
     <row customHeight="1" ht="32" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="53"/>
       <c r="B41" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>13</v>
@@ -10436,10 +8714,10 @@
         <v>40</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
@@ -10461,7 +8739,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -10529,7 +8807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -10552,12 +8830,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -10565,10 +8843,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -10620,13 +8898,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -10665,20 +8943,20 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -10697,13 +8975,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -10722,13 +9000,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -10747,13 +9025,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -10772,13 +9050,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -10826,7 +9104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -10850,12 +9128,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -10863,10 +9141,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -10882,7 +9160,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -10920,13 +9198,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -10965,10 +9243,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>13</v>
@@ -10977,10 +9255,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -10995,7 +9273,7 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
@@ -11004,14 +9282,14 @@
         <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="14"/>
@@ -11022,7 +9300,7 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
@@ -11031,10 +9309,10 @@
         <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -11056,7 +9334,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -11071,10 +9349,10 @@
     </row>
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
@@ -11083,10 +9361,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -11101,19 +9379,19 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -11128,7 +9406,7 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
@@ -11137,14 +9415,14 @@
         <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="24" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="14"/>
@@ -11162,7 +9440,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -11211,10 +9489,10 @@
     </row>
     <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
@@ -11223,14 +9501,14 @@
         <v>37</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="14"/>
@@ -11248,7 +9526,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -11298,8 +9576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A77" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -11321,12 +9599,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -11334,10 +9612,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -11391,13 +9669,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -11436,10 +9714,10 @@
     </row>
     <row customHeight="1" ht="114" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>13</v>
@@ -11448,7 +9726,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
@@ -11464,7 +9742,7 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
@@ -11473,7 +9751,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -11489,7 +9767,7 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -11498,10 +9776,10 @@
         <v>40</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -11523,14 +9801,14 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="24" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="14"/>
@@ -11548,10 +9826,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -11573,7 +9851,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -11589,19 +9867,19 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -11620,13 +9898,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -11641,7 +9919,7 @@
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>13</v>
@@ -11650,10 +9928,10 @@
         <v>40</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -11672,13 +9950,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -11693,7 +9971,7 @@
     <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
@@ -11702,10 +9980,10 @@
         <v>39</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -11727,10 +10005,10 @@
         <v>35</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -11749,13 +10027,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -11777,7 +10055,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -11793,7 +10071,7 @@
     <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>13</v>
@@ -11802,10 +10080,10 @@
         <v>20</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -11824,16 +10102,16 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -11854,10 +10132,10 @@
         <v>23</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -11876,13 +10154,13 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G22"/>
       <c r="H22" s="6"/>
@@ -11904,10 +10182,10 @@
         <v>25</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -11922,22 +10200,22 @@
     <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -11958,13 +10236,13 @@
         <v>14</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -11978,7 +10256,7 @@
     <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>13</v>
@@ -11987,7 +10265,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -12003,7 +10281,7 @@
     <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>13</v>
@@ -12012,7 +10290,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -12035,13 +10313,13 @@
         <v>14</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -12055,7 +10333,7 @@
     <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>13</v>
@@ -12064,10 +10342,10 @@
         <v>20</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -12089,10 +10367,10 @@
         <v>40</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -12107,7 +10385,7 @@
     <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>13</v>
@@ -12116,13 +10394,13 @@
         <v>14</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -12135,25 +10413,25 @@
     </row>
     <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -12174,10 +10452,10 @@
         <v>40</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -12199,10 +10477,10 @@
         <v>40</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -12221,16 +10499,16 @@
         <v>13</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -12248,13 +10526,13 @@
         <v>13</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -12269,22 +10547,22 @@
     <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -12302,13 +10580,13 @@
         <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -12323,25 +10601,25 @@
     <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="24"/>
@@ -12358,13 +10636,13 @@
         <v>13</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -12383,16 +10661,16 @@
         <v>13</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -12410,13 +10688,13 @@
         <v>13</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -12431,25 +10709,25 @@
     <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="24"/>
@@ -12466,13 +10744,13 @@
         <v>13</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -12487,7 +10765,7 @@
     <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>13</v>
@@ -12496,10 +10774,10 @@
         <v>40</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -12521,10 +10799,10 @@
         <v>36</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -12538,10 +10816,10 @@
     </row>
     <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>13</v>
@@ -12550,16 +10828,16 @@
         <v>40</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="14"/>
@@ -12570,7 +10848,7 @@
     <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>13</v>
@@ -12579,16 +10857,16 @@
         <v>40</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="14"/>
@@ -12599,7 +10877,7 @@
     <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>13</v>
@@ -12608,16 +10886,16 @@
         <v>40</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="14"/>
@@ -12628,7 +10906,7 @@
     <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>13</v>
@@ -12637,16 +10915,16 @@
         <v>40</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="14"/>
@@ -12664,14 +10942,14 @@
         <v>43</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="14"/>
@@ -12682,7 +10960,7 @@
     <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>13</v>
@@ -12691,10 +10969,10 @@
         <v>40</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -12708,10 +10986,10 @@
     </row>
     <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>13</v>
@@ -12720,7 +10998,7 @@
         <v>43</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -12736,7 +11014,7 @@
     <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>13</v>
@@ -12745,10 +11023,10 @@
         <v>20</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -12763,7 +11041,7 @@
     <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>13</v>
@@ -12772,7 +11050,7 @@
         <v>43</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -12788,7 +11066,7 @@
     <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>13</v>
@@ -12797,7 +11075,7 @@
         <v>43</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -12813,7 +11091,7 @@
     <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>13</v>
@@ -12822,7 +11100,7 @@
         <v>43</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -12845,7 +11123,7 @@
         <v>43</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -12868,7 +11146,7 @@
         <v>43</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -12891,7 +11169,7 @@
         <v>43</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -12914,14 +11192,14 @@
         <v>43</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="24" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="14"/>
@@ -12932,7 +11210,7 @@
     <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>13</v>
@@ -12941,10 +11219,10 @@
         <v>40</v>
       </c>
       <c r="E62" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -12963,13 +11241,13 @@
         <v>13</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E63" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -12988,13 +11266,13 @@
         <v>13</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E64" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -13013,13 +11291,13 @@
         <v>13</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -13038,13 +11316,13 @@
         <v>13</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -13063,13 +11341,13 @@
         <v>13</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -13088,13 +11366,13 @@
         <v>13</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E68" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -13113,13 +11391,13 @@
         <v>13</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E69" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -13138,13 +11416,13 @@
         <v>13</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E70" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -13163,13 +11441,13 @@
         <v>13</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E71" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -13188,13 +11466,13 @@
         <v>13</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -13213,13 +11491,13 @@
         <v>13</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E73" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -13238,13 +11516,13 @@
         <v>13</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E74" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -13263,13 +11541,13 @@
         <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E75" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -13284,7 +11562,7 @@
     <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>13</v>
@@ -13293,10 +11571,10 @@
         <v>40</v>
       </c>
       <c r="E76" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -13318,7 +11596,7 @@
         <v>43</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -13341,7 +11619,7 @@
         <v>43</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -13364,10 +11642,10 @@
         <v>40</v>
       </c>
       <c r="E79" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -13389,7 +11667,7 @@
         <v>43</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -13405,7 +11683,7 @@
     <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>13</v>
@@ -13414,10 +11692,10 @@
         <v>40</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -13439,7 +11717,7 @@
         <v>43</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -13462,10 +11740,10 @@
         <v>40</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -13487,7 +11765,7 @@
         <v>43</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -13503,25 +11781,25 @@
     <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E85" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="14"/>
@@ -13532,25 +11810,25 @@
     <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="14"/>
@@ -13560,10 +11838,10 @@
     </row>
     <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>13</v>
@@ -13572,10 +11850,10 @@
         <v>40</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -13590,16 +11868,16 @@
     <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -13615,7 +11893,7 @@
     <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>13</v>
@@ -13624,10 +11902,10 @@
         <v>40</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -13642,7 +11920,7 @@
     <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>31</v>
@@ -13651,10 +11929,10 @@
         <v>22</v>
       </c>
       <c r="E90" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -13668,10 +11946,10 @@
     </row>
     <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>13</v>
@@ -13680,10 +11958,10 @@
         <v>40</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -13698,22 +11976,22 @@
     <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -13726,28 +12004,28 @@
     </row>
     <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="14"/>
@@ -13762,19 +12040,19 @@
         <v>31</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="14"/>
@@ -13785,19 +12063,19 @@
     <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E95" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -13879,7 +12157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -13901,12 +12179,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -13914,10 +12192,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -13971,13 +12249,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -14016,7 +12294,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -14026,10 +12304,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -14044,22 +12322,22 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>351</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -14073,7 +12351,7 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -14082,7 +12360,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -14099,16 +12377,16 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -14130,10 +12408,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -14148,19 +12426,19 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -14175,19 +12453,19 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -14252,7 +12530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DF1F0F-B282-0943-91B8-08553FB5A8B7}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -14275,12 +12553,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -14288,10 +12566,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -14345,13 +12623,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -14390,7 +12668,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -14400,7 +12678,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -14423,10 +12701,10 @@
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -14448,14 +12726,14 @@
         <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="24" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="14"/>
@@ -15015,12 +13293,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -15028,10 +13306,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -15085,13 +13363,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -15130,7 +13408,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -15140,10 +13418,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -15165,10 +13443,10 @@
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -15187,13 +13465,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -15212,13 +13490,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -15237,13 +13515,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -15262,13 +13540,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -15287,13 +13565,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -15312,13 +13590,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -15337,13 +13615,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>373</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -15362,13 +13640,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -15387,13 +13665,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -15415,10 +13693,10 @@
         <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -15437,13 +13715,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -15462,13 +13740,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -15487,13 +13765,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -15512,13 +13790,13 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -15537,13 +13815,13 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -15562,13 +13840,13 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -15587,13 +13865,13 @@
         <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -15612,13 +13890,13 @@
         <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -15637,13 +13915,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -15691,7 +13969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -15714,12 +13992,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -15727,10 +14005,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -15784,13 +14062,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -15829,7 +14107,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -15839,10 +14117,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -15864,10 +14142,10 @@
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -15886,13 +14164,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -15911,13 +14189,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -15936,13 +14214,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -15961,13 +14239,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -15986,13 +14264,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -16011,13 +14289,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -16036,13 +14314,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>373</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -16061,13 +14339,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -16086,13 +14364,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -16114,10 +14392,10 @@
         <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -16136,13 +14414,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -16161,13 +14439,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -16186,13 +14464,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -16211,13 +14489,13 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -16236,13 +14514,13 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -16261,13 +14539,13 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -16281,20 +14559,20 @@
     </row>
     <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16313,13 +14591,13 @@
         <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -16338,13 +14616,13 @@
         <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -16363,13 +14641,13 @@
         <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>468</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -16388,13 +14666,13 @@
         <v>31</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -16413,13 +14691,13 @@
         <v>31</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -16438,13 +14716,13 @@
         <v>31</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -16463,13 +14741,13 @@
         <v>31</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -16488,13 +14766,13 @@
         <v>31</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -16513,13 +14791,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -16531,9 +14809,9 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row ht="60" r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row ht="64" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
@@ -16543,7 +14821,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -16643,7 +14921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -16665,12 +14943,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -16678,10 +14956,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -16735,13 +15013,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -16780,7 +15058,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -16790,10 +15068,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -16815,7 +15093,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16838,7 +15116,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -16861,7 +15139,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -16884,7 +15162,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -16907,7 +15185,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -16930,7 +15208,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -16953,7 +15231,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -16976,7 +15254,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -16999,7 +15277,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -17022,7 +15300,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -17045,7 +15323,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -17068,7 +15346,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -17091,7 +15369,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -17114,7 +15392,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -17826,7 +16104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -17848,12 +16126,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -17861,10 +16139,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -17880,7 +16158,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -17918,13 +16196,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -17963,10 +16241,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>13</v>
@@ -17975,10 +16253,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -18000,10 +16278,10 @@
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>415</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -18025,10 +16303,10 @@
         <v>40</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -18050,10 +16328,10 @@
         <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -18067,22 +16345,22 @@
     </row>
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>420</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -18101,13 +16379,13 @@
         <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>618</v>
+        <v>909</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -18121,10 +16399,10 @@
     </row>
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
@@ -18133,7 +16411,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -18156,7 +16434,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -18171,10 +16449,10 @@
     </row>
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>13</v>
@@ -18183,10 +16461,10 @@
         <v>40</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -18208,10 +16486,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -18225,10 +16503,10 @@
     </row>
     <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
@@ -18237,7 +16515,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -18260,7 +16538,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -18276,19 +16554,19 @@
     <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -18310,13 +16588,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -18329,7 +16607,7 @@
     </row>
     <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
@@ -18339,10 +16617,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -18364,10 +16642,10 @@
         <v>40</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -18389,10 +16667,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -18407,7 +16685,7 @@
     <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>13</v>
@@ -18416,7 +16694,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -18465,7 +16743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -18489,12 +16767,12 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -18502,10 +16780,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -18559,13 +16837,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -18604,7 +16882,7 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -18614,7 +16892,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -18637,7 +16915,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -18657,13 +16935,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>537</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -18677,7 +16955,7 @@
     </row>
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -18687,7 +16965,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -18707,13 +16985,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{FCC28805-38CD-3F41-B099-A669A7373535}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -54,7 +54,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="918">
   <si>
     <t>description</t>
   </si>
@@ -2918,13 +2918,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3129,8 +3132,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3308,8 +3405,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -3756,6 +4006,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3791,7 +4323,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4045,49 +4577,94 @@
     <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="7" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="10" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="13" fontId="19" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="21" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="19" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="22" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="25" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="25" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="46" borderId="61" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="49" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="52" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="52" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4800,9 +5377,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -6016,7 +6593,7 @@
         <v>664</v>
       </c>
       <c r="U59" t="s">
-        <v>399</v>
+        <v>917</v>
       </c>
     </row>
     <row r="60">
@@ -6024,7 +6601,7 @@
         <v>611</v>
       </c>
       <c r="U60" t="s">
-        <v>779</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61">
@@ -6032,7 +6609,7 @@
         <v>612</v>
       </c>
       <c r="U61" t="s">
-        <v>88</v>
+        <v>779</v>
       </c>
     </row>
     <row r="62">
@@ -6040,7 +6617,7 @@
         <v>755</v>
       </c>
       <c r="U62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63">
@@ -6048,7 +6625,7 @@
         <v>756</v>
       </c>
       <c r="U63" t="s">
-        <v>913</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
@@ -6056,7 +6633,7 @@
         <v>672</v>
       </c>
       <c r="U64" t="s">
-        <v>90</v>
+        <v>913</v>
       </c>
     </row>
     <row r="65">
@@ -6064,7 +6641,7 @@
         <v>615</v>
       </c>
       <c r="U65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
@@ -6072,7 +6649,7 @@
         <v>570</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67">
@@ -6080,7 +6657,7 @@
         <v>716</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -6088,7 +6665,7 @@
         <v>616</v>
       </c>
       <c r="U68" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -6096,7 +6673,7 @@
         <v>823</v>
       </c>
       <c r="U69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70">
@@ -6104,7 +6681,7 @@
         <v>606</v>
       </c>
       <c r="U70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71">
@@ -6112,7 +6689,7 @@
         <v>824</v>
       </c>
       <c r="U71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72">
@@ -6120,7 +6697,7 @@
         <v>563</v>
       </c>
       <c r="U72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
@@ -6128,7 +6705,7 @@
         <v>671</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74">
@@ -6136,7 +6713,7 @@
         <v>581</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -6144,7 +6721,7 @@
         <v>587</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -6152,7 +6729,7 @@
         <v>592</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -6160,7 +6737,7 @@
         <v>906</v>
       </c>
       <c r="U77" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -6168,7 +6745,7 @@
         <v>652</v>
       </c>
       <c r="U78" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79">
@@ -6176,7 +6753,7 @@
         <v>571</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
@@ -6184,7 +6761,7 @@
         <v>582</v>
       </c>
       <c r="U80" t="s">
-        <v>914</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -6192,7 +6769,7 @@
         <v>588</v>
       </c>
       <c r="U81" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="82">
@@ -6200,7 +6777,7 @@
         <v>577</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>916</v>
       </c>
     </row>
     <row r="83">
@@ -6208,7 +6785,7 @@
         <v>572</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -6216,7 +6793,7 @@
         <v>589</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -6224,7 +6801,7 @@
         <v>573</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -6232,7 +6809,7 @@
         <v>574</v>
       </c>
       <c r="U86" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -6240,7 +6817,7 @@
         <v>607</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88">
@@ -6248,7 +6825,7 @@
         <v>613</v>
       </c>
       <c r="U88" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -6256,7 +6833,7 @@
         <v>596</v>
       </c>
       <c r="U89" t="s">
-        <v>772</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90">
@@ -6264,7 +6841,7 @@
         <v>667</v>
       </c>
       <c r="U90" t="s">
-        <v>99</v>
+        <v>772</v>
       </c>
     </row>
     <row r="91">
@@ -6272,7 +6849,7 @@
         <v>578</v>
       </c>
       <c r="U91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92">
@@ -6280,101 +6857,106 @@
         <v>579</v>
       </c>
       <c r="U92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6387,7 +6969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -7198,7 +7780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -7657,7 +8239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A30" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -8807,7 +9389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -9104,7 +9686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -9576,7 +10158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A77" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -12157,7 +12739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -12530,7 +13112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DF1F0F-B282-0943-91B8-08553FB5A8B7}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -13969,7 +14551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -14921,7 +15503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -16104,7 +16686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -16743,7 +17325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -31,16 +31,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -54,8 +54,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="926">
   <si>
     <t>description</t>
   </si>
@@ -2921,13 +2921,37 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3226,8 +3250,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="59">
+  <fills count="86">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3558,8 +3676,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="70">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -4288,6 +4559,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4323,7 +4876,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4622,49 +5175,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="34" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="37" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="40" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="36" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="46" borderId="61" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="61" fillId="46" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="49" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="49" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="52" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="52" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="52" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="52" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="61" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="64" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="67" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="73" borderId="89" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="76" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="79" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="79" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5377,7 +5975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -5707,6 +6305,9 @@
       <c r="C5" t="s">
         <v>457</v>
       </c>
+      <c r="D5" t="s">
+        <v>918</v>
+      </c>
       <c r="E5" t="s">
         <v>663</v>
       </c>
@@ -5800,7 +6401,7 @@
         <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>124</v>
+        <v>924</v>
       </c>
       <c r="W6" t="s">
         <v>129</v>
@@ -5855,6 +6456,9 @@
       <c r="U7" t="s">
         <v>48</v>
       </c>
+      <c r="V7" t="s">
+        <v>925</v>
+      </c>
       <c r="W7" t="s">
         <v>130</v>
       </c>
@@ -5905,6 +6509,9 @@
       <c r="U8" t="s">
         <v>49</v>
       </c>
+      <c r="V8" t="s">
+        <v>124</v>
+      </c>
       <c r="W8" t="s">
         <v>131</v>
       </c>
@@ -5973,7 +6580,7 @@
         <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>194</v>
+        <v>920</v>
       </c>
       <c r="M10" t="s">
         <v>911</v>
@@ -6008,7 +6615,7 @@
         <v>151</v>
       </c>
       <c r="K11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M11" t="s">
         <v>166</v>
@@ -6040,7 +6647,7 @@
         <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -6068,6 +6675,9 @@
       <c r="I13" t="s">
         <v>172</v>
       </c>
+      <c r="K13" t="s">
+        <v>196</v>
+      </c>
       <c r="M13" t="s">
         <v>167</v>
       </c>
@@ -6218,7 +6828,7 @@
         <v>598</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>919</v>
       </c>
       <c r="U20" t="s">
         <v>56</v>
@@ -6235,7 +6845,7 @@
         <v>599</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U21" t="s">
         <v>57</v>
@@ -6251,6 +6861,9 @@
       <c r="E22" t="s">
         <v>600</v>
       </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
       <c r="U22" t="s">
         <v>58</v>
       </c>
@@ -6481,7 +7094,7 @@
         <v>669</v>
       </c>
       <c r="U45" t="s">
-        <v>398</v>
+        <v>921</v>
       </c>
     </row>
     <row r="46">
@@ -6489,7 +7102,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>76</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47">
@@ -6497,7 +7110,7 @@
         <v>603</v>
       </c>
       <c r="U47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -6505,7 +7118,7 @@
         <v>666</v>
       </c>
       <c r="U48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -6513,7 +7126,7 @@
         <v>754</v>
       </c>
       <c r="U49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -6521,7 +7134,7 @@
         <v>604</v>
       </c>
       <c r="U50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
@@ -6529,7 +7142,7 @@
         <v>742</v>
       </c>
       <c r="U51" t="s">
-        <v>710</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -6537,7 +7150,7 @@
         <v>651</v>
       </c>
       <c r="U52" t="s">
-        <v>81</v>
+        <v>710</v>
       </c>
     </row>
     <row r="53">
@@ -6545,7 +7158,7 @@
         <v>569</v>
       </c>
       <c r="U53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
@@ -6553,7 +7166,7 @@
         <v>593</v>
       </c>
       <c r="U54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
@@ -6561,7 +7174,7 @@
         <v>594</v>
       </c>
       <c r="U55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
@@ -6569,7 +7182,7 @@
         <v>595</v>
       </c>
       <c r="U56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
@@ -6577,7 +7190,7 @@
         <v>605</v>
       </c>
       <c r="U57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
@@ -6585,7 +7198,7 @@
         <v>614</v>
       </c>
       <c r="U58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
@@ -6593,7 +7206,7 @@
         <v>664</v>
       </c>
       <c r="U59" t="s">
-        <v>917</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
@@ -6601,7 +7214,7 @@
         <v>611</v>
       </c>
       <c r="U60" t="s">
-        <v>399</v>
+        <v>917</v>
       </c>
     </row>
     <row r="61">
@@ -6609,7 +7222,7 @@
         <v>612</v>
       </c>
       <c r="U61" t="s">
-        <v>779</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62">
@@ -6617,7 +7230,7 @@
         <v>755</v>
       </c>
       <c r="U62" t="s">
-        <v>88</v>
+        <v>779</v>
       </c>
     </row>
     <row r="63">
@@ -6625,7 +7238,7 @@
         <v>756</v>
       </c>
       <c r="U63" t="s">
-        <v>89</v>
+        <v>922</v>
       </c>
     </row>
     <row r="64">
@@ -6633,7 +7246,7 @@
         <v>672</v>
       </c>
       <c r="U64" t="s">
-        <v>913</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
@@ -6641,7 +7254,7 @@
         <v>615</v>
       </c>
       <c r="U65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
@@ -6649,7 +7262,7 @@
         <v>570</v>
       </c>
       <c r="U66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
@@ -6657,7 +7270,7 @@
         <v>716</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68">
@@ -6665,7 +7278,7 @@
         <v>616</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -6673,7 +7286,7 @@
         <v>823</v>
       </c>
       <c r="U69" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -6681,7 +7294,7 @@
         <v>606</v>
       </c>
       <c r="U70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71">
@@ -6689,7 +7302,7 @@
         <v>824</v>
       </c>
       <c r="U71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
@@ -6697,7 +7310,7 @@
         <v>563</v>
       </c>
       <c r="U72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73">
@@ -6705,7 +7318,7 @@
         <v>671</v>
       </c>
       <c r="U73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74">
@@ -6713,7 +7326,7 @@
         <v>581</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75">
@@ -6721,7 +7334,7 @@
         <v>587</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -6729,7 +7342,7 @@
         <v>592</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -6737,7 +7350,7 @@
         <v>906</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -6745,7 +7358,7 @@
         <v>652</v>
       </c>
       <c r="U78" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -6753,7 +7366,7 @@
         <v>571</v>
       </c>
       <c r="U79" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80">
@@ -6761,7 +7374,7 @@
         <v>582</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
@@ -6769,7 +7382,7 @@
         <v>588</v>
       </c>
       <c r="U81" t="s">
-        <v>914</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -6777,7 +7390,7 @@
         <v>577</v>
       </c>
       <c r="U82" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="83">
@@ -6785,7 +7398,7 @@
         <v>572</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>916</v>
       </c>
     </row>
     <row r="84">
@@ -6793,7 +7406,7 @@
         <v>589</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -6801,7 +7414,7 @@
         <v>573</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -6809,7 +7422,7 @@
         <v>574</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -6817,7 +7430,7 @@
         <v>607</v>
       </c>
       <c r="U87" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -6825,7 +7438,7 @@
         <v>613</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89">
@@ -6833,7 +7446,7 @@
         <v>596</v>
       </c>
       <c r="U89" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -6841,7 +7454,7 @@
         <v>667</v>
       </c>
       <c r="U90" t="s">
-        <v>772</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91">
@@ -6849,7 +7462,7 @@
         <v>578</v>
       </c>
       <c r="U91" t="s">
-        <v>99</v>
+        <v>772</v>
       </c>
     </row>
     <row r="92">
@@ -6857,106 +7470,116 @@
         <v>579</v>
       </c>
       <c r="U92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>113</v>
+        <v>923</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="926">
   <si>
     <t>description</t>
   </si>
@@ -2951,7 +2951,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3344,8 +3344,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="86">
+  <fills count="113">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3829,8 +3923,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="98">
+  <borders count="126">
     <border>
       <left/>
       <right/>
@@ -4841,6 +5088,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4876,7 +5405,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5220,49 +5749,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="61" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="61" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="64" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="64" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="67" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="67" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="51" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="73" borderId="89" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="89" fillId="73" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="76" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="76" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="79" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="79" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="79" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="79" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="88" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="91" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="94" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="100" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="103" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="106" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="106" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="926">
   <si>
     <t>description</t>
   </si>
@@ -2951,7 +2951,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3438,8 +3438,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="113">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4076,8 +4170,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="126">
+  <borders count="154">
     <border>
       <left/>
       <right/>
@@ -5370,6 +5617,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5405,7 +5934,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="148">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5794,49 +6323,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="88" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="88" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="91" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="91" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="94" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="94" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="100" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="117" fillId="100" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="103" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="103" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="106" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="106" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="106" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="106" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="115" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="118" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="121" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="127" borderId="145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="130" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="133" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="133" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -40,7 +40,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="926">
   <si>
     <t>description</t>
   </si>
@@ -2951,7 +2951,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="106" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3532,8 +3532,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="140">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4323,8 +4417,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="154">
+  <borders count="182">
     <border>
       <left/>
       <right/>
@@ -5899,6 +6146,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5934,7 +6463,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6368,49 +6897,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="115" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="115" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="118" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="118" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="121" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="121" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="127" borderId="145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="145" fillId="127" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="130" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="130" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="133" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="133" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="133" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="133" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="142" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="145" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="148" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="154" borderId="173" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="157" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="160" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="160" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7584,7 +8158,7 @@
         <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>191</v>
+        <v>617</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -7640,7 +8214,7 @@
         <v>149</v>
       </c>
       <c r="K8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M8" t="s">
         <v>164</v>
@@ -7690,7 +8264,7 @@
         <v>780</v>
       </c>
       <c r="K9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M9" t="s">
         <v>165</v>
@@ -7728,7 +8302,7 @@
         <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>920</v>
+        <v>193</v>
       </c>
       <c r="M10" t="s">
         <v>911</v>
@@ -7763,7 +8337,7 @@
         <v>151</v>
       </c>
       <c r="K11" t="s">
-        <v>194</v>
+        <v>920</v>
       </c>
       <c r="M11" t="s">
         <v>166</v>
@@ -7795,7 +8369,7 @@
         <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -7824,7 +8398,7 @@
         <v>172</v>
       </c>
       <c r="K13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M13" t="s">
         <v>167</v>
@@ -7851,6 +8425,9 @@
       </c>
       <c r="I14" t="s">
         <v>173</v>
+      </c>
+      <c r="K14" t="s">
+        <v>196</v>
       </c>
       <c r="M14" t="s">
         <v>168</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4665" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5123" uniqueCount="928">
   <si>
     <t>description</t>
   </si>
@@ -2945,13 +2945,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="121" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3626,8 +3632,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="167">
+  <fills count="194">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4570,8 +4670,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="182">
+  <borders count="210">
     <border>
       <left/>
       <right/>
@@ -6428,6 +6681,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6463,7 +6998,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="178">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6942,49 +7477,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="142" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="142" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="145" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="165" fillId="145" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="148" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="148" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="96" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="154" borderId="173" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="173" fillId="154" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="157" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="157" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="160" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="160" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="160" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="160" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="169" borderId="189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="172" borderId="193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="175" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="181" borderId="201" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="184" borderId="205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="187" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="187" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7889,7 +8469,7 @@
         <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>648</v>
+        <v>926</v>
       </c>
       <c r="G3" t="s">
         <v>147</v>
@@ -7963,7 +8543,7 @@
         <v>777</v>
       </c>
       <c r="F4" t="s">
-        <v>649</v>
+        <v>927</v>
       </c>
       <c r="H4" t="s">
         <v>714</v>
@@ -8034,7 +8614,7 @@
         <v>663</v>
       </c>
       <c r="F5" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="H5" t="s">
         <v>711</v>
@@ -8096,7 +8676,7 @@
         <v>778</v>
       </c>
       <c r="F6" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="I6" t="s">
         <v>148</v>
@@ -8152,7 +8732,7 @@
         <v>752</v>
       </c>
       <c r="F7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I7" t="s">
         <v>170</v>
@@ -8208,7 +8788,7 @@
         <v>753</v>
       </c>
       <c r="F8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I8" t="s">
         <v>149</v>
@@ -8260,6 +8840,9 @@
       <c r="E9" t="s">
         <v>608</v>
       </c>
+      <c r="F9" t="s">
+        <v>644</v>
+      </c>
       <c r="I9" t="s">
         <v>780</v>
       </c>
@@ -8297,6 +8880,9 @@
       </c>
       <c r="E10" t="s">
         <v>715</v>
+      </c>
+      <c r="F10" t="s">
+        <v>645</v>
       </c>
       <c r="I10" t="s">
         <v>150</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -30,12 +30,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5123" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6047" uniqueCount="933">
   <si>
     <t>description</t>
   </si>
@@ -2951,13 +2951,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="121" x14ac:knownFonts="1">
+  <fonts count="151" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3726,8 +3741,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="194">
+  <fills count="248">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4823,8 +5026,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="210">
+  <borders count="266">
     <border>
       <left/>
       <right/>
@@ -6963,6 +7472,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6998,7 +8071,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="208">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7522,49 +8595,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="169" borderId="189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="169" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="172" borderId="193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="172" fontId="108" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="175" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="175" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="181" borderId="201" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="201" fillId="181" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="184" borderId="205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="184" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="187" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="187" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="187" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="187" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="196" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="199" fontId="123" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="202" fontId="124" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="229" fillId="208" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="211" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="214" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="214" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="223" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="226" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="229" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="235" borderId="257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="238" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="241" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="241" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8389,7 +9552,7 @@
         <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>929</v>
       </c>
       <c r="G2" t="s">
         <v>146</v>
@@ -8469,7 +9632,7 @@
         <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>926</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
         <v>147</v>
@@ -8543,7 +9706,7 @@
         <v>777</v>
       </c>
       <c r="F4" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="H4" t="s">
         <v>714</v>
@@ -8614,7 +9777,7 @@
         <v>663</v>
       </c>
       <c r="F5" t="s">
-        <v>648</v>
+        <v>931</v>
       </c>
       <c r="H5" t="s">
         <v>711</v>
@@ -8676,7 +9839,7 @@
         <v>778</v>
       </c>
       <c r="F6" t="s">
-        <v>649</v>
+        <v>927</v>
       </c>
       <c r="I6" t="s">
         <v>148</v>
@@ -8732,7 +9895,7 @@
         <v>752</v>
       </c>
       <c r="F7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="I7" t="s">
         <v>170</v>
@@ -8788,7 +9951,7 @@
         <v>753</v>
       </c>
       <c r="F8" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="I8" t="s">
         <v>149</v>
@@ -8841,7 +10004,7 @@
         <v>608</v>
       </c>
       <c r="F9" t="s">
-        <v>644</v>
+        <v>932</v>
       </c>
       <c r="I9" t="s">
         <v>780</v>
@@ -8882,7 +10045,7 @@
         <v>715</v>
       </c>
       <c r="F10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I10" t="s">
         <v>150</v>
@@ -8919,6 +10082,9 @@
       <c r="E11" t="s">
         <v>575</v>
       </c>
+      <c r="F11" t="s">
+        <v>643</v>
+      </c>
       <c r="I11" t="s">
         <v>151</v>
       </c>
@@ -8951,6 +10117,9 @@
       <c r="E12" t="s">
         <v>564</v>
       </c>
+      <c r="F12" t="s">
+        <v>644</v>
+      </c>
       <c r="I12" t="s">
         <v>171</v>
       </c>
@@ -8980,6 +10149,9 @@
       <c r="E13" t="s">
         <v>618</v>
       </c>
+      <c r="F13" t="s">
+        <v>645</v>
+      </c>
       <c r="I13" t="s">
         <v>172</v>
       </c>
@@ -9184,7 +10356,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>458</v>
+        <v>928</v>
       </c>
       <c r="E23" t="s">
         <v>591</v>
@@ -9198,7 +10370,7 @@
         <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E24" t="s">
         <v>580</v>
@@ -9212,7 +10384,7 @@
         <v>892</v>
       </c>
       <c r="C25" t="s">
-        <v>862</v>
+        <v>459</v>
       </c>
       <c r="E25" t="s">
         <v>158</v>
@@ -9226,7 +10398,7 @@
         <v>487</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>862</v>
       </c>
       <c r="E26" t="s">
         <v>583</v>
@@ -9237,7 +10409,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
         <v>567</v>
@@ -9248,7 +10420,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
         <v>584</v>
@@ -9259,7 +10431,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
         <v>585</v>
@@ -9270,7 +10442,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
         <v>397</v>
@@ -9281,7 +10453,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
         <v>576</v>
@@ -9292,7 +10464,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
         <v>586</v>
@@ -9303,7 +10475,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
         <v>561</v>
@@ -9313,6 +10485,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
       <c r="E34" t="s">
         <v>650</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -54,7 +54,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6047" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6973" uniqueCount="935">
   <si>
     <t>description</t>
   </si>
@@ -2966,13 +2966,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="151" x14ac:knownFonts="1">
+  <fonts count="181" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3929,8 +3935,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="248">
+  <fills count="302">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5332,8 +5526,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="266">
+  <borders count="322">
     <border>
       <left/>
       <right/>
@@ -8036,6 +8536,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8071,7 +9135,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="238">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8685,49 +9749,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="223" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="223" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="226" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="226" fontId="138" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="229" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="229" fontId="139" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="235" borderId="257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="257" fillId="235" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="238" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="238" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="241" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="241" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="241" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="241" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="247" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="250" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="253" fontId="153" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="256" fontId="154" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="156" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="285" fillId="262" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="265" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="268" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="268" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="271" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="274" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="271" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="277" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="280" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="283" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="289" borderId="313" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="292" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="295" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="295" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9440,7 +10594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -10836,7 +11990,7 @@
         <v>906</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>934</v>
       </c>
     </row>
     <row r="78">
@@ -10844,7 +11998,7 @@
         <v>652</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -10852,7 +12006,7 @@
         <v>571</v>
       </c>
       <c r="U79" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -10860,7 +12014,7 @@
         <v>582</v>
       </c>
       <c r="U80" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81">
@@ -10868,7 +12022,7 @@
         <v>588</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
@@ -10876,7 +12030,7 @@
         <v>577</v>
       </c>
       <c r="U82" t="s">
-        <v>914</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -10884,7 +12038,7 @@
         <v>572</v>
       </c>
       <c r="U83" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="84">
@@ -10892,7 +12046,7 @@
         <v>589</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>916</v>
       </c>
     </row>
     <row r="85">
@@ -10900,7 +12054,7 @@
         <v>573</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -10908,7 +12062,7 @@
         <v>574</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -10916,7 +12070,7 @@
         <v>607</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -10924,7 +12078,7 @@
         <v>613</v>
       </c>
       <c r="U88" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -10932,7 +12086,7 @@
         <v>596</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90">
@@ -10940,7 +12094,7 @@
         <v>667</v>
       </c>
       <c r="U90" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -10948,7 +12102,7 @@
         <v>578</v>
       </c>
       <c r="U91" t="s">
-        <v>772</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
@@ -10956,116 +12110,121 @@
         <v>579</v>
       </c>
       <c r="U92" t="s">
-        <v>99</v>
+        <v>772</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>923</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>112</v>
+        <v>923</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -54,7 +54,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6973" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7437" uniqueCount="936">
   <si>
     <t>description</t>
   </si>
@@ -2972,13 +2972,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="181" x14ac:knownFonts="1">
+  <fonts count="196" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4123,8 +4126,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="302">
+  <fills count="329">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5832,8 +5929,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="322">
+  <borders count="350">
     <border>
       <left/>
       <right/>
@@ -5997,6 +6247,288 @@
       </top>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9135,7 +9667,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="253">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9839,49 +10371,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="277" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="277" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="280" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="280" fontId="168" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="283" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="283" fontId="169" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="171" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="289" borderId="313" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="313" fillId="289" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="292" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="292" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="295" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="295" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="295" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="295" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="301" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="304" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="307" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="310" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="316" borderId="341" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="319" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="322" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="322" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10594,7 +11171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -11934,7 +12511,7 @@
         <v>606</v>
       </c>
       <c r="U70" t="s">
-        <v>92</v>
+        <v>935</v>
       </c>
     </row>
     <row r="71">
@@ -11942,7 +12519,7 @@
         <v>824</v>
       </c>
       <c r="U71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
@@ -11950,7 +12527,7 @@
         <v>563</v>
       </c>
       <c r="U72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
@@ -11958,7 +12535,7 @@
         <v>671</v>
       </c>
       <c r="U73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74">
@@ -11966,7 +12543,7 @@
         <v>581</v>
       </c>
       <c r="U74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
@@ -11974,7 +12551,7 @@
         <v>587</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76">
@@ -11982,7 +12559,7 @@
         <v>592</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -11990,7 +12567,7 @@
         <v>906</v>
       </c>
       <c r="U77" t="s">
-        <v>934</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -11998,7 +12575,7 @@
         <v>652</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>934</v>
       </c>
     </row>
     <row r="79">
@@ -12006,7 +12583,7 @@
         <v>571</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -12014,7 +12591,7 @@
         <v>582</v>
       </c>
       <c r="U80" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -12022,7 +12599,7 @@
         <v>588</v>
       </c>
       <c r="U81" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82">
@@ -12030,7 +12607,7 @@
         <v>577</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83">
@@ -12038,7 +12615,7 @@
         <v>572</v>
       </c>
       <c r="U83" t="s">
-        <v>914</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -12046,7 +12623,7 @@
         <v>589</v>
       </c>
       <c r="U84" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="85">
@@ -12054,7 +12631,7 @@
         <v>573</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>916</v>
       </c>
     </row>
     <row r="86">
@@ -12062,7 +12639,7 @@
         <v>574</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -12070,7 +12647,7 @@
         <v>607</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -12078,7 +12655,7 @@
         <v>613</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -12086,7 +12663,7 @@
         <v>596</v>
       </c>
       <c r="U89" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -12094,7 +12671,7 @@
         <v>667</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
     </row>
     <row r="91">
@@ -12102,7 +12679,7 @@
         <v>578</v>
       </c>
       <c r="U91" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -12110,121 +12687,126 @@
         <v>579</v>
       </c>
       <c r="U92" t="s">
-        <v>772</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>99</v>
+        <v>772</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>923</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>112</v>
+        <v>923</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7437" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7902" uniqueCount="937">
   <si>
     <t>description</t>
   </si>
@@ -2975,13 +2975,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="196" x14ac:knownFonts="1">
+  <fonts count="211" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4220,8 +4223,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="329">
+  <fills count="356">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6082,8 +6179,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="350">
+  <borders count="378">
     <border>
       <left/>
       <right/>
@@ -6247,6 +6497,288 @@
       </top>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9667,7 +10199,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="268">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10416,49 +10948,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="304" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="304" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="307" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="307" fontId="183" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="310" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="310" fontId="184" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="186" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="316" borderId="341" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="341" fillId="316" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="319" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="319" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="322" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="322" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="322" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="322" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="328" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="331" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="334" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="337" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="343" borderId="369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="346" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="349" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="349" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11508,7 +12085,7 @@
         <v>663</v>
       </c>
       <c r="F5" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="H5" t="s">
         <v>711</v>
@@ -11570,7 +12147,7 @@
         <v>778</v>
       </c>
       <c r="F6" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="I6" t="s">
         <v>148</v>
@@ -11626,7 +12203,7 @@
         <v>752</v>
       </c>
       <c r="F7" t="s">
-        <v>648</v>
+        <v>927</v>
       </c>
       <c r="I7" t="s">
         <v>170</v>
@@ -11682,7 +12259,7 @@
         <v>753</v>
       </c>
       <c r="F8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I8" t="s">
         <v>149</v>
@@ -11735,7 +12312,7 @@
         <v>608</v>
       </c>
       <c r="F9" t="s">
-        <v>932</v>
+        <v>649</v>
       </c>
       <c r="I9" t="s">
         <v>780</v>
@@ -11776,7 +12353,7 @@
         <v>715</v>
       </c>
       <c r="F10" t="s">
-        <v>642</v>
+        <v>932</v>
       </c>
       <c r="I10" t="s">
         <v>150</v>
@@ -11814,7 +12391,7 @@
         <v>575</v>
       </c>
       <c r="F11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I11" t="s">
         <v>151</v>
@@ -11849,7 +12426,7 @@
         <v>564</v>
       </c>
       <c r="F12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I12" t="s">
         <v>171</v>
@@ -11881,7 +12458,7 @@
         <v>618</v>
       </c>
       <c r="F13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I13" t="s">
         <v>172</v>
@@ -11911,6 +12488,9 @@
       </c>
       <c r="E14" t="s">
         <v>565</v>
+      </c>
+      <c r="F14" t="s">
+        <v>645</v>
       </c>
       <c r="I14" t="s">
         <v>173</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -38,7 +38,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7902" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8833" uniqueCount="938">
   <si>
     <t>description</t>
   </si>
@@ -2978,13 +2978,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="211" x14ac:knownFonts="1">
+  <fonts count="241" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4317,8 +4320,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="356">
+  <fills count="410">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6332,8 +6523,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="378">
+  <borders count="434">
     <border>
       <left/>
       <right/>
@@ -6497,6 +6994,570 @@
       </top>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -10199,7 +11260,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="298">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10993,49 +12054,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="331" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="357" fillId="331" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="334" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="361" fillId="334" fontId="198" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="337" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="337" fontId="199" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="201" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="343" borderId="369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="369" fillId="343" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="346" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="373" fillId="346" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="349" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="377" fillId="349" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="349" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="377" fillId="349" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="352" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="355" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="352" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="358" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="389" fillId="361" fontId="213" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="364" fontId="214" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="367" fontId="216" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="397" fillId="370" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="373" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="405" fillId="376" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="405" fillId="376" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="379" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="382" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="379" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="385" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="388" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="391" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="397" borderId="425" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="400" borderId="429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="403" borderId="433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="403" borderId="433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="406" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="409" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="406" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12493,7 +13644,7 @@
         <v>645</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>937</v>
       </c>
       <c r="K14" t="s">
         <v>196</v>
@@ -12522,7 +13673,7 @@
         <v>566</v>
       </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s">
         <v>169</v>
@@ -12548,7 +13699,7 @@
         <v>619</v>
       </c>
       <c r="I16" t="s">
-        <v>769</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s">
         <v>529</v>
@@ -12571,7 +13722,7 @@
         <v>181</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>769</v>
       </c>
       <c r="U17" t="s">
         <v>53</v>
@@ -12588,7 +13739,7 @@
         <v>182</v>
       </c>
       <c r="I18" t="s">
-        <v>782</v>
+        <v>152</v>
       </c>
       <c r="U18" t="s">
         <v>54</v>
@@ -12605,7 +13756,7 @@
         <v>597</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>782</v>
       </c>
       <c r="U19" t="s">
         <v>55</v>
@@ -12622,7 +13773,7 @@
         <v>598</v>
       </c>
       <c r="I20" t="s">
-        <v>919</v>
+        <v>153</v>
       </c>
       <c r="U20" t="s">
         <v>56</v>
@@ -12639,7 +13790,7 @@
         <v>599</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>919</v>
       </c>
       <c r="U21" t="s">
         <v>57</v>
@@ -12656,7 +13807,7 @@
         <v>600</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U22" t="s">
         <v>58</v>
@@ -12671,6 +13822,9 @@
       </c>
       <c r="E23" t="s">
         <v>591</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
       </c>
       <c r="U23" t="s">
         <v>59</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -30,7 +30,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8833" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9301" uniqueCount="940">
   <si>
     <t>description</t>
   </si>
@@ -2981,13 +2981,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="241" x14ac:knownFonts="1">
+  <fonts count="256" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4508,8 +4514,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="410">
+  <fills count="437">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6829,8 +6929,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="434">
+  <borders count="462">
     <border>
       <left/>
       <right/>
@@ -6994,6 +7247,288 @@
       </top>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -11260,7 +11795,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="313">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12144,49 +12679,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="385" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="413" fillId="385" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="388" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="417" fillId="388" fontId="228" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="391" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="391" fontId="229" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="230" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="394" fontId="231" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="397" borderId="425" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="425" fillId="397" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="400" borderId="429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="429" fillId="400" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="403" borderId="433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="433" fillId="403" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="403" borderId="433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="433" fillId="403" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="406" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="406" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="409" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="409" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="406" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="406" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="412" borderId="441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="415" borderId="445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="418" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="421" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="424" borderId="453" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="427" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="430" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="430" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13082,7 +13662,7 @@
         <v>759</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>938</v>
       </c>
       <c r="D3" t="s">
         <v>751</v>
@@ -13156,7 +13736,7 @@
         <v>760</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>178</v>
@@ -13227,7 +13807,7 @@
         <v>761</v>
       </c>
       <c r="C5" t="s">
-        <v>457</v>
+        <v>939</v>
       </c>
       <c r="D5" t="s">
         <v>918</v>
@@ -13292,7 +13872,7 @@
         <v>762</v>
       </c>
       <c r="C6" t="s">
-        <v>620</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>778</v>
@@ -13348,7 +13928,7 @@
         <v>763</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>457</v>
       </c>
       <c r="E7" t="s">
         <v>752</v>
@@ -13404,7 +13984,7 @@
         <v>764</v>
       </c>
       <c r="C8" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E8" t="s">
         <v>753</v>
@@ -13457,7 +14037,7 @@
         <v>765</v>
       </c>
       <c r="C9" t="s">
-        <v>548</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>608</v>
@@ -13498,7 +14078,7 @@
         <v>657</v>
       </c>
       <c r="C10" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E10" t="s">
         <v>715</v>
@@ -13536,7 +14116,7 @@
         <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>668</v>
+        <v>548</v>
       </c>
       <c r="E11" t="s">
         <v>575</v>
@@ -13571,7 +14151,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="E12" t="s">
         <v>564</v>
@@ -13603,7 +14183,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>668</v>
       </c>
       <c r="E13" t="s">
         <v>618</v>
@@ -13635,7 +14215,7 @@
         <v>516</v>
       </c>
       <c r="C14" t="s">
-        <v>774</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>565</v>
@@ -13667,7 +14247,7 @@
         <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>775</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>566</v>
@@ -13693,7 +14273,7 @@
         <v>813</v>
       </c>
       <c r="C16" t="s">
-        <v>837</v>
+        <v>774</v>
       </c>
       <c r="E16" t="s">
         <v>619</v>
@@ -13716,7 +14296,7 @@
         <v>890</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>775</v>
       </c>
       <c r="E17" t="s">
         <v>181</v>
@@ -13733,7 +14313,7 @@
         <v>839</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>837</v>
       </c>
       <c r="E18" t="s">
         <v>182</v>
@@ -13750,7 +14330,7 @@
         <v>743</v>
       </c>
       <c r="C19" t="s">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>597</v>
@@ -13767,7 +14347,7 @@
         <v>809</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
         <v>598</v>
@@ -13784,7 +14364,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>631</v>
+        <v>549</v>
       </c>
       <c r="E21" t="s">
         <v>599</v>
@@ -13801,7 +14381,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
         <v>600</v>
@@ -13818,7 +14398,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>928</v>
+        <v>631</v>
       </c>
       <c r="E23" t="s">
         <v>591</v>
@@ -13835,7 +14415,7 @@
         <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>458</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
         <v>580</v>
@@ -13849,7 +14429,7 @@
         <v>892</v>
       </c>
       <c r="C25" t="s">
-        <v>459</v>
+        <v>928</v>
       </c>
       <c r="E25" t="s">
         <v>158</v>
@@ -13863,7 +14443,7 @@
         <v>487</v>
       </c>
       <c r="C26" t="s">
-        <v>862</v>
+        <v>458</v>
       </c>
       <c r="E26" t="s">
         <v>583</v>
@@ -13874,7 +14454,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>160</v>
+        <v>459</v>
       </c>
       <c r="E27" t="s">
         <v>567</v>
@@ -13885,7 +14465,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>41</v>
+        <v>862</v>
       </c>
       <c r="E28" t="s">
         <v>584</v>
@@ -13896,7 +14476,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
         <v>585</v>
@@ -13907,7 +14487,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
         <v>397</v>
@@ -13918,7 +14498,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
         <v>576</v>
@@ -13929,7 +14509,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
         <v>586</v>
@@ -13940,7 +14520,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
         <v>561</v>
@@ -13951,7 +14531,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
         <v>650</v>
@@ -13961,6 +14541,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
       <c r="E35" t="s">
         <v>609</v>
       </c>
@@ -13969,6 +14552,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
       <c r="E36" t="s">
         <v>562</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -54,7 +54,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9301" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9770" uniqueCount="941">
   <si>
     <t>description</t>
   </si>
@@ -2987,13 +2987,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="256" x14ac:knownFonts="1">
+  <fonts count="271" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4608,8 +4611,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="437">
+  <fills count="464">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7082,8 +7179,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="462">
+  <borders count="490">
     <border>
       <left/>
       <right/>
@@ -7247,6 +7497,288 @@
       </top>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -11795,7 +12327,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="328">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12724,49 +13256,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="412" borderId="441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="441" fillId="412" fontId="241" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="415" borderId="445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="445" fillId="415" fontId="243" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="418" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="418" fontId="244" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="421" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="421" fontId="246" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="424" borderId="453" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="453" fillId="424" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="427" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="457" fillId="427" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="430" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="461" fillId="430" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="430" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="461" fillId="430" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="433" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="436" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="433" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="439" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="442" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="445" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="448" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="451" borderId="481" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="454" borderId="485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="457" borderId="489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="457" borderId="489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="460" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="463" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="460" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13479,7 +14056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -14695,7 +15272,7 @@
         <v>569</v>
       </c>
       <c r="U53" t="s">
-        <v>81</v>
+        <v>940</v>
       </c>
     </row>
     <row r="54">
@@ -14703,7 +15280,7 @@
         <v>593</v>
       </c>
       <c r="U54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
@@ -14711,7 +15288,7 @@
         <v>594</v>
       </c>
       <c r="U55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
@@ -14719,7 +15296,7 @@
         <v>595</v>
       </c>
       <c r="U56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
@@ -14727,7 +15304,7 @@
         <v>605</v>
       </c>
       <c r="U57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
@@ -14735,7 +15312,7 @@
         <v>614</v>
       </c>
       <c r="U58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
@@ -14743,7 +15320,7 @@
         <v>664</v>
       </c>
       <c r="U59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
@@ -14751,7 +15328,7 @@
         <v>611</v>
       </c>
       <c r="U60" t="s">
-        <v>917</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61">
@@ -14759,7 +15336,7 @@
         <v>612</v>
       </c>
       <c r="U61" t="s">
-        <v>399</v>
+        <v>917</v>
       </c>
     </row>
     <row r="62">
@@ -14767,7 +15344,7 @@
         <v>755</v>
       </c>
       <c r="U62" t="s">
-        <v>779</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63">
@@ -14775,7 +15352,7 @@
         <v>756</v>
       </c>
       <c r="U63" t="s">
-        <v>922</v>
+        <v>779</v>
       </c>
     </row>
     <row r="64">
@@ -14783,7 +15360,7 @@
         <v>672</v>
       </c>
       <c r="U64" t="s">
-        <v>88</v>
+        <v>922</v>
       </c>
     </row>
     <row r="65">
@@ -14791,7 +15368,7 @@
         <v>615</v>
       </c>
       <c r="U65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
@@ -14799,7 +15376,7 @@
         <v>570</v>
       </c>
       <c r="U66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
@@ -14807,7 +15384,7 @@
         <v>716</v>
       </c>
       <c r="U67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
@@ -14815,7 +15392,7 @@
         <v>616</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69">
@@ -14823,7 +15400,7 @@
         <v>823</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -14831,7 +15408,7 @@
         <v>606</v>
       </c>
       <c r="U70" t="s">
-        <v>935</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -14839,7 +15416,7 @@
         <v>824</v>
       </c>
       <c r="U71" t="s">
-        <v>92</v>
+        <v>935</v>
       </c>
     </row>
     <row r="72">
@@ -14847,7 +15424,7 @@
         <v>563</v>
       </c>
       <c r="U72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
@@ -14855,7 +15432,7 @@
         <v>671</v>
       </c>
       <c r="U73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74">
@@ -14863,7 +15440,7 @@
         <v>581</v>
       </c>
       <c r="U74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75">
@@ -14871,7 +15448,7 @@
         <v>587</v>
       </c>
       <c r="U75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
@@ -14879,7 +15456,7 @@
         <v>592</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77">
@@ -14887,7 +15464,7 @@
         <v>906</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -14895,7 +15472,7 @@
         <v>652</v>
       </c>
       <c r="U78" t="s">
-        <v>934</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -14903,7 +15480,7 @@
         <v>571</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>934</v>
       </c>
     </row>
     <row r="80">
@@ -14911,7 +15488,7 @@
         <v>582</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -14919,7 +15496,7 @@
         <v>588</v>
       </c>
       <c r="U81" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -14927,7 +15504,7 @@
         <v>577</v>
       </c>
       <c r="U82" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83">
@@ -14935,7 +15512,7 @@
         <v>572</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84">
@@ -14943,7 +15520,7 @@
         <v>589</v>
       </c>
       <c r="U84" t="s">
-        <v>914</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -14951,7 +15528,7 @@
         <v>573</v>
       </c>
       <c r="U85" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="86">
@@ -14959,7 +15536,7 @@
         <v>574</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>916</v>
       </c>
     </row>
     <row r="87">
@@ -14967,7 +15544,7 @@
         <v>607</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -14975,7 +15552,7 @@
         <v>613</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -14983,7 +15560,7 @@
         <v>596</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -14991,7 +15568,7 @@
         <v>667</v>
       </c>
       <c r="U90" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -14999,7 +15576,7 @@
         <v>578</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92">
@@ -15007,126 +15584,131 @@
         <v>579</v>
       </c>
       <c r="U92" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>772</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>99</v>
+        <v>772</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>923</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>112</v>
+        <v>923</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -38,7 +38,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -57,7 +57,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9770" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10241" uniqueCount="943">
   <si>
     <t>description</t>
   </si>
@@ -2990,13 +2990,19 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="271" x14ac:knownFonts="1">
+  <fonts count="287" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4705,8 +4711,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="464">
+  <fills count="491">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7332,8 +7439,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="490">
+  <borders count="518">
     <border>
       <left/>
       <right/>
@@ -7497,6 +7757,288 @@
       </top>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12327,7 +12869,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="344">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13301,49 +13843,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="439" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="469" fillId="439" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="442" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="473" fillId="442" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="445" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="445" fontId="259" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="448" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="448" fontId="261" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="451" borderId="481" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="481" fillId="451" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="454" borderId="485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="485" fillId="454" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="457" borderId="489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="489" fillId="457" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="457" borderId="489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="489" fillId="457" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="460" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="463" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="463" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="460" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="466" borderId="497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="469" borderId="501" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="472" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="475" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="478" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="481" borderId="509" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="484" borderId="513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="487" borderId="517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="487" borderId="517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14399,7 +14989,7 @@
         <v>711</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>941</v>
       </c>
       <c r="K5" t="s">
         <v>189</v>
@@ -14458,7 +15048,7 @@
         <v>931</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="K6" t="s">
         <v>190</v>
@@ -14514,7 +15104,7 @@
         <v>927</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="K7" t="s">
         <v>617</v>
@@ -14570,7 +15160,7 @@
         <v>648</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="K8" t="s">
         <v>191</v>
@@ -14623,7 +15213,7 @@
         <v>649</v>
       </c>
       <c r="I9" t="s">
-        <v>780</v>
+        <v>149</v>
       </c>
       <c r="K9" t="s">
         <v>192</v>
@@ -14664,7 +15254,7 @@
         <v>932</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>780</v>
       </c>
       <c r="K10" t="s">
         <v>193</v>
@@ -14702,7 +15292,7 @@
         <v>642</v>
       </c>
       <c r="I11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11" t="s">
         <v>920</v>
@@ -14737,7 +15327,7 @@
         <v>643</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
         <v>194</v>
@@ -14769,7 +15359,7 @@
         <v>644</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K13" t="s">
         <v>195</v>
@@ -14801,7 +15391,7 @@
         <v>645</v>
       </c>
       <c r="I14" t="s">
-        <v>937</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
         <v>196</v>
@@ -14830,7 +15420,7 @@
         <v>566</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>937</v>
       </c>
       <c r="M15" t="s">
         <v>169</v>
@@ -14856,7 +15446,7 @@
         <v>619</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s">
         <v>529</v>
@@ -14879,10 +15469,13 @@
         <v>181</v>
       </c>
       <c r="I17" t="s">
-        <v>769</v>
+        <v>174</v>
       </c>
       <c r="U17" t="s">
         <v>53</v>
+      </c>
+      <c r="X17" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="18">
@@ -14896,7 +15489,7 @@
         <v>182</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>769</v>
       </c>
       <c r="U18" t="s">
         <v>54</v>
@@ -14913,7 +15506,7 @@
         <v>597</v>
       </c>
       <c r="I19" t="s">
-        <v>782</v>
+        <v>152</v>
       </c>
       <c r="U19" t="s">
         <v>55</v>
@@ -14930,7 +15523,7 @@
         <v>598</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>782</v>
       </c>
       <c r="U20" t="s">
         <v>56</v>
@@ -14947,7 +15540,7 @@
         <v>599</v>
       </c>
       <c r="I21" t="s">
-        <v>919</v>
+        <v>153</v>
       </c>
       <c r="U21" t="s">
         <v>57</v>
@@ -14964,7 +15557,7 @@
         <v>600</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>919</v>
       </c>
       <c r="U22" t="s">
         <v>58</v>
@@ -14981,7 +15574,7 @@
         <v>591</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U23" t="s">
         <v>59</v>
@@ -14996,6 +15589,9 @@
       </c>
       <c r="E24" t="s">
         <v>580</v>
+      </c>
+      <c r="I24" t="s">
+        <v>155</v>
       </c>
       <c r="U24" t="s">
         <v>60</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -30,36 +30,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$24</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10241" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10716" uniqueCount="946">
   <si>
     <t>description</t>
   </si>
@@ -2996,13 +2997,22 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="287" x14ac:knownFonts="1">
+  <fonts count="303" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4812,8 +4822,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="491">
+  <fills count="518">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7592,8 +7703,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="518">
+  <borders count="546">
     <border>
       <left/>
       <right/>
@@ -7757,6 +8021,288 @@
       </top>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12869,7 +13415,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="360">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13888,52 +14434,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="466" borderId="497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="497" fillId="466" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="469" borderId="501" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="501" fillId="469" fontId="273" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="472" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="472" fontId="274" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="475" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="475" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="478" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="478" fontId="277" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="481" borderId="509" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="509" fillId="481" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="484" borderId="513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="513" fillId="484" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="487" borderId="517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="517" fillId="487" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="487" borderId="517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="517" fillId="487" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="475" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="490" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="475" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="493" borderId="525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="496" borderId="529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="499" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="502" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="505" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="508" borderId="537" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="511" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="514" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="514" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14646,7 +15240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -14669,75 +15263,78 @@
         <v>757</v>
       </c>
       <c r="C1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>175</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>372</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>145</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>657</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>186</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>516</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>185</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>813</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>890</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>839</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>743</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>809</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>892</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>487</v>
       </c>
     </row>
@@ -14749,1562 +15346,1571 @@
         <v>758</v>
       </c>
       <c r="C2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>177</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>157</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>929</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>146</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>712</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>617</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>773</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>907</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>838</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>908</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>530</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>401</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>814</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>891</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>863</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>770</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>810</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>120</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>125</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>134</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>910</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>943</v>
       </c>
       <c r="B3" t="s">
         <v>759</v>
       </c>
       <c r="C3" t="s">
+        <v>945</v>
+      </c>
+      <c r="D3" t="s">
         <v>938</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>751</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>180</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>179</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>147</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>713</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>668</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>658</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>187</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>909</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>517</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>402</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>815</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>841</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>771</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>811</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>121</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>126</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>750</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>760</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>178</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>777</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>930</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>714</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>515</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>659</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>188</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>518</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>403</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>816</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>842</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>744</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>812</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>721</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>122</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>127</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>133</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>893</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>761</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>939</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>918</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>663</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>936</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>711</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>941</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>189</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>519</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>404</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>817</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>843</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>745</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>722</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>123</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>128</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>135</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>894</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>762</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>778</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>931</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>177</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>190</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>520</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>781</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>818</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>747</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>47</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>924</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>129</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>136</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>895</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>763</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>457</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>752</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>927</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>148</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>617</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>521</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>840</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>819</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>746</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>48</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>925</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>130</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>137</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>896</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>764</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>620</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>753</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>648</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>170</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>191</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>164</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>522</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>820</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>748</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>49</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>124</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>131</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>138</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>897</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
         <v>765</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>608</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>649</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>149</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>192</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>165</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>523</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>821</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>749</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>183</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>657</v>
-      </c>
-      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
         <v>617</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>715</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>932</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>780</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>193</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>911</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>524</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>822</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>558</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>184</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" t="s">
+        <v>657</v>
+      </c>
+      <c r="D11" t="s">
         <v>548</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>575</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>642</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>150</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>920</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>166</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>525</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>559</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>560</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" t="s">
         <v>621</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>564</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>643</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>151</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>194</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>526</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>50</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>668</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>618</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>644</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>171</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>195</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>167</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>531</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>646</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>565</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>645</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>172</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>196</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>168</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>527</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>51</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>566</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>937</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>169</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>528</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>52</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>813</v>
-      </c>
-      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" t="s">
         <v>774</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>619</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>173</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>529</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>44</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>890</v>
-      </c>
-      <c r="C17" t="s">
+        <v>813</v>
+      </c>
+      <c r="D17" t="s">
         <v>775</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>181</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>174</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>53</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>839</v>
-      </c>
-      <c r="C18" t="s">
+        <v>890</v>
+      </c>
+      <c r="D18" t="s">
         <v>837</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>182</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>769</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>743</v>
-      </c>
-      <c r="C19" t="s">
+        <v>839</v>
+      </c>
+      <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>597</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>152</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>809</v>
-      </c>
-      <c r="C20" t="s">
+        <v>743</v>
+      </c>
+      <c r="D20" t="s">
         <v>38</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>598</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>782</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
+        <v>809</v>
+      </c>
+      <c r="D21" t="s">
         <v>549</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>599</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>153</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>600</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>919</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
         <v>631</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>591</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>154</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>580</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>155</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>892</v>
-      </c>
-      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
         <v>928</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>158</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>892</v>
+      </c>
+      <c r="D26" t="s">
+        <v>458</v>
+      </c>
+      <c r="F26" t="s">
+        <v>583</v>
+      </c>
+      <c r="V26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>487</v>
       </c>
-      <c r="C26" t="s">
-        <v>458</v>
-      </c>
-      <c r="E26" t="s">
-        <v>583</v>
-      </c>
-      <c r="U26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>459</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>567</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>862</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>584</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>160</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>585</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>41</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>397</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>42</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>576</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>161</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>586</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>162</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>561</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>163</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>650</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>609</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>156</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>562</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>610</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>568</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>159</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>396</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>590</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>601</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>602</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>670</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>669</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>603</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>666</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>754</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>604</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>742</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>651</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>569</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>593</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>594</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>595</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>605</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>614</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>664</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>611</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>612</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>755</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>756</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>672</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>615</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>570</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>716</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>616</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>823</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>606</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>824</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>563</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>671</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>581</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>587</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>592</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>906</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>652</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>571</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>582</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>588</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>577</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>572</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>589</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>573</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>574</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>607</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>613</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>596</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>667</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>578</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>579</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -54,7 +54,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10716" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11192" uniqueCount="948">
   <si>
     <t>description</t>
   </si>
@@ -3006,13 +3006,19 @@
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
   </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="303" x14ac:knownFonts="1">
+  <fonts count="319" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4923,8 +4929,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="518">
+  <fills count="545">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7856,8 +7963,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="546">
+  <borders count="574">
     <border>
       <left/>
       <right/>
@@ -8021,6 +8281,288 @@
       </top>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13415,7 +13957,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="376">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14482,52 +15024,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="493" borderId="525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="525" fillId="493" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="496" borderId="529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="529" fillId="496" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="499" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="499" fontId="290" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="502" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="502" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="505" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="505" fontId="293" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="508" borderId="537" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="537" fillId="508" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="511" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="541" fillId="511" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="514" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="545" fillId="514" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="514" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="545" fillId="514" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="502" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="517" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="502" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="520" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="523" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="526" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="529" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="532" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="535" borderId="565" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="538" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="541" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="541" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="544" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15240,7 +15830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -15346,7 +15936,7 @@
         <v>758</v>
       </c>
       <c r="C2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -16458,7 +17048,7 @@
         <v>742</v>
       </c>
       <c r="V51" t="s">
-        <v>80</v>
+        <v>947</v>
       </c>
     </row>
     <row r="52">
@@ -16466,7 +17056,7 @@
         <v>651</v>
       </c>
       <c r="V52" t="s">
-        <v>710</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
@@ -16474,7 +17064,7 @@
         <v>569</v>
       </c>
       <c r="V53" t="s">
-        <v>940</v>
+        <v>710</v>
       </c>
     </row>
     <row r="54">
@@ -16482,7 +17072,7 @@
         <v>593</v>
       </c>
       <c r="V54" t="s">
-        <v>81</v>
+        <v>940</v>
       </c>
     </row>
     <row r="55">
@@ -16490,7 +17080,7 @@
         <v>594</v>
       </c>
       <c r="V55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
@@ -16498,7 +17088,7 @@
         <v>595</v>
       </c>
       <c r="V56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
@@ -16506,7 +17096,7 @@
         <v>605</v>
       </c>
       <c r="V57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
@@ -16514,7 +17104,7 @@
         <v>614</v>
       </c>
       <c r="V58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
@@ -16522,7 +17112,7 @@
         <v>664</v>
       </c>
       <c r="V59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
@@ -16530,7 +17120,7 @@
         <v>611</v>
       </c>
       <c r="V60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
@@ -16538,7 +17128,7 @@
         <v>612</v>
       </c>
       <c r="V61" t="s">
-        <v>917</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
@@ -16546,7 +17136,7 @@
         <v>755</v>
       </c>
       <c r="V62" t="s">
-        <v>399</v>
+        <v>917</v>
       </c>
     </row>
     <row r="63">
@@ -16554,7 +17144,7 @@
         <v>756</v>
       </c>
       <c r="V63" t="s">
-        <v>779</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64">
@@ -16562,7 +17152,7 @@
         <v>672</v>
       </c>
       <c r="V64" t="s">
-        <v>922</v>
+        <v>779</v>
       </c>
     </row>
     <row r="65">
@@ -16570,7 +17160,7 @@
         <v>615</v>
       </c>
       <c r="V65" t="s">
-        <v>88</v>
+        <v>922</v>
       </c>
     </row>
     <row r="66">
@@ -16578,7 +17168,7 @@
         <v>570</v>
       </c>
       <c r="V66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
@@ -16586,7 +17176,7 @@
         <v>716</v>
       </c>
       <c r="V67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
@@ -16594,7 +17184,7 @@
         <v>616</v>
       </c>
       <c r="V68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
@@ -16602,7 +17192,7 @@
         <v>823</v>
       </c>
       <c r="V69" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70">
@@ -16610,7 +17200,7 @@
         <v>606</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -16618,7 +17208,7 @@
         <v>824</v>
       </c>
       <c r="V71" t="s">
-        <v>935</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -16626,7 +17216,7 @@
         <v>563</v>
       </c>
       <c r="V72" t="s">
-        <v>92</v>
+        <v>935</v>
       </c>
     </row>
     <row r="73">
@@ -16634,7 +17224,7 @@
         <v>671</v>
       </c>
       <c r="V73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
@@ -16642,7 +17232,7 @@
         <v>581</v>
       </c>
       <c r="V74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
@@ -16650,7 +17240,7 @@
         <v>587</v>
       </c>
       <c r="V75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76">
@@ -16658,7 +17248,7 @@
         <v>592</v>
       </c>
       <c r="V76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
@@ -16666,7 +17256,7 @@
         <v>906</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -16674,7 +17264,7 @@
         <v>652</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -16682,7 +17272,7 @@
         <v>571</v>
       </c>
       <c r="V79" t="s">
-        <v>934</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -16690,7 +17280,7 @@
         <v>582</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>934</v>
       </c>
     </row>
     <row r="81">
@@ -16698,7 +17288,7 @@
         <v>588</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -16706,7 +17296,7 @@
         <v>577</v>
       </c>
       <c r="V82" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -16714,7 +17304,7 @@
         <v>572</v>
       </c>
       <c r="V83" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84">
@@ -16722,7 +17312,7 @@
         <v>589</v>
       </c>
       <c r="V84" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85">
@@ -16730,7 +17320,7 @@
         <v>573</v>
       </c>
       <c r="V85" t="s">
-        <v>914</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -16738,7 +17328,7 @@
         <v>574</v>
       </c>
       <c r="V86" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="87">
@@ -16746,7 +17336,7 @@
         <v>607</v>
       </c>
       <c r="V87" t="s">
-        <v>205</v>
+        <v>916</v>
       </c>
     </row>
     <row r="88">
@@ -16754,7 +17344,7 @@
         <v>613</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -16762,7 +17352,7 @@
         <v>596</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -16770,7 +17360,7 @@
         <v>667</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -16778,7 +17368,7 @@
         <v>578</v>
       </c>
       <c r="V91" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -16786,131 +17376,136 @@
         <v>579</v>
       </c>
       <c r="V92" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>772</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>99</v>
+        <v>772</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>923</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>112</v>
+        <v>923</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -37,7 +37,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11192" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12624" uniqueCount="951">
   <si>
     <t>description</t>
   </si>
@@ -3012,13 +3012,22 @@
   <si>
     <t>clickWithKeys(locator,keys)</t>
   </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="319" x14ac:knownFonts="1">
+  <fonts count="367" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5030,8 +5039,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="545">
+  <fills count="626">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8116,8 +8428,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="574">
+  <borders count="658">
     <border>
       <left/>
       <right/>
@@ -8281,6 +9052,852 @@
       </top>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13957,7 +15574,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="424">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15072,52 +16689,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="520" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="553" fillId="520" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="523" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="557" fillId="523" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="526" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="526" fontId="306" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="529" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="529" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="532" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="532" fontId="309" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="535" borderId="565" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="565" fillId="535" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="538" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="569" fillId="538" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="541" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="573" fillId="541" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="541" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="573" fillId="541" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="529" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="544" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="544" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="529" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="581" fillId="547" fontId="319" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="585" fillId="550" fontId="321" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="553" fontId="322" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="556" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="559" fontId="325" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="593" fillId="562" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="597" fillId="565" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="601" fillId="568" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="601" fillId="568" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="556" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="571" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="556" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="609" fillId="574" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="613" fillId="577" fontId="337" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="580" fontId="338" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="583" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="586" fontId="341" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="621" fillId="589" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="625" fillId="592" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="629" fillId="595" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="629" fillId="595" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="583" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="598" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="583" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="601" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="604" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="607" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="610" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="613" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="616" borderId="649" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="619" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="622" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="622" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="610" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="625" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="610" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15954,7 +17715,7 @@
         <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>712</v>
+        <v>950</v>
       </c>
       <c r="J2" t="s">
         <v>617</v>
@@ -16037,7 +17798,7 @@
         <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J3" t="s">
         <v>668</v>
@@ -16108,7 +17869,7 @@
         <v>930</v>
       </c>
       <c r="I4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J4" t="s">
         <v>515</v>
@@ -16179,7 +17940,7 @@
         <v>936</v>
       </c>
       <c r="I5" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="J5" t="s">
         <v>941</v>
@@ -16239,6 +18000,9 @@
       </c>
       <c r="G6" t="s">
         <v>931</v>
+      </c>
+      <c r="I6" t="s">
+        <v>711</v>
       </c>
       <c r="J6" t="s">
         <v>177</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0843F464-120A-944C-B48A-510FEADC31EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A66240-36ED-CD44-A606-D369E3D4B611}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="440" windowWidth="38680" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12520" yWindow="440" windowWidth="38680" windowHeight="15760" tabRatio="500" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="953">
   <si>
     <t>description</t>
   </si>
@@ -1706,19 +1706,10 @@
     <t>data1 should have skipped this step; it's value is ${data1}</t>
   </si>
   <si>
-    <t>endif</t>
-  </si>
-  <si>
-    <t>data1 should have ended this test without failure; it's value is ${data1}</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>right now data1 is ${data1}</t>
-  </si>
-  <si>
-    <t>should have never got here</t>
   </si>
   <si>
     <t>assertNotContains(text,substring)</t>
@@ -2044,9 +2035,6 @@
   </si>
   <si>
     <t>SkipIf( ${data1}="5" )</t>
-  </si>
-  <si>
-    <t>EndIf( ${data1}="6" )</t>
   </si>
   <si>
     <t>jms</t>
@@ -2999,6 +2987,45 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>unary filter</t>
+  </si>
+  <si>
+    <t>This works!</t>
+  </si>
+  <si>
+    <t>ProceedIf(true)</t>
+  </si>
+  <si>
+    <t>continue?</t>
+  </si>
+  <si>
+    <t>This also works!</t>
+  </si>
+  <si>
+    <t>ProceedIf(${continue?})</t>
+  </si>
+  <si>
+    <t>ProceedIf(!${continue?})</t>
+  </si>
+  <si>
+    <t>This also should not work</t>
+  </si>
+  <si>
+    <t>This should not work</t>
+  </si>
+  <si>
+    <t>This definitely should not work</t>
+  </si>
+  <si>
+    <t>ProceedIf( not ${continue?} )</t>
+  </si>
+  <si>
+    <t>ProceedIf( false )</t>
+  </si>
+  <si>
+    <t>ProceedIf( true &amp; !${continue?} )</t>
   </si>
 </sst>
 </file>
@@ -4327,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -4354,7 +4381,7 @@
         <v>145</v>
       </c>
       <c r="K1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L1" t="s">
         <v>186</v>
@@ -4372,19 +4399,19 @@
         <v>185</v>
       </c>
       <c r="Q1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="R1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="S1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="T1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="U1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="V1" t="s">
         <v>32</v>
@@ -4399,7 +4426,7 @@
         <v>132</v>
       </c>
       <c r="Z1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="AA1" t="s">
         <v>487</v>
@@ -4407,13 +4434,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C2" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -4425,28 +4452,28 @@
         <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="H2" t="s">
         <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="J2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="L2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="M2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="N2" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="O2" t="s">
         <v>530</v>
@@ -4455,19 +4482,19 @@
         <v>401</v>
       </c>
       <c r="Q2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="R2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="S2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="T2" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="U2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="V2" t="s">
         <v>45</v>
@@ -4482,7 +4509,7 @@
         <v>134</v>
       </c>
       <c r="Z2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="AA2" t="s">
         <v>488</v>
@@ -4490,19 +4517,19 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C3" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D3" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F3" t="s">
         <v>180</v>
@@ -4514,19 +4541,19 @@
         <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="J3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L3" t="s">
         <v>187</v>
       </c>
       <c r="N3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="O3" t="s">
         <v>517</v>
@@ -4535,16 +4562,16 @@
         <v>402</v>
       </c>
       <c r="Q3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="S3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="T3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="U3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="V3" t="s">
         <v>46</v>
@@ -4556,7 +4583,7 @@
         <v>126</v>
       </c>
       <c r="Y3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="Z3" t="s">
         <v>133</v>
@@ -4570,7 +4597,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -4579,19 +4606,19 @@
         <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="G4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="I4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J4" t="s">
         <v>515</v>
       </c>
       <c r="K4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L4" t="s">
         <v>188</v>
@@ -4606,19 +4633,19 @@
         <v>403</v>
       </c>
       <c r="Q4" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="S4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="T4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="U4" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="V4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="W4" t="s">
         <v>122</v>
@@ -4630,7 +4657,7 @@
         <v>133</v>
       </c>
       <c r="Z4" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="AA4" t="s">
         <v>490</v>
@@ -4641,25 +4668,25 @@
         <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D5" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E5" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="F5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J5" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="L5" t="s">
         <v>189</v>
@@ -4674,16 +4701,16 @@
         <v>404</v>
       </c>
       <c r="Q5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="S5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="T5" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="V5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="W5" t="s">
         <v>123</v>
@@ -4695,7 +4722,7 @@
         <v>135</v>
       </c>
       <c r="Z5" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="AA5" t="s">
         <v>491</v>
@@ -4706,19 +4733,19 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G6" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="I6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="J6" t="s">
         <v>177</v>
@@ -4733,19 +4760,19 @@
         <v>520</v>
       </c>
       <c r="P6" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="Q6" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="T6" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="V6" t="s">
         <v>47</v>
       </c>
       <c r="W6" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="X6" t="s">
         <v>129</v>
@@ -4754,7 +4781,7 @@
         <v>136</v>
       </c>
       <c r="Z6" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="AA6" t="s">
         <v>492</v>
@@ -4765,22 +4792,22 @@
         <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D7" t="s">
         <v>457</v>
       </c>
       <c r="F7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G7" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="J7" t="s">
         <v>148</v>
       </c>
       <c r="L7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="N7" t="s">
         <v>24</v>
@@ -4789,19 +4816,19 @@
         <v>521</v>
       </c>
       <c r="P7" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="Q7" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="T7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="V7" t="s">
         <v>48</v>
       </c>
       <c r="W7" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="X7" t="s">
         <v>130</v>
@@ -4810,7 +4837,7 @@
         <v>137</v>
       </c>
       <c r="Z7" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="AA7" t="s">
         <v>493</v>
@@ -4821,16 +4848,16 @@
         <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D8" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F8" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="G8" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="J8" t="s">
         <v>170</v>
@@ -4845,10 +4872,10 @@
         <v>522</v>
       </c>
       <c r="Q8" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="T8" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="V8" t="s">
         <v>49</v>
@@ -4863,7 +4890,7 @@
         <v>138</v>
       </c>
       <c r="Z8" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="AA8" t="s">
         <v>494</v>
@@ -4874,16 +4901,16 @@
         <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G9" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J9" t="s">
         <v>149</v>
@@ -4898,10 +4925,10 @@
         <v>523</v>
       </c>
       <c r="Q9" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="T9" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="V9" t="s">
         <v>210</v>
@@ -4918,31 +4945,31 @@
         <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F10" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="G10" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="J10" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="L10" t="s">
         <v>193</v>
       </c>
       <c r="N10" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="O10" t="s">
         <v>524</v>
       </c>
       <c r="Q10" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="V10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="Y10" t="s">
         <v>184</v>
@@ -4953,22 +4980,22 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F11" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="J11" t="s">
         <v>150</v>
       </c>
       <c r="L11" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="N11" t="s">
         <v>166</v>
@@ -4977,10 +5004,10 @@
         <v>525</v>
       </c>
       <c r="V11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Y11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AA11" t="s">
         <v>497</v>
@@ -4991,13 +5018,13 @@
         <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F12" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G12" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J12" t="s">
         <v>151</v>
@@ -5023,13 +5050,13 @@
         <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J13" t="s">
         <v>171</v>
@@ -5044,7 +5071,7 @@
         <v>531</v>
       </c>
       <c r="V13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Y13" t="s">
         <v>140</v>
@@ -5058,10 +5085,10 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G14" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J14" t="s">
         <v>172</v>
@@ -5090,10 +5117,10 @@
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J15" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="N15" t="s">
         <v>169</v>
@@ -5113,10 +5140,10 @@
         <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J16" t="s">
         <v>173</v>
@@ -5133,10 +5160,10 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D17" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F17" t="s">
         <v>181</v>
@@ -5148,21 +5175,21 @@
         <v>53</v>
       </c>
       <c r="Y17" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D18" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F18" t="s">
         <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="V18" t="s">
         <v>54</v>
@@ -5170,13 +5197,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J19" t="s">
         <v>152</v>
@@ -5187,16 +5214,16 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J20" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="V20" t="s">
         <v>56</v>
@@ -5204,13 +5231,13 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D21" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F21" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="J21" t="s">
         <v>153</v>
@@ -5227,10 +5254,10 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="J22" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="V22" t="s">
         <v>58</v>
@@ -5241,10 +5268,10 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J23" t="s">
         <v>154</v>
@@ -5261,7 +5288,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J24" t="s">
         <v>155</v>
@@ -5275,7 +5302,7 @@
         <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F25" t="s">
         <v>158</v>
@@ -5286,13 +5313,13 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D26" t="s">
         <v>458</v>
       </c>
       <c r="F26" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="V26" t="s">
         <v>62</v>
@@ -5306,18 +5333,18 @@
         <v>459</v>
       </c>
       <c r="F27" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="V27" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F28" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="V28" t="s">
         <v>63</v>
@@ -5328,7 +5355,7 @@
         <v>160</v>
       </c>
       <c r="F29" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="V29" t="s">
         <v>64</v>
@@ -5350,7 +5377,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="V31" t="s">
         <v>66</v>
@@ -5361,7 +5388,7 @@
         <v>161</v>
       </c>
       <c r="F32" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="V32" t="s">
         <v>67</v>
@@ -5372,7 +5399,7 @@
         <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="V33" t="s">
         <v>68</v>
@@ -5383,7 +5410,7 @@
         <v>163</v>
       </c>
       <c r="F34" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="V34" t="s">
         <v>211</v>
@@ -5394,7 +5421,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="V35" t="s">
         <v>69</v>
@@ -5405,26 +5432,26 @@
         <v>156</v>
       </c>
       <c r="F36" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="V36" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="V37" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="38" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="V38" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="4:22" x14ac:dyDescent="0.2">
@@ -5445,7 +5472,7 @@
     </row>
     <row r="41" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="V41" t="s">
         <v>72</v>
@@ -5453,7 +5480,7 @@
     </row>
     <row r="42" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="V42" t="s">
         <v>73</v>
@@ -5461,7 +5488,7 @@
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="V43" t="s">
         <v>74</v>
@@ -5469,7 +5496,7 @@
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="V44" t="s">
         <v>75</v>
@@ -5477,10 +5504,10 @@
     </row>
     <row r="45" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="V45" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="46" spans="4:22" x14ac:dyDescent="0.2">
@@ -5493,7 +5520,7 @@
     </row>
     <row r="47" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="V47" t="s">
         <v>76</v>
@@ -5501,7 +5528,7 @@
     </row>
     <row r="48" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="V48" t="s">
         <v>77</v>
@@ -5509,7 +5536,7 @@
     </row>
     <row r="49" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="V49" t="s">
         <v>78</v>
@@ -5517,7 +5544,7 @@
     </row>
     <row r="50" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="V50" t="s">
         <v>79</v>
@@ -5525,15 +5552,15 @@
     </row>
     <row r="51" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="V51" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="52" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F52" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="V52" t="s">
         <v>80</v>
@@ -5541,23 +5568,23 @@
     </row>
     <row r="53" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F53" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="V53" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="54" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F54" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="V54" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="55" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F55" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="V55" t="s">
         <v>81</v>
@@ -5565,7 +5592,7 @@
     </row>
     <row r="56" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="V56" t="s">
         <v>82</v>
@@ -5573,7 +5600,7 @@
     </row>
     <row r="57" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="V57" t="s">
         <v>83</v>
@@ -5581,7 +5608,7 @@
     </row>
     <row r="58" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F58" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="V58" t="s">
         <v>84</v>
@@ -5589,7 +5616,7 @@
     </row>
     <row r="59" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="V59" t="s">
         <v>85</v>
@@ -5597,7 +5624,7 @@
     </row>
     <row r="60" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F60" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="V60" t="s">
         <v>86</v>
@@ -5605,7 +5632,7 @@
     </row>
     <row r="61" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F61" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="V61" t="s">
         <v>87</v>
@@ -5613,15 +5640,15 @@
     </row>
     <row r="62" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F62" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="V62" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="63" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F63" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="V63" t="s">
         <v>399</v>
@@ -5629,23 +5656,23 @@
     </row>
     <row r="64" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="V64" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="65" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F65" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="V65" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="66" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F66" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="V66" t="s">
         <v>88</v>
@@ -5653,7 +5680,7 @@
     </row>
     <row r="67" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F67" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="V67" t="s">
         <v>89</v>
@@ -5661,7 +5688,7 @@
     </row>
     <row r="68" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F68" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="V68" t="s">
         <v>90</v>
@@ -5669,7 +5696,7 @@
     </row>
     <row r="69" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F69" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="V69" t="s">
         <v>91</v>
@@ -5677,7 +5704,7 @@
     </row>
     <row r="70" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F70" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="V70" t="s">
         <v>198</v>
@@ -5685,7 +5712,7 @@
     </row>
     <row r="71" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F71" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="V71" t="s">
         <v>199</v>
@@ -5693,15 +5720,15 @@
     </row>
     <row r="72" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F72" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="V72" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="73" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F73" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="V73" t="s">
         <v>92</v>
@@ -5709,7 +5736,7 @@
     </row>
     <row r="74" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F74" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="V74" t="s">
         <v>93</v>
@@ -5717,7 +5744,7 @@
     </row>
     <row r="75" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F75" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="V75" t="s">
         <v>94</v>
@@ -5725,7 +5752,7 @@
     </row>
     <row r="76" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F76" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="V76" t="s">
         <v>95</v>
@@ -5733,7 +5760,7 @@
     </row>
     <row r="77" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F77" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="V77" t="s">
         <v>96</v>
@@ -5741,7 +5768,7 @@
     </row>
     <row r="78" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F78" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="V78" t="s">
         <v>200</v>
@@ -5749,7 +5776,7 @@
     </row>
     <row r="79" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F79" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="V79" t="s">
         <v>201</v>
@@ -5757,15 +5784,15 @@
     </row>
     <row r="80" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F80" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="V80" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="81" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F81" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="V81" t="s">
         <v>202</v>
@@ -5773,7 +5800,7 @@
     </row>
     <row r="82" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F82" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V82" t="s">
         <v>203</v>
@@ -5781,7 +5808,7 @@
     </row>
     <row r="83" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="V83" t="s">
         <v>400</v>
@@ -5789,7 +5816,7 @@
     </row>
     <row r="84" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F84" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="V84" t="s">
         <v>97</v>
@@ -5797,7 +5824,7 @@
     </row>
     <row r="85" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F85" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="V85" t="s">
         <v>204</v>
@@ -5805,23 +5832,23 @@
     </row>
     <row r="86" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F86" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V86" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="87" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F87" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="V87" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="88" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F88" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="V88" t="s">
         <v>205</v>
@@ -5829,7 +5856,7 @@
     </row>
     <row r="89" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F89" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="V89" t="s">
         <v>206</v>
@@ -5837,7 +5864,7 @@
     </row>
     <row r="90" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F90" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="V90" t="s">
         <v>207</v>
@@ -5845,7 +5872,7 @@
     </row>
     <row r="91" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F91" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V91" t="s">
         <v>208</v>
@@ -5853,7 +5880,7 @@
     </row>
     <row r="92" spans="6:22" x14ac:dyDescent="0.2">
       <c r="F92" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="V92" t="s">
         <v>456</v>
@@ -5871,7 +5898,7 @@
     </row>
     <row r="95" spans="6:22" x14ac:dyDescent="0.2">
       <c r="V95" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="96" spans="6:22" x14ac:dyDescent="0.2">
@@ -5941,7 +5968,7 @@
     </row>
     <row r="109" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V109" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="110" spans="22:22" x14ac:dyDescent="0.2">
@@ -6034,10 +6061,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -6136,7 +6163,7 @@
     </row>
     <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -6146,14 +6173,14 @@
         <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="14"/>
@@ -6168,16 +6195,16 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>552</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -6191,7 +6218,7 @@
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
@@ -6200,7 +6227,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -6216,7 +6243,7 @@
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>13</v>
@@ -6225,7 +6252,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -6240,25 +6267,25 @@
     </row>
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>552</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -6272,16 +6299,16 @@
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="57" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -6301,7 +6328,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>282</v>
@@ -6320,13 +6347,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>395</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -6338,7 +6365,7 @@
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="8" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>31</v>
@@ -6347,7 +6374,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>395</v>
@@ -6362,7 +6389,7 @@
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="8" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
@@ -6371,10 +6398,10 @@
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -6386,7 +6413,7 @@
     <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="8" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>13</v>
@@ -6395,7 +6422,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -6407,10 +6434,10 @@
     </row>
     <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -6419,7 +6446,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -6432,27 +6459,27 @@
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="8" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" s="25" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -6460,7 +6487,7 @@
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="8" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>13</v>
@@ -6469,7 +6496,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -6482,13 +6509,13 @@
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="8" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -6511,7 +6538,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -6524,7 +6551,7 @@
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="8" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>13</v>
@@ -6533,7 +6560,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -6546,19 +6573,19 @@
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="8" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -6570,7 +6597,7 @@
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="8" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>13</v>
@@ -6579,7 +6606,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -6591,19 +6618,19 @@
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -6616,7 +6643,7 @@
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="8" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>13</v>
@@ -6625,7 +6652,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -6645,7 +6672,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>282</v>
@@ -6660,19 +6687,19 @@
     <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="8" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>395</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -6684,7 +6711,7 @@
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="8" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>31</v>
@@ -6693,7 +6720,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>395</v>
@@ -6708,7 +6735,7 @@
     <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="8" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>13</v>
@@ -6717,7 +6744,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -6730,7 +6757,7 @@
     <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="8" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>31</v>
@@ -6739,10 +6766,10 @@
         <v>26</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -6754,7 +6781,7 @@
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="8" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>13</v>
@@ -6763,7 +6790,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -6847,10 +6874,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -6949,7 +6976,7 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -6959,7 +6986,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>282</v>
@@ -6984,7 +7011,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -7000,19 +7027,19 @@
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>232</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -7027,19 +7054,19 @@
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -7054,7 +7081,7 @@
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
@@ -7063,7 +7090,7 @@
         <v>156</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -7079,7 +7106,7 @@
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>13</v>
@@ -7088,7 +7115,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -7104,7 +7131,7 @@
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="27" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>31</v>
@@ -7113,10 +7140,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -7131,7 +7158,7 @@
     <row r="12" spans="1:15" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>145</v>
@@ -7140,10 +7167,10 @@
         <v>153</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>238</v>
@@ -7159,7 +7186,7 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -7169,7 +7196,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -7185,7 +7212,7 @@
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>145</v>
@@ -7194,10 +7221,10 @@
         <v>171</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -7219,7 +7246,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -7305,10 +7332,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -7324,7 +7351,7 @@
     </row>
     <row r="2" spans="1:15" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -7407,7 +7434,7 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="36" t="s">
@@ -7417,10 +7444,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
@@ -7442,10 +7469,10 @@
         <v>40</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
@@ -7467,7 +7494,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -7490,7 +7517,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -7513,7 +7540,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -7529,7 +7556,7 @@
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="53"/>
       <c r="B10" s="39" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>13</v>
@@ -7538,7 +7565,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>230</v>
@@ -7563,10 +7590,10 @@
         <v>40</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
@@ -7581,7 +7608,7 @@
     <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="33" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>13</v>
@@ -7590,7 +7617,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -7606,7 +7633,7 @@
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
       <c r="B13" s="33" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>13</v>
@@ -7615,7 +7642,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -7630,7 +7657,7 @@
     </row>
     <row r="14" spans="1:15" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="36" t="s">
@@ -7640,10 +7667,10 @@
         <v>40</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -7665,7 +7692,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -7680,7 +7707,7 @@
     </row>
     <row r="16" spans="1:15" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="36" t="s">
@@ -7690,10 +7717,10 @@
         <v>40</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
@@ -7715,7 +7742,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -7730,7 +7757,7 @@
     </row>
     <row r="18" spans="1:15" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="36" t="s">
@@ -7740,10 +7767,10 @@
         <v>40</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -7758,7 +7785,7 @@
     <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
       <c r="B19" s="33" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>13</v>
@@ -7767,7 +7794,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="37"/>
@@ -7790,7 +7817,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="37"/>
@@ -7813,7 +7840,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -7829,7 +7856,7 @@
     <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="33" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>186</v>
@@ -7838,13 +7865,13 @@
         <v>196</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
@@ -7865,7 +7892,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -7880,7 +7907,7 @@
     </row>
     <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="36" t="s">
@@ -7890,10 +7917,10 @@
         <v>40</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -7915,7 +7942,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="37"/>
@@ -7938,7 +7965,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
@@ -7961,7 +7988,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -7976,7 +8003,7 @@
     </row>
     <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="36" t="s">
@@ -7986,7 +8013,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
@@ -8002,7 +8029,7 @@
     <row r="29" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
       <c r="B29" s="33" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>145</v>
@@ -8011,10 +8038,10 @@
         <v>153</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>244</v>
@@ -8038,10 +8065,10 @@
         <v>153</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>238</v>
@@ -8065,10 +8092,10 @@
         <v>171</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -8090,10 +8117,10 @@
         <v>457</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>420</v>
@@ -8117,7 +8144,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -8132,10 +8159,10 @@
     </row>
     <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="53" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>13</v>
@@ -8144,10 +8171,10 @@
         <v>40</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -8169,10 +8196,10 @@
         <v>153</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>238</v>
@@ -8196,10 +8223,10 @@
         <v>153</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>238</v>
@@ -8223,10 +8250,10 @@
         <v>153</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>238</v>
@@ -8250,10 +8277,10 @@
         <v>153</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>238</v>
@@ -8277,7 +8304,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -8300,7 +8327,7 @@
         <v>43</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -8316,7 +8343,7 @@
     <row r="41" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="53"/>
       <c r="B41" s="33" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>13</v>
@@ -8325,10 +8352,10 @@
         <v>40</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
@@ -8350,7 +8377,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -8454,10 +8481,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -8554,20 +8581,20 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -8586,13 +8613,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -8611,13 +8638,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -8636,13 +8663,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -8661,13 +8688,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -8713,11 +8740,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8752,10 +8779,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -8900,7 +8927,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="24" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="14"/>
@@ -8923,7 +8950,7 @@
         <v>540</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -8945,7 +8972,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -8960,7 +8987,7 @@
     </row>
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>539</v>
@@ -8972,10 +8999,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -8990,19 +9017,19 @@
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>483</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -9017,7 +9044,7 @@
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
@@ -9026,14 +9053,14 @@
         <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="24" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="14"/>
@@ -9051,7 +9078,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -9065,16 +9092,26 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>940</v>
+      </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>941</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="24" t="s">
+        <v>942</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="14"/>
       <c r="M13" s="11"/>
@@ -9084,10 +9121,18 @@
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -9099,27 +9144,23 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>539</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>544</v>
+        <v>944</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="24" t="s">
-        <v>656</v>
+        <v>945</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="14"/>
@@ -9134,21 +9175,68 @@
         <v>13</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>547</v>
+        <v>948</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>946</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="14"/>
       <c r="M16" s="11"/>
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>951</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -9187,7 +9275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -9223,10 +9311,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -9337,7 +9425,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
@@ -9419,7 +9507,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="24" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="14"/>
@@ -9484,7 +9572,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>221</v>
@@ -9509,7 +9597,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>219</v>
@@ -9561,7 +9649,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>221</v>
@@ -9638,7 +9726,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>221</v>
@@ -9765,7 +9853,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>217</v>
@@ -9978,7 +10066,7 @@
         <v>40</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>246</v>
@@ -10137,7 +10225,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>259</v>
@@ -10191,7 +10279,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>264</v>
@@ -10247,7 +10335,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>269</v>
@@ -10299,7 +10387,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>273</v>
@@ -10355,7 +10443,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>453</v>
@@ -10439,7 +10527,7 @@
         <v>40</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>282</v>
@@ -10448,7 +10536,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="14"/>
@@ -10468,7 +10556,7 @@
         <v>40</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>284</v>
@@ -10477,7 +10565,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="14"/>
@@ -10497,7 +10585,7 @@
         <v>40</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>286</v>
@@ -10506,7 +10594,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="14"/>
@@ -10526,7 +10614,7 @@
         <v>40</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>288</v>
@@ -10535,7 +10623,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="14"/>
@@ -10560,7 +10648,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="14"/>
@@ -10580,7 +10668,7 @@
         <v>40</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>282</v>
@@ -10609,7 +10697,7 @@
         <v>43</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -10634,7 +10722,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>294</v>
@@ -10661,7 +10749,7 @@
         <v>43</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -10686,7 +10774,7 @@
         <v>43</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -10810,7 +10898,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="24" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="14"/>
@@ -10852,7 +10940,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>306</v>
@@ -10877,7 +10965,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>308</v>
@@ -10902,7 +10990,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>310</v>
@@ -10927,7 +11015,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>312</v>
@@ -10952,7 +11040,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>314</v>
@@ -10977,7 +11065,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>316</v>
@@ -11002,7 +11090,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>318</v>
@@ -11027,7 +11115,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>320</v>
@@ -11052,7 +11140,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>322</v>
@@ -11077,7 +11165,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>324</v>
@@ -11102,7 +11190,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>326</v>
@@ -11127,7 +11215,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>328</v>
@@ -11152,7 +11240,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>330</v>
@@ -11392,13 +11480,13 @@
     <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>345</v>
@@ -11410,7 +11498,7 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="24" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="14"/>
@@ -11421,13 +11509,13 @@
     <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>477</v>
@@ -11439,7 +11527,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="24" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="14"/>
@@ -11599,10 +11687,10 @@
         <v>460</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -11624,7 +11712,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>483</v>
@@ -11636,7 +11724,7 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="24" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="14"/>
@@ -11651,7 +11739,7 @@
         <v>31</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>484</v>
@@ -11663,7 +11751,7 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="24" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="14"/>
@@ -11680,7 +11768,7 @@
         <v>31</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>485</v>
@@ -11803,10 +11891,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -11915,7 +12003,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>238</v>
@@ -12019,7 +12107,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>537</v>
@@ -12043,7 +12131,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>355</v>
@@ -12177,10 +12265,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -12279,7 +12367,7 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -12289,7 +12377,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -12312,7 +12400,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>246</v>
@@ -12337,14 +12425,14 @@
         <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="24" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="14"/>
@@ -12917,10 +13005,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -13029,7 +13117,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>230</v>
@@ -13076,7 +13164,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>359</v>
@@ -13101,7 +13189,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>361</v>
@@ -13126,7 +13214,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>363</v>
@@ -13151,7 +13239,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>365</v>
@@ -13176,7 +13264,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>367</v>
@@ -13201,7 +13289,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>369</v>
@@ -13226,7 +13314,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>371</v>
@@ -13251,7 +13339,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>373</v>
@@ -13276,7 +13364,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>375</v>
@@ -13326,7 +13414,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>379</v>
@@ -13351,7 +13439,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>381</v>
@@ -13376,7 +13464,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>383</v>
@@ -13401,7 +13489,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>385</v>
@@ -13426,7 +13514,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>387</v>
@@ -13451,7 +13539,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>389</v>
@@ -13476,7 +13564,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>391</v>
@@ -13501,7 +13589,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>393</v>
@@ -13526,7 +13614,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>394</v>
@@ -13616,10 +13704,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -13728,7 +13816,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>230</v>
@@ -13775,7 +13863,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>359</v>
@@ -13800,7 +13888,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>361</v>
@@ -13825,7 +13913,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>363</v>
@@ -13850,7 +13938,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>365</v>
@@ -13875,7 +13963,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>367</v>
@@ -13900,7 +13988,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>369</v>
@@ -13925,7 +14013,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>371</v>
@@ -13950,7 +14038,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>373</v>
@@ -13975,7 +14063,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>375</v>
@@ -14025,7 +14113,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>379</v>
@@ -14050,7 +14138,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>381</v>
@@ -14075,7 +14163,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>383</v>
@@ -14100,7 +14188,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>385</v>
@@ -14125,7 +14213,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>387</v>
@@ -14150,7 +14238,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>389</v>
@@ -14177,7 +14265,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>462</v>
@@ -14202,7 +14290,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>463</v>
@@ -14227,7 +14315,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>465</v>
@@ -14252,7 +14340,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>466</v>
@@ -14277,7 +14365,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>468</v>
@@ -14302,7 +14390,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>469</v>
@@ -14327,7 +14415,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>470</v>
@@ -14352,7 +14440,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>471</v>
@@ -14377,7 +14465,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>473</v>
@@ -14402,7 +14490,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>474</v>
@@ -14422,7 +14510,7 @@
     </row>
     <row r="33" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="12" t="s">
@@ -14432,7 +14520,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -14567,10 +14655,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -15750,10 +15838,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -15914,7 +16002,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>230</v>
@@ -15965,7 +16053,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>418</v>
@@ -15990,7 +16078,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>434</v>
@@ -16171,7 +16259,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>418</v>
@@ -16391,10 +16479,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -16546,7 +16634,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>535</v>
@@ -16566,7 +16654,7 @@
     </row>
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -16576,7 +16664,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -16596,13 +16684,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11202"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A66240-36ED-CD44-A606-D369E3D4B611}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2B472A-C0E0-4343-A872-9344D7BAFD22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="440" windowWidth="38680" windowHeight="15760" tabRatio="500" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="440" windowWidth="38680" windowHeight="15760" tabRatio="500" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="expression-test" sheetId="15" r:id="rId12"/>
     <sheet name="multi-scenario2" sheetId="17" r:id="rId13"/>
     <sheet name="flow_controls" sheetId="12" r:id="rId14"/>
+    <sheet name="temp_disable" sheetId="19" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -67,6 +68,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -75,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="962">
   <si>
     <t>description</t>
   </si>
@@ -3027,12 +3033,39 @@
   <si>
     <t>ProceedIf( true &amp; !${continue?} )</t>
   </si>
+  <si>
+    <t>showcase/testing out how to disable one or more steps</t>
+  </si>
+  <si>
+    <t>Act 1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t>${result}</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>Act 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3141,6 +3174,25 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Consolas"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3370,7 +3422,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3573,6 +3625,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3624,6 +3682,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -3659,7 +3726,37 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4054,6 +4151,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFE6E6E6"/>
       <color rgb="FFF8F7F9"/>
       <color rgb="FFF5F4F6"/>
       <color rgb="FFE6EDF1"/>
@@ -6048,12 +6146,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -6071,20 +6169,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -6094,10 +6192,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -6809,13 +6907,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6861,12 +6959,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -6884,20 +6982,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -6907,10 +7005,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -7268,13 +7366,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7319,12 +7417,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="51" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -7342,20 +7440,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>831</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -7365,10 +7463,10 @@
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="31"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" s="51" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -8417,13 +8515,13 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8468,12 +8566,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -8491,18 +8589,18 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -8512,10 +8610,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -8715,13 +8813,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8742,9 +8840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8766,12 +8864,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -8789,20 +8887,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -8812,10 +8910,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -9238,6 +9336,297 @@
         <v>951</v>
       </c>
     </row>
+  </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N1 N3:N1048576">
+    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+      <formula1>target</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D87D36E-04A6-D640-B45B-3F4AC7187531}">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.6640625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="9" width="12.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.6640625" style="25" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.83203125" style="15" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.83203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
+    </row>
+    <row r="2" spans="1:15" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>953</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
+    </row>
+    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>905</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -9258,11 +9647,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{1F6843CC-2858-5C42-AC22-AD86AE7F9E69}">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576" xr:uid="{884DE651-E754-374E-8C50-AD3752225945}">
       <formula1>target</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0D00-000000000000}">
-      <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9298,12 +9687,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -9321,20 +9710,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -9344,10 +9733,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -11829,13 +12218,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="38" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="41" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="37" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="40" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="39" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11878,12 +12267,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -11901,20 +12290,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -11924,10 +12313,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -12202,13 +12591,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="35" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="38" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="37" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="36" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12252,12 +12641,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -12275,20 +12664,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -12298,10 +12687,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -12942,13 +13331,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="32" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="35" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="31" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="34" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="33" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12992,12 +13381,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -13015,20 +13404,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -13038,10 +13427,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -13641,13 +14030,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="29" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="32" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="31" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="27" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="30" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13691,12 +14080,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -13714,20 +14103,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -13737,10 +14126,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -14593,13 +14982,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="29" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="28" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="27" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14642,12 +15031,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -14665,20 +15054,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -14688,10 +15077,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -15776,13 +16165,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="24" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15825,12 +16214,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -15848,20 +16237,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -15871,10 +16260,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -16415,13 +16804,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="20" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="21" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16466,12 +16855,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -16489,20 +16878,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -16512,10 +16901,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -27960,13 +28349,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="20" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="19" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="18" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B9C1A7-C7E8-DD42-9296-6B336B68AC7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211AF4D2-56A9-FD4C-B55E-774C68CF9565}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="3640" windowWidth="40960" windowHeight="25160" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="3640" windowWidth="40960" windowHeight="25160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="975">
   <si>
     <t>description</t>
   </si>
@@ -3093,6 +3093,12 @@
   </si>
   <si>
     <t>nexial.scope.iteration</t>
+  </si>
+  <si>
+    <t>syspath - this script</t>
+  </si>
+  <si>
+    <t>$(syspath|script|fullpath)/base-showcase.xlsx</t>
   </si>
 </sst>
 </file>
@@ -3674,6 +3680,9 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3724,9 +3733,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -6214,12 +6220,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -6237,20 +6243,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -6260,10 +6266,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -17708,13 +17714,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="20" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="19" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="18" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17758,12 +17764,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -17781,20 +17787,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -17804,10 +17810,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -18519,13 +18525,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="20" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18571,12 +18577,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -18594,20 +18600,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -18617,10 +18623,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -18978,13 +18984,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19029,12 +19035,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="51" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -19052,20 +19058,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>831</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -19075,10 +19081,10 @@
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="31"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="77"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
     </row>
     <row r="3" spans="1:15" s="51" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -20127,13 +20133,13 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20178,12 +20184,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -20201,18 +20207,18 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -20222,10 +20228,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -20425,13 +20431,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20459,7 +20465,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="78" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.33203125" style="63" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="30.83203125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="42.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
@@ -20476,12 +20482,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -20499,20 +20505,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -20522,10 +20528,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -20949,7 +20955,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="63" t="s">
         <v>962</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -21103,13 +21109,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21153,12 +21159,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -21176,20 +21182,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>953</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -21199,10 +21205,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -21394,13 +21400,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21420,11 +21426,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21445,12 +21451,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -21468,20 +21474,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -21491,10 +21497,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -22860,20 +22866,18 @@
     <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>293</v>
+        <v>973</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>294</v>
-      </c>
+        <v>974</v>
+      </c>
+      <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -22887,18 +22891,20 @@
     <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="F55" s="6"/>
+        <v>786</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -22912,7 +22918,7 @@
     <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>13</v>
@@ -22921,7 +22927,7 @@
         <v>43</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -22937,7 +22943,7 @@
     <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>13</v>
@@ -22946,7 +22952,7 @@
         <v>43</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>298</v>
+        <v>788</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -22961,7 +22967,9 @@
     </row>
     <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="C58" s="12" t="s">
         <v>13</v>
       </c>
@@ -22969,7 +22977,7 @@
         <v>43</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -22992,7 +23000,7 @@
         <v>43</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -23015,7 +23023,7 @@
         <v>43</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -23028,7 +23036,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="12" t="s">
@@ -23038,42 +23046,38 @@
         <v>43</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="24" t="s">
-        <v>897</v>
-      </c>
+      <c r="J61" s="24"/>
       <c r="K61" s="2"/>
       <c r="L61" s="14"/>
       <c r="M61" s="11"/>
       <c r="N61" s="14"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="4" t="s">
-        <v>303</v>
-      </c>
+      <c r="B62" s="4"/>
       <c r="C62" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>305</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="24"/>
+      <c r="J62" s="24" t="s">
+        <v>897</v>
+      </c>
       <c r="K62" s="2"/>
       <c r="L62" s="14"/>
       <c r="M62" s="11"/>
@@ -23082,18 +23086,20 @@
     </row>
     <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="C63" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>614</v>
+        <v>40</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -23115,10 +23121,10 @@
         <v>614</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -23140,10 +23146,10 @@
         <v>614</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -23165,10 +23171,10 @@
         <v>614</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -23190,10 +23196,10 @@
         <v>614</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -23215,10 +23221,10 @@
         <v>614</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -23240,10 +23246,10 @@
         <v>614</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -23265,10 +23271,10 @@
         <v>614</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -23290,10 +23296,10 @@
         <v>614</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -23315,10 +23321,10 @@
         <v>614</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -23340,10 +23346,10 @@
         <v>614</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -23365,10 +23371,10 @@
         <v>614</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -23390,10 +23396,10 @@
         <v>614</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -23407,20 +23413,18 @@
     </row>
     <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="B76" s="4"/>
       <c r="C76" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>40</v>
+        <v>614</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -23434,17 +23438,21 @@
     </row>
     <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="C77" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F77" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -23465,7 +23473,7 @@
         <v>43</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -23485,14 +23493,12 @@
         <v>13</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>338</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
@@ -23510,12 +23516,14 @@
         <v>13</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F80" s="6"/>
+        <v>337</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>338</v>
+      </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
@@ -23528,21 +23536,17 @@
     </row>
     <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="4" t="s">
-        <v>340</v>
-      </c>
+      <c r="B81" s="4"/>
       <c r="C81" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>341</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -23555,17 +23559,21 @@
     </row>
     <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="C82" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="F82" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -23583,14 +23591,12 @@
         <v>13</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>343</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -23608,12 +23614,14 @@
         <v>13</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="F84" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>343</v>
+      </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -23626,27 +23634,21 @@
     </row>
     <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
-      <c r="B85" s="4" t="s">
-        <v>829</v>
-      </c>
+      <c r="B85" s="4"/>
       <c r="C85" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>614</v>
+        <v>43</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>346</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
-      <c r="J85" s="24" t="s">
-        <v>650</v>
-      </c>
+      <c r="J85" s="24"/>
       <c r="K85" s="2"/>
       <c r="L85" s="14"/>
       <c r="M85" s="11"/>
@@ -23656,7 +23658,7 @@
     <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>13</v>
@@ -23665,7 +23667,7 @@
         <v>614</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>477</v>
+        <v>345</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>346</v>
@@ -23674,7 +23676,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="14"/>
@@ -23683,28 +23685,28 @@
       <c r="O86" s="2"/>
     </row>
     <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>437</v>
-      </c>
+      <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>444</v>
+        <v>830</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>40</v>
+        <v>614</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>442</v>
+        <v>346</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="24"/>
+      <c r="J87" s="24" t="s">
+        <v>651</v>
+      </c>
       <c r="K87" s="2"/>
       <c r="L87" s="14"/>
       <c r="M87" s="11"/>
@@ -23712,20 +23714,24 @@
       <c r="O87" s="2"/>
     </row>
     <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
+      <c r="A88" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="B88" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F88" s="6"/>
+        <v>438</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>442</v>
+      </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
@@ -23739,20 +23745,18 @@
     <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>442</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
@@ -23766,19 +23770,19 @@
     <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -23791,23 +23795,21 @@
       <c r="O90" s="2"/>
     </row>
     <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>443</v>
-      </c>
+      <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -23820,25 +23822,25 @@
       <c r="O91" s="2"/>
     </row>
     <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
+      <c r="A92" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="B92" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>457</v>
+        <v>40</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>543</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="24"/>
@@ -23849,30 +23851,28 @@
       <c r="O92" s="2"/>
     </row>
     <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>478</v>
-      </c>
+      <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>614</v>
+        <v>457</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="G93" s="6"/>
+        <v>724</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>543</v>
+      </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="24" t="s">
-        <v>651</v>
-      </c>
+      <c r="J93" s="24"/>
       <c r="K93" s="2"/>
       <c r="L93" s="14"/>
       <c r="M93" s="11"/>
@@ -23880,25 +23880,29 @@
       <c r="O93" s="2"/>
     </row>
     <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
+      <c r="A94" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="C94" s="12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>905</v>
+        <v>614</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="24" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="14"/>
@@ -23908,9 +23912,7 @@
     </row>
     <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
-      <c r="B95" s="4" t="s">
-        <v>482</v>
-      </c>
+      <c r="B95" s="4"/>
       <c r="C95" s="12" t="s">
         <v>31</v>
       </c>
@@ -23918,15 +23920,17 @@
         <v>905</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="24"/>
+      <c r="J95" s="24" t="s">
+        <v>650</v>
+      </c>
       <c r="K95" s="2"/>
       <c r="L95" s="14"/>
       <c r="M95" s="11"/>
@@ -23935,11 +23939,21 @@
     </row>
     <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
+      <c r="B96" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>486</v>
+      </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
@@ -23966,6 +23980,23 @@
       <c r="M97" s="11"/>
       <c r="N97" s="14"/>
       <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="2"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -24025,12 +24056,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -24048,20 +24079,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -24071,10 +24102,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -24399,12 +24430,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -24422,20 +24453,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -24445,10 +24476,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -25139,12 +25170,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -25162,20 +25193,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -25185,10 +25216,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -25838,12 +25869,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -25861,20 +25892,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -25884,10 +25915,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -26789,12 +26820,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -26812,20 +26843,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -26835,10 +26866,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -27950,7 +27981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB658DF9-1366-8E48-8409-696BDE8D94B8}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
@@ -27972,12 +28003,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -27995,20 +28026,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>953</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -28018,10 +28049,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -28143,13 +28174,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="24" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28193,12 +28224,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
@@ -28216,20 +28247,20 @@
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -28239,10 +28270,10 @@
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -28783,13 +28814,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="21" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211AF4D2-56A9-FD4C-B55E-774C68CF9565}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC3BE0D-78FE-7644-8308-2CF4D9B9A3BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="3640" windowWidth="40960" windowHeight="25160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="25160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -20459,7 +20459,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -21426,22 +21426,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.6640625" style="8" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.83203125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.33203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="58.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="23.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.33203125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="58.1640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="23.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="49.5" style="25" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
@@ -23998,6 +23999,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="2"/>
     </row>
+    <row r="101" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -57,12 +57,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="990">
   <si>
     <t>description</t>
   </si>
@@ -3136,13 +3136,22 @@
   <si>
     <t>beautify(json,var)</t>
   </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3474,8 +3483,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="59">
+  <fills count="86">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3806,8 +3916,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="70">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -4536,6 +4799,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4571,7 +5116,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4891,52 +5436,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="34" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="37" fontId="37" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="40" fontId="38" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="43" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="41" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="49" borderId="61" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="61" fillId="49" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="52" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="52" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="55" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="55" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="55" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="55" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="61" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="64" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="67" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="70" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="76" borderId="89" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="79" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="82" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="82" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5710,7 +6303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -6313,7 +6906,7 @@
         <v>183</v>
       </c>
       <c r="AA9" t="s">
-        <v>495</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10">
@@ -6351,7 +6944,7 @@
         <v>184</v>
       </c>
       <c r="AA10" t="s">
-        <v>496</v>
+        <v>989</v>
       </c>
     </row>
     <row r="11">
@@ -6386,7 +6979,7 @@
         <v>557</v>
       </c>
       <c r="AA11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
@@ -6420,6 +7013,9 @@
       <c r="Y12" t="s">
         <v>139</v>
       </c>
+      <c r="AA12" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -6452,6 +7048,9 @@
       <c r="Y13" t="s">
         <v>140</v>
       </c>
+      <c r="AA13" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -7042,7 +7641,7 @@
         <v>752</v>
       </c>
       <c r="V63" t="s">
-        <v>399</v>
+        <v>987</v>
       </c>
     </row>
     <row r="64">
@@ -7050,7 +7649,7 @@
         <v>668</v>
       </c>
       <c r="V64" t="s">
-        <v>775</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65">
@@ -7058,7 +7657,7 @@
         <v>612</v>
       </c>
       <c r="V65" t="s">
-        <v>916</v>
+        <v>775</v>
       </c>
     </row>
     <row r="66">
@@ -7066,7 +7665,7 @@
         <v>567</v>
       </c>
       <c r="V66" t="s">
-        <v>88</v>
+        <v>916</v>
       </c>
     </row>
     <row r="67">
@@ -7074,7 +7673,7 @@
         <v>712</v>
       </c>
       <c r="V67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
@@ -7082,7 +7681,7 @@
         <v>613</v>
       </c>
       <c r="V68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
@@ -7090,7 +7689,7 @@
         <v>819</v>
       </c>
       <c r="V69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
@@ -7098,7 +7697,7 @@
         <v>603</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
@@ -7106,7 +7705,7 @@
         <v>820</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -7114,7 +7713,7 @@
         <v>560</v>
       </c>
       <c r="V72" t="s">
-        <v>927</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -7122,7 +7721,7 @@
         <v>667</v>
       </c>
       <c r="V73" t="s">
-        <v>975</v>
+        <v>927</v>
       </c>
     </row>
     <row r="74">
@@ -7130,7 +7729,7 @@
         <v>578</v>
       </c>
       <c r="V74" t="s">
-        <v>92</v>
+        <v>975</v>
       </c>
     </row>
     <row r="75">
@@ -7138,7 +7737,7 @@
         <v>584</v>
       </c>
       <c r="V75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
@@ -7146,7 +7745,7 @@
         <v>589</v>
       </c>
       <c r="V76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
@@ -7154,7 +7753,7 @@
         <v>902</v>
       </c>
       <c r="V77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78">
@@ -7162,7 +7761,7 @@
         <v>649</v>
       </c>
       <c r="V78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
@@ -7170,7 +7769,7 @@
         <v>568</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
@@ -7178,7 +7777,7 @@
         <v>579</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -7186,7 +7785,7 @@
         <v>585</v>
       </c>
       <c r="V81" t="s">
-        <v>926</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -7194,7 +7793,7 @@
         <v>574</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>926</v>
       </c>
     </row>
     <row r="83">
@@ -7202,7 +7801,7 @@
         <v>569</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -7210,7 +7809,7 @@
         <v>586</v>
       </c>
       <c r="V84" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -7218,7 +7817,7 @@
         <v>570</v>
       </c>
       <c r="V85" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86">
@@ -7226,7 +7825,7 @@
         <v>571</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87">
@@ -7234,7 +7833,7 @@
         <v>604</v>
       </c>
       <c r="V87" t="s">
-        <v>909</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -7242,7 +7841,7 @@
         <v>610</v>
       </c>
       <c r="V88" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="89">
@@ -7250,7 +7849,7 @@
         <v>593</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>910</v>
       </c>
     </row>
     <row r="90">
@@ -7258,7 +7857,7 @@
         <v>663</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -7266,7 +7865,7 @@
         <v>575</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -7274,141 +7873,146 @@
         <v>576</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>768</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>99</v>
+        <v>768</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>917</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>112</v>
+        <v>917</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -39,30 +39,31 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4086" uniqueCount="998">
   <si>
     <t>description</t>
   </si>
@@ -3145,13 +3146,37 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="83" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3584,8 +3609,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="86">
+  <fills count="113">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4069,8 +4195,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="98">
+  <borders count="126">
     <border>
       <left/>
       <right/>
@@ -5081,6 +5360,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5116,7 +5677,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5484,52 +6045,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="61" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="61" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="64" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="64" fontId="53" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="67" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="67" fontId="54" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="70" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="70" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="57" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="76" borderId="89" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="89" fillId="76" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="79" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="79" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="82" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="82" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="82" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="82" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="88" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="91" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="94" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="97" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="103" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="106" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="109" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="109" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6303,7 +6912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -6356,48 +6965,51 @@
         <v>186</v>
       </c>
       <c r="M1" t="s">
+        <v>990</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>516</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>809</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>886</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>835</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>739</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>805</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>888</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6439,48 +7051,51 @@
         <v>903</v>
       </c>
       <c r="M2" t="s">
+        <v>993</v>
+      </c>
+      <c r="N2" t="s">
         <v>834</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>904</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>530</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>401</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>810</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>887</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>859</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>766</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>806</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>120</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>125</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>134</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>906</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6507,7 +7122,7 @@
         <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>991</v>
       </c>
       <c r="I3" t="s">
         <v>708</v>
@@ -6521,43 +7136,46 @@
       <c r="L3" t="s">
         <v>187</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>994</v>
+      </c>
+      <c r="O3" t="s">
         <v>905</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>517</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>402</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>811</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>837</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>767</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>807</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>46</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>121</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>126</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>746</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>133</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6580,6 +7198,9 @@
       <c r="G4" t="s">
         <v>923</v>
       </c>
+      <c r="H4" t="s">
+        <v>992</v>
+      </c>
       <c r="I4" t="s">
         <v>709</v>
       </c>
@@ -6592,43 +7213,46 @@
       <c r="L4" t="s">
         <v>188</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>995</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>518</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>403</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>812</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>838</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>740</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>808</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>717</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>122</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>127</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>133</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>889</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6660,40 +7284,40 @@
       <c r="L5" t="s">
         <v>189</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>519</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>404</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>813</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>839</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>741</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>718</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>123</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>128</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>135</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>890</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6722,37 +7346,37 @@
       <c r="L6" t="s">
         <v>190</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>520</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>777</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>814</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>743</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>47</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>918</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>129</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>136</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>891</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6778,37 +7402,37 @@
       <c r="L7" t="s">
         <v>614</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>521</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>836</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>815</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>742</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>48</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>919</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>130</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>137</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>892</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6834,34 +7458,34 @@
       <c r="L8" t="s">
         <v>191</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>164</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>522</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>816</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>744</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>49</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>124</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>131</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>138</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>893</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>494</v>
       </c>
     </row>
@@ -6887,25 +7511,25 @@
       <c r="L9" t="s">
         <v>192</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>165</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>523</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>817</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>745</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>183</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>988</v>
       </c>
     </row>
@@ -6928,22 +7552,22 @@
       <c r="L10" t="s">
         <v>193</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>907</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>524</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>818</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>555</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>184</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>989</v>
       </c>
     </row>
@@ -6966,19 +7590,19 @@
       <c r="L11" t="s">
         <v>986</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>166</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>525</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>556</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>557</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>495</v>
       </c>
     </row>
@@ -7001,25 +7625,25 @@
       <c r="L12" t="s">
         <v>914</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>26</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>526</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>50</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>139</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>990</v>
       </c>
       <c r="D13" t="s">
         <v>664</v>
@@ -7036,25 +7660,25 @@
       <c r="L13" t="s">
         <v>985</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>167</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>531</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>643</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>140</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -7071,22 +7695,22 @@
       <c r="L14" t="s">
         <v>194</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>168</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>527</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>51</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -7100,22 +7724,22 @@
       <c r="L15" t="s">
         <v>195</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>169</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>528</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>52</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>516</v>
       </c>
       <c r="D16" t="s">
         <v>770</v>
@@ -7129,19 +7753,19 @@
       <c r="L16" t="s">
         <v>196</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>529</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>44</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>809</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
         <v>771</v>
@@ -7152,16 +7776,16 @@
       <c r="J17" t="s">
         <v>174</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>53</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>886</v>
+        <v>809</v>
       </c>
       <c r="D18" t="s">
         <v>833</v>
@@ -7172,13 +7796,13 @@
       <c r="J18" t="s">
         <v>765</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>835</v>
+        <v>886</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
@@ -7189,13 +7813,13 @@
       <c r="J19" t="s">
         <v>978</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>739</v>
+        <v>835</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -7206,13 +7830,13 @@
       <c r="J20" t="s">
         <v>152</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>805</v>
+        <v>739</v>
       </c>
       <c r="D21" t="s">
         <v>546</v>
@@ -7223,13 +7847,13 @@
       <c r="J21" t="s">
         <v>778</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>805</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -7240,13 +7864,13 @@
       <c r="J22" t="s">
         <v>153</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>628</v>
@@ -7257,13 +7881,13 @@
       <c r="J23" t="s">
         <v>913</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -7274,13 +7898,13 @@
       <c r="J24" t="s">
         <v>154</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>921</v>
@@ -7291,13 +7915,13 @@
       <c r="J25" t="s">
         <v>155</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>888</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>458</v>
@@ -7305,13 +7929,13 @@
       <c r="F26" t="s">
         <v>580</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>487</v>
+        <v>888</v>
       </c>
       <c r="D27" t="s">
         <v>459</v>
@@ -7319,18 +7943,21 @@
       <c r="F27" t="s">
         <v>564</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>487</v>
+      </c>
       <c r="D28" t="s">
         <v>976</v>
       </c>
       <c r="F28" t="s">
         <v>581</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7341,7 +7968,7 @@
       <c r="F29" t="s">
         <v>582</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7352,7 +7979,7 @@
       <c r="F30" t="s">
         <v>397</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7363,7 +7990,7 @@
       <c r="F31" t="s">
         <v>573</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7374,7 +8001,7 @@
       <c r="F32" t="s">
         <v>583</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7385,7 +8012,7 @@
       <c r="F33" t="s">
         <v>558</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7396,7 +8023,7 @@
       <c r="F34" t="s">
         <v>647</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7407,7 +8034,7 @@
       <c r="F35" t="s">
         <v>606</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7418,7 +8045,7 @@
       <c r="F36" t="s">
         <v>559</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>661</v>
       </c>
     </row>
@@ -7429,7 +8056,7 @@
       <c r="F37" t="s">
         <v>607</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>908</v>
       </c>
     </row>
@@ -7440,7 +8067,7 @@
       <c r="F38" t="s">
         <v>565</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>779</v>
       </c>
     </row>
@@ -7448,7 +8075,7 @@
       <c r="F39" t="s">
         <v>159</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7456,7 +8083,7 @@
       <c r="F40" t="s">
         <v>396</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7464,7 +8091,7 @@
       <c r="F41" t="s">
         <v>587</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7472,7 +8099,7 @@
       <c r="F42" t="s">
         <v>598</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7480,7 +8107,7 @@
       <c r="F43" t="s">
         <v>599</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7488,7 +8115,7 @@
       <c r="F44" t="s">
         <v>666</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7496,7 +8123,7 @@
       <c r="F45" t="s">
         <v>665</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>915</v>
       </c>
     </row>
@@ -7504,7 +8131,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>398</v>
       </c>
     </row>
@@ -7512,7 +8139,7 @@
       <c r="F47" t="s">
         <v>600</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7520,7 +8147,7 @@
       <c r="F48" t="s">
         <v>662</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7528,7 +8155,7 @@
       <c r="F49" t="s">
         <v>750</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7536,7 +8163,7 @@
       <c r="F50" t="s">
         <v>601</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7544,475 +8171,485 @@
       <c r="F51" t="s">
         <v>738</v>
       </c>
-      <c r="V51" t="s">
-        <v>938</v>
+      <c r="W51" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>648</v>
       </c>
-      <c r="V52" t="s">
-        <v>80</v>
+      <c r="W52" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>566</v>
       </c>
-      <c r="V53" t="s">
-        <v>706</v>
+      <c r="W53" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>590</v>
       </c>
-      <c r="V54" t="s">
-        <v>932</v>
+      <c r="W54" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>591</v>
       </c>
-      <c r="V55" t="s">
-        <v>81</v>
+      <c r="W55" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>592</v>
       </c>
-      <c r="V56" t="s">
-        <v>82</v>
+      <c r="W56" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>602</v>
       </c>
-      <c r="V57" t="s">
-        <v>83</v>
+      <c r="W57" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>611</v>
       </c>
-      <c r="V58" t="s">
-        <v>84</v>
+      <c r="W58" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>660</v>
       </c>
-      <c r="V59" t="s">
-        <v>85</v>
+      <c r="W59" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>608</v>
       </c>
-      <c r="V60" t="s">
-        <v>86</v>
+      <c r="W60" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>609</v>
       </c>
-      <c r="V61" t="s">
-        <v>87</v>
+      <c r="W61" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>751</v>
       </c>
-      <c r="V62" t="s">
-        <v>911</v>
+      <c r="W62" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>752</v>
       </c>
-      <c r="V63" t="s">
-        <v>987</v>
+      <c r="W63" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>668</v>
       </c>
-      <c r="V64" t="s">
-        <v>399</v>
+      <c r="W64" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>612</v>
       </c>
-      <c r="V65" t="s">
-        <v>775</v>
+      <c r="W65" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>567</v>
       </c>
-      <c r="V66" t="s">
-        <v>916</v>
+      <c r="W66" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>712</v>
       </c>
-      <c r="V67" t="s">
-        <v>88</v>
+      <c r="W67" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>613</v>
       </c>
-      <c r="V68" t="s">
-        <v>89</v>
+      <c r="W68" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>819</v>
       </c>
-      <c r="V69" t="s">
-        <v>90</v>
+      <c r="W69" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>603</v>
       </c>
-      <c r="V70" t="s">
-        <v>91</v>
+      <c r="W70" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>820</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>560</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>667</v>
       </c>
-      <c r="V73" t="s">
-        <v>927</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>578</v>
       </c>
-      <c r="V74" t="s">
-        <v>975</v>
+      <c r="W74" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>584</v>
       </c>
-      <c r="V75" t="s">
-        <v>92</v>
+      <c r="W75" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>589</v>
       </c>
-      <c r="V76" t="s">
-        <v>93</v>
+      <c r="W76" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>902</v>
       </c>
-      <c r="V77" t="s">
-        <v>94</v>
+      <c r="W77" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>649</v>
       </c>
-      <c r="V78" t="s">
-        <v>95</v>
+      <c r="W78" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>568</v>
       </c>
-      <c r="V79" t="s">
-        <v>96</v>
+      <c r="W79" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>579</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>585</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>574</v>
       </c>
-      <c r="V82" t="s">
-        <v>926</v>
+      <c r="W82" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>569</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>586</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>570</v>
       </c>
-      <c r="V85" t="s">
-        <v>400</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>571</v>
       </c>
-      <c r="V86" t="s">
-        <v>97</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>604</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>610</v>
       </c>
-      <c r="V88" t="s">
-        <v>909</v>
+      <c r="W88" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>593</v>
       </c>
-      <c r="V89" t="s">
-        <v>910</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>663</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>575</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>576</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4086" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4580" uniqueCount="999">
   <si>
     <t>description</t>
   </si>
@@ -3170,13 +3170,16 @@
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
   </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="83" x14ac:knownFonts="1">
+  <fonts count="99" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3710,8 +3713,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="113">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4348,8 +4452,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="126">
+  <borders count="154">
     <border>
       <left/>
       <right/>
@@ -5642,6 +5899,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5677,7 +6216,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6093,52 +6632,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="88" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="88" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="91" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="91" fontId="69" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="94" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="94" fontId="70" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="97" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="97" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="103" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="117" fillId="103" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="106" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="106" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="109" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="109" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="109" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="109" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="115" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="118" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="121" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="124" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="130" borderId="145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="133" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="136" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="136" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7848,7 +8435,7 @@
         <v>778</v>
       </c>
       <c r="W21" t="s">
-        <v>57</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4580" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="999">
   <si>
     <t>description</t>
   </si>
@@ -3179,7 +3179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="99" x14ac:knownFonts="1">
+  <fonts count="115" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3814,8 +3814,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="140">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4605,8 +4706,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="154">
+  <borders count="182">
     <border>
       <left/>
       <right/>
@@ -6181,6 +6435,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6216,7 +6752,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="175">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6680,52 +7216,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="115" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="115" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="118" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="118" fontId="85" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="121" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="121" fontId="86" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="124" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="124" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="130" borderId="145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="145" fillId="130" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="133" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="133" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="136" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="136" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="136" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="136" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="142" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="145" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="148" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="151" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="157" borderId="173" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="160" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="163" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="163" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -33,37 +33,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6562" uniqueCount="1004">
   <si>
     <t>description</t>
   </si>
@@ -3173,13 +3174,28 @@
   <si>
     <t>assertIENativeMode()</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="115" x14ac:knownFonts="1">
+  <fonts count="163" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3915,8 +3931,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="167">
+  <fills count="248">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4859,8 +5178,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="182">
+  <borders count="266">
     <border>
       <left/>
       <right/>
@@ -6717,6 +7495,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6752,7 +8376,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="223">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7264,52 +8888,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="142" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="142" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="145" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="165" fillId="145" fontId="101" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="148" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="148" fontId="102" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="151" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="151" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="105" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="157" borderId="173" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="173" fillId="157" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="160" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="160" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="163" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="163" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="163" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="163" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="169" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="172" fontId="117" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="175" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="178" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="201" fillId="184" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="187" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="190" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="190" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="196" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="199" fontId="133" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="202" fontId="134" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="205" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="137" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="229" fillId="211" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="214" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="217" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="217" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="223" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="226" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="229" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="232" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="238" borderId="257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="241" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="244" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="244" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8083,7 +9851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -8109,78 +9877,81 @@
         <v>935</v>
       </c>
       <c r="D1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>372</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>653</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>186</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>990</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>516</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>185</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>809</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>886</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>835</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>739</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>805</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>132</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>888</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>487</v>
       </c>
     </row>
@@ -8195,78 +9966,81 @@
         <v>937</v>
       </c>
       <c r="D2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>177</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>157</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>922</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>939</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>614</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>769</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>903</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>993</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>834</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>904</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>530</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>401</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>810</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>887</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>859</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>766</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>806</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>120</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>125</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>906</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>488</v>
       </c>
     </row>
@@ -8281,1546 +10055,1558 @@
         <v>936</v>
       </c>
       <c r="D3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E3" t="s">
         <v>930</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>747</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>180</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>179</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>991</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>708</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>664</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>654</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>187</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>994</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>905</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>517</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>402</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>811</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>837</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>767</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>807</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>46</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>121</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>126</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>746</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>133</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>999</v>
       </c>
       <c r="B4" t="s">
         <v>756</v>
       </c>
       <c r="D4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>178</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>773</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>923</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>992</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>709</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>515</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>655</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>188</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>995</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>518</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>403</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>812</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>838</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>740</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>808</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>717</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>122</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>127</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>133</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>889</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>757</v>
       </c>
       <c r="D5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E5" t="s">
         <v>931</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>912</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>659</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>928</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>710</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>933</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>189</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>21</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>519</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>404</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>813</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>839</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>741</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>718</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>123</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>128</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>135</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>890</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>758</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>774</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>924</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>707</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>177</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>190</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>520</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>777</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>814</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>743</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>47</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>918</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>129</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>136</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>891</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>759</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>457</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>748</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>920</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>148</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>614</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>521</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>836</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>815</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>742</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>48</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>919</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>130</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>137</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>892</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
         <v>760</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>617</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>749</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>645</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>170</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>191</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>164</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>522</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>816</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>744</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>49</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>124</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>131</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>138</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>893</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>761</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>605</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>646</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>149</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>192</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>165</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>523</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>817</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>745</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>183</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" t="s">
         <v>614</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>711</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>925</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>776</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>193</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>907</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>524</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>818</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>555</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>184</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>653</v>
-      </c>
-      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="s">
         <v>545</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>572</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>639</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>150</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>986</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>166</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>525</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>556</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>557</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" t="s">
+        <v>653</v>
+      </c>
+      <c r="E12" t="s">
         <v>618</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>561</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>640</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>151</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>914</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>526</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>50</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>139</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>990</v>
-      </c>
-      <c r="D13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" t="s">
         <v>664</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>615</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>641</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>171</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>985</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>167</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>531</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>643</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>140</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>990</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>562</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>642</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>172</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>194</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>168</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>527</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>51</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>563</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>929</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>195</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>169</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>528</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>52</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>516</v>
-      </c>
-      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
         <v>770</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>616</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>173</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>196</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>529</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>44</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" t="s">
+        <v>516</v>
+      </c>
+      <c r="E17" t="s">
         <v>771</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>181</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>174</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>53</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>809</v>
-      </c>
-      <c r="D18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" t="s">
         <v>833</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>182</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>765</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>886</v>
-      </c>
-      <c r="D19" t="s">
+        <v>809</v>
+      </c>
+      <c r="E19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>594</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>978</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>835</v>
-      </c>
-      <c r="D20" t="s">
+        <v>886</v>
+      </c>
+      <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>595</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>152</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>739</v>
-      </c>
-      <c r="D21" t="s">
+        <v>835</v>
+      </c>
+      <c r="E21" t="s">
         <v>546</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>596</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>778</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>805</v>
-      </c>
-      <c r="D22" t="s">
+        <v>739</v>
+      </c>
+      <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>597</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>153</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
+        <v>805</v>
+      </c>
+      <c r="E23" t="s">
         <v>628</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>588</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>913</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
         <v>40</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>577</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>154</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
         <v>921</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>158</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>155</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
         <v>458</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>580</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>888</v>
-      </c>
-      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
         <v>459</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>564</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>888</v>
+      </c>
+      <c r="E28" t="s">
+        <v>976</v>
+      </c>
+      <c r="G28" t="s">
+        <v>581</v>
+      </c>
+      <c r="X28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>487</v>
       </c>
-      <c r="D28" t="s">
-        <v>976</v>
-      </c>
-      <c r="F28" t="s">
-        <v>581</v>
-      </c>
-      <c r="W28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>977</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>582</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>858</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>397</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>160</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>573</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>41</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>583</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>558</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>161</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>647</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>162</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>606</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>163</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>559</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>43</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>607</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>156</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>565</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>159</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>396</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>587</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>598</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>599</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>666</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>665</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>600</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>662</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>750</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>601</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>738</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>648</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>566</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>590</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>591</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>592</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>602</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>611</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>660</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>608</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>609</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>751</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>752</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>668</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>612</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>567</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>712</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>613</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>819</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>603</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>820</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>560</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>667</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>578</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>584</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>589</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>902</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>649</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>568</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>579</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>585</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>574</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>569</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>586</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>570</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>571</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>604</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>610</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>593</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>663</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>575</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>576</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -62,7 +62,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6562" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7067" uniqueCount="1009">
   <si>
     <t>description</t>
   </si>
@@ -3189,13 +3189,28 @@
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
   </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="163" x14ac:knownFonts="1">
+  <fonts count="179" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4234,8 +4249,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="248">
+  <fills count="275">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5637,8 +5753,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="266">
+  <borders count="294">
     <border>
       <left/>
       <right/>
@@ -8341,6 +8610,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8376,7 +8927,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="239">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9032,52 +9583,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="223" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="223" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="226" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="226" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="229" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="229" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="232" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="232" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="235" fontId="153" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="238" borderId="257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="257" fillId="238" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="241" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="241" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="244" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="244" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="244" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="244" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="247" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="250" borderId="273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="253" borderId="277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="256" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="259" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="265" borderId="285" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="268" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="271" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="271" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="259" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="274" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="259" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10041,7 +10640,7 @@
         <v>906</v>
       </c>
       <c r="AC2" t="s">
-        <v>488</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3">
@@ -10124,7 +10723,7 @@
         <v>133</v>
       </c>
       <c r="AC3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4">
@@ -10204,7 +10803,7 @@
         <v>889</v>
       </c>
       <c r="AC4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5">
@@ -10272,7 +10871,7 @@
         <v>890</v>
       </c>
       <c r="AC5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6">
@@ -10331,7 +10930,7 @@
         <v>891</v>
       </c>
       <c r="AC6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7">
@@ -10387,7 +10986,7 @@
         <v>892</v>
       </c>
       <c r="AC7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8">
@@ -10440,7 +11039,7 @@
         <v>893</v>
       </c>
       <c r="AC8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9">
@@ -10484,7 +11083,7 @@
         <v>183</v>
       </c>
       <c r="AC9" t="s">
-        <v>988</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10">
@@ -10522,7 +11121,7 @@
         <v>184</v>
       </c>
       <c r="AC10" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="11">
@@ -10557,7 +11156,7 @@
         <v>557</v>
       </c>
       <c r="AC11" t="s">
-        <v>495</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="12">
@@ -10592,7 +11191,7 @@
         <v>139</v>
       </c>
       <c r="AC12" t="s">
-        <v>496</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="13">
@@ -10627,7 +11226,7 @@
         <v>140</v>
       </c>
       <c r="AC13" t="s">
-        <v>497</v>
+        <v>989</v>
       </c>
     </row>
     <row r="14">
@@ -10661,6 +11260,9 @@
       <c r="AA14" t="s">
         <v>141</v>
       </c>
+      <c r="AC14" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -10690,6 +11292,9 @@
       <c r="AA15" t="s">
         <v>142</v>
       </c>
+      <c r="AC15" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -10716,6 +11321,9 @@
       <c r="AA16" t="s">
         <v>143</v>
       </c>
+      <c r="AC16" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -10736,6 +11344,9 @@
       <c r="AA17" t="s">
         <v>934</v>
       </c>
+      <c r="AC17" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -10752,6 +11363,9 @@
       </c>
       <c r="X18" t="s">
         <v>54</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -57,12 +57,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7067" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7576" uniqueCount="1013">
   <si>
     <t>description</t>
   </si>
@@ -3204,13 +3204,25 @@
   <si>
     <t>replace(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="179" x14ac:knownFonts="1">
+  <fonts count="195" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4350,8 +4362,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="275">
+  <fills count="302">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5906,8 +6019,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="294">
+  <borders count="322">
     <border>
       <left/>
       <right/>
@@ -8892,6 +9158,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8927,7 +9475,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="255">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9631,52 +10179,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="250" borderId="273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="250" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="253" borderId="277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="253" fontId="165" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="256" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="256" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="259" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="259" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="262" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="262" fontId="169" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="265" borderId="285" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="285" fillId="265" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="268" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="268" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="271" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="271" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="271" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="271" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="259" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="274" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="274" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="259" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="277" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="280" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="283" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="286" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="292" borderId="313" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="295" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="298" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="298" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10450,7 +11046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -11226,7 +11822,7 @@
         <v>140</v>
       </c>
       <c r="AC13" t="s">
-        <v>989</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14">
@@ -11261,7 +11857,7 @@
         <v>141</v>
       </c>
       <c r="AC14" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15">
@@ -11293,7 +11889,7 @@
         <v>142</v>
       </c>
       <c r="AC15" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
     </row>
     <row r="16">
@@ -11322,7 +11918,7 @@
         <v>143</v>
       </c>
       <c r="AC16" t="s">
-        <v>495</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="17">
@@ -11345,7 +11941,7 @@
         <v>934</v>
       </c>
       <c r="AC17" t="s">
-        <v>496</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="18">
@@ -11365,7 +11961,7 @@
         <v>54</v>
       </c>
       <c r="AC18" t="s">
-        <v>497</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19">
@@ -11384,6 +11980,9 @@
       <c r="X19" t="s">
         <v>55</v>
       </c>
+      <c r="AC19" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -11401,6 +12000,9 @@
       <c r="X20" t="s">
         <v>56</v>
       </c>
+      <c r="AC20" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -11418,6 +12020,9 @@
       <c r="X21" t="s">
         <v>998</v>
       </c>
+      <c r="AC21" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -11967,7 +12572,7 @@
         <v>568</v>
       </c>
       <c r="X79" t="s">
-        <v>95</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="80">
@@ -11975,7 +12580,7 @@
         <v>579</v>
       </c>
       <c r="X80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81">
@@ -11983,7 +12588,7 @@
         <v>585</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
@@ -11991,7 +12596,7 @@
         <v>574</v>
       </c>
       <c r="X82" t="s">
-        <v>997</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -11999,7 +12604,7 @@
         <v>569</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>997</v>
       </c>
     </row>
     <row r="84">
@@ -12007,7 +12612,7 @@
         <v>586</v>
       </c>
       <c r="X84" t="s">
-        <v>926</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -12015,7 +12620,7 @@
         <v>570</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>926</v>
       </c>
     </row>
     <row r="86">
@@ -12023,7 +12628,7 @@
         <v>571</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -12031,7 +12636,7 @@
         <v>604</v>
       </c>
       <c r="X87" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -12039,7 +12644,7 @@
         <v>610</v>
       </c>
       <c r="X88" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89">
@@ -12047,7 +12652,7 @@
         <v>593</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90">
@@ -12055,7 +12660,7 @@
         <v>663</v>
       </c>
       <c r="X90" t="s">
-        <v>909</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -12063,7 +12668,7 @@
         <v>575</v>
       </c>
       <c r="X91" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="92">
@@ -12071,156 +12676,161 @@
         <v>576</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>910</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>768</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>99</v>
+        <v>768</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>917</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>112</v>
+        <v>917</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -48,7 +48,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -57,7 +57,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7576" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8597" uniqueCount="1016">
   <si>
     <t>description</t>
   </si>
@@ -3216,13 +3216,22 @@
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="195" x14ac:knownFonts="1">
+  <fonts count="227" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4463,8 +4472,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="302">
+  <fills count="356">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6172,8 +6383,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="322">
+  <borders count="378">
     <border>
       <left/>
       <right/>
@@ -6337,6 +6854,570 @@
       </top>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9475,7 +10556,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="287">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10227,52 +11308,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="277" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="277" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="280" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="280" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="283" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="283" fontId="182" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="286" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="286" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="289" fontId="185" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="292" borderId="313" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="313" fillId="292" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="295" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="295" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="298" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="298" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="298" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="298" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="301" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="304" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="307" fontId="197" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="310" fontId="198" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="313" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="316" fontId="201" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="341" fillId="319" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="322" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="325" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="325" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="328" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="331" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="334" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="337" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="340" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="346" borderId="369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="349" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="352" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="352" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11046,7 +12223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -11877,7 +13054,7 @@
         <v>195</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>1013</v>
       </c>
       <c r="Q15" t="s">
         <v>528</v>
@@ -11908,6 +13085,9 @@
       <c r="M16" t="s">
         <v>196</v>
       </c>
+      <c r="P16" t="s">
+        <v>1014</v>
+      </c>
       <c r="Q16" t="s">
         <v>529</v>
       </c>
@@ -11935,7 +13115,7 @@
         <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>53</v>
+        <v>1015</v>
       </c>
       <c r="AA17" t="s">
         <v>934</v>
@@ -11958,7 +13138,7 @@
         <v>765</v>
       </c>
       <c r="X18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC18" t="s">
         <v>1012</v>
@@ -11978,7 +13158,7 @@
         <v>978</v>
       </c>
       <c r="X19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC19" t="s">
         <v>495</v>
@@ -11998,7 +13178,7 @@
         <v>152</v>
       </c>
       <c r="X20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC20" t="s">
         <v>496</v>
@@ -12018,7 +13198,7 @@
         <v>778</v>
       </c>
       <c r="X21" t="s">
-        <v>998</v>
+        <v>56</v>
       </c>
       <c r="AC21" t="s">
         <v>497</v>
@@ -12038,7 +13218,7 @@
         <v>153</v>
       </c>
       <c r="X22" t="s">
-        <v>58</v>
+        <v>998</v>
       </c>
     </row>
     <row r="23">
@@ -12055,7 +13235,7 @@
         <v>913</v>
       </c>
       <c r="X23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
@@ -12072,7 +13252,7 @@
         <v>154</v>
       </c>
       <c r="X24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -12089,7 +13269,7 @@
         <v>155</v>
       </c>
       <c r="X25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -12103,7 +13283,7 @@
         <v>580</v>
       </c>
       <c r="X26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -12117,7 +13297,7 @@
         <v>564</v>
       </c>
       <c r="X27" t="s">
-        <v>644</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -12131,7 +13311,7 @@
         <v>581</v>
       </c>
       <c r="X28" t="s">
-        <v>63</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29">
@@ -12145,7 +13325,7 @@
         <v>582</v>
       </c>
       <c r="X29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -12156,7 +13336,7 @@
         <v>397</v>
       </c>
       <c r="X30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
@@ -12167,7 +13347,7 @@
         <v>573</v>
       </c>
       <c r="X31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
@@ -12178,7 +13358,7 @@
         <v>583</v>
       </c>
       <c r="X32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
@@ -12189,7 +13369,7 @@
         <v>558</v>
       </c>
       <c r="X33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -12200,7 +13380,7 @@
         <v>647</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
@@ -12211,7 +13391,7 @@
         <v>606</v>
       </c>
       <c r="X35" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -12222,7 +13402,7 @@
         <v>559</v>
       </c>
       <c r="X36" t="s">
-        <v>661</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
@@ -12233,7 +13413,7 @@
         <v>607</v>
       </c>
       <c r="X37" t="s">
-        <v>908</v>
+        <v>661</v>
       </c>
     </row>
     <row r="38">
@@ -12244,7 +13424,7 @@
         <v>565</v>
       </c>
       <c r="X38" t="s">
-        <v>779</v>
+        <v>908</v>
       </c>
     </row>
     <row r="39">
@@ -12252,7 +13432,7 @@
         <v>159</v>
       </c>
       <c r="X39" t="s">
-        <v>70</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40">
@@ -12260,7 +13440,7 @@
         <v>396</v>
       </c>
       <c r="X40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -12268,7 +13448,7 @@
         <v>587</v>
       </c>
       <c r="X41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -12276,7 +13456,7 @@
         <v>598</v>
       </c>
       <c r="X42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
@@ -12284,7 +13464,7 @@
         <v>599</v>
       </c>
       <c r="X43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -12292,7 +13472,7 @@
         <v>666</v>
       </c>
       <c r="X44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
@@ -12300,7 +13480,7 @@
         <v>665</v>
       </c>
       <c r="X45" t="s">
-        <v>915</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
@@ -12308,7 +13488,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>398</v>
+        <v>915</v>
       </c>
     </row>
     <row r="47">
@@ -12316,7 +13496,7 @@
         <v>600</v>
       </c>
       <c r="X47" t="s">
-        <v>76</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48">
@@ -12324,7 +13504,7 @@
         <v>662</v>
       </c>
       <c r="X48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -12332,7 +13512,7 @@
         <v>750</v>
       </c>
       <c r="X49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -12340,7 +13520,7 @@
         <v>601</v>
       </c>
       <c r="X50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
@@ -12348,7 +13528,7 @@
         <v>738</v>
       </c>
       <c r="X51" t="s">
-        <v>996</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
@@ -12356,7 +13536,7 @@
         <v>648</v>
       </c>
       <c r="X52" t="s">
-        <v>938</v>
+        <v>996</v>
       </c>
     </row>
     <row r="53">
@@ -12364,7 +13544,7 @@
         <v>566</v>
       </c>
       <c r="X53" t="s">
-        <v>80</v>
+        <v>938</v>
       </c>
     </row>
     <row r="54">
@@ -12372,7 +13552,7 @@
         <v>590</v>
       </c>
       <c r="X54" t="s">
-        <v>706</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
@@ -12380,7 +13560,7 @@
         <v>591</v>
       </c>
       <c r="X55" t="s">
-        <v>932</v>
+        <v>706</v>
       </c>
     </row>
     <row r="56">
@@ -12388,7 +13568,7 @@
         <v>592</v>
       </c>
       <c r="X56" t="s">
-        <v>81</v>
+        <v>932</v>
       </c>
     </row>
     <row r="57">
@@ -12396,7 +13576,7 @@
         <v>602</v>
       </c>
       <c r="X57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -12404,7 +13584,7 @@
         <v>611</v>
       </c>
       <c r="X58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -12412,7 +13592,7 @@
         <v>660</v>
       </c>
       <c r="X59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
@@ -12420,7 +13600,7 @@
         <v>608</v>
       </c>
       <c r="X60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
@@ -12428,7 +13608,7 @@
         <v>609</v>
       </c>
       <c r="X61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
@@ -12436,7 +13616,7 @@
         <v>751</v>
       </c>
       <c r="X62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
@@ -12444,7 +13624,7 @@
         <v>752</v>
       </c>
       <c r="X63" t="s">
-        <v>911</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64">
@@ -12452,7 +13632,7 @@
         <v>668</v>
       </c>
       <c r="X64" t="s">
-        <v>987</v>
+        <v>911</v>
       </c>
     </row>
     <row r="65">
@@ -12460,7 +13640,7 @@
         <v>612</v>
       </c>
       <c r="X65" t="s">
-        <v>399</v>
+        <v>987</v>
       </c>
     </row>
     <row r="66">
@@ -12468,7 +13648,7 @@
         <v>567</v>
       </c>
       <c r="X66" t="s">
-        <v>775</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67">
@@ -12476,7 +13656,7 @@
         <v>712</v>
       </c>
       <c r="X67" t="s">
-        <v>916</v>
+        <v>775</v>
       </c>
     </row>
     <row r="68">
@@ -12484,7 +13664,7 @@
         <v>613</v>
       </c>
       <c r="X68" t="s">
-        <v>88</v>
+        <v>916</v>
       </c>
     </row>
     <row r="69">
@@ -12492,7 +13672,7 @@
         <v>819</v>
       </c>
       <c r="X69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
@@ -12500,7 +13680,7 @@
         <v>603</v>
       </c>
       <c r="X70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
@@ -12508,7 +13688,7 @@
         <v>820</v>
       </c>
       <c r="X71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -12516,7 +13696,7 @@
         <v>560</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
@@ -12524,7 +13704,7 @@
         <v>667</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -12532,7 +13712,7 @@
         <v>578</v>
       </c>
       <c r="X74" t="s">
-        <v>927</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -12540,7 +13720,7 @@
         <v>584</v>
       </c>
       <c r="X75" t="s">
-        <v>975</v>
+        <v>927</v>
       </c>
     </row>
     <row r="76">
@@ -12548,7 +13728,7 @@
         <v>589</v>
       </c>
       <c r="X76" t="s">
-        <v>92</v>
+        <v>975</v>
       </c>
     </row>
     <row r="77">
@@ -12556,7 +13736,7 @@
         <v>902</v>
       </c>
       <c r="X77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
@@ -12564,7 +13744,7 @@
         <v>649</v>
       </c>
       <c r="X78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
@@ -12572,7 +13752,7 @@
         <v>568</v>
       </c>
       <c r="X79" t="s">
-        <v>1009</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
@@ -12580,7 +13760,7 @@
         <v>579</v>
       </c>
       <c r="X80" t="s">
-        <v>95</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="81">
@@ -12588,7 +13768,7 @@
         <v>585</v>
       </c>
       <c r="X81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
@@ -12596,7 +13776,7 @@
         <v>574</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
@@ -12604,7 +13784,7 @@
         <v>569</v>
       </c>
       <c r="X83" t="s">
-        <v>997</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -12612,7 +13792,7 @@
         <v>586</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>997</v>
       </c>
     </row>
     <row r="85">
@@ -12620,7 +13800,7 @@
         <v>570</v>
       </c>
       <c r="X85" t="s">
-        <v>926</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -12628,7 +13808,7 @@
         <v>571</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>926</v>
       </c>
     </row>
     <row r="87">
@@ -12636,7 +13816,7 @@
         <v>604</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -12644,7 +13824,7 @@
         <v>610</v>
       </c>
       <c r="X88" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -12652,7 +13832,7 @@
         <v>593</v>
       </c>
       <c r="X89" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90">
@@ -12660,7 +13840,7 @@
         <v>663</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91">
@@ -12668,7 +13848,7 @@
         <v>575</v>
       </c>
       <c r="X91" t="s">
-        <v>909</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -12676,161 +13856,166 @@
         <v>576</v>
       </c>
       <c r="X92" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>910</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>456</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>768</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>99</v>
+        <v>768</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>917</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>112</v>
+        <v>917</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>119</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{96C8E054-3B0F-BE45-BDF2-E69FB8D31C3C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="5120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3640" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25160" windowWidth="40960" xWindow="5120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3640"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -38,7 +38,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="1027">
   <si>
     <t>description</t>
   </si>
@@ -3364,13 +3364,19 @@
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3608,8 +3614,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3787,8 +3894,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -4235,6 +4495,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4270,7 +4812,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4542,52 +5084,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="7" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="10" fontId="22" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="13" fontId="23" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="16" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="26" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="22" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="25" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="28" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="28" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="49" borderId="61" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="52" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="55" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5363,7 +5953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -6516,7 +7106,7 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>555</v>
+        <v>1025</v>
       </c>
       <c r="X33" t="s">
         <v>66</v>
@@ -6527,7 +7117,7 @@
         <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>644</v>
+        <v>555</v>
       </c>
       <c r="X34" t="s">
         <v>67</v>
@@ -6538,7 +7128,7 @@
         <v>160</v>
       </c>
       <c r="G35" t="s">
-        <v>603</v>
+        <v>644</v>
       </c>
       <c r="X35" t="s">
         <v>208</v>
@@ -6549,7 +7139,7 @@
         <v>161</v>
       </c>
       <c r="G36" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="X36" t="s">
         <v>68</v>
@@ -6560,7 +7150,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="X37" t="s">
         <v>658</v>
@@ -6571,7 +7161,7 @@
         <v>154</v>
       </c>
       <c r="G38" t="s">
-        <v>562</v>
+        <v>604</v>
       </c>
       <c r="X38" t="s">
         <v>904</v>
@@ -6579,7 +7169,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>157</v>
+        <v>562</v>
       </c>
       <c r="X39" t="s">
         <v>776</v>
@@ -6587,7 +7177,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>393</v>
+        <v>157</v>
       </c>
       <c r="X40" t="s">
         <v>69</v>
@@ -6595,7 +7185,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>584</v>
+        <v>393</v>
       </c>
       <c r="X41" t="s">
         <v>70</v>
@@ -6603,7 +7193,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="X42" t="s">
         <v>71</v>
@@ -6611,7 +7201,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="X43" t="s">
         <v>72</v>
@@ -6619,7 +7209,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>663</v>
+        <v>596</v>
       </c>
       <c r="X44" t="s">
         <v>73</v>
@@ -6627,7 +7217,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="X45" t="s">
         <v>74</v>
@@ -6635,7 +7225,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>209</v>
+        <v>662</v>
       </c>
       <c r="X46" t="s">
         <v>911</v>
@@ -6643,7 +7233,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>597</v>
+        <v>209</v>
       </c>
       <c r="X47" t="s">
         <v>395</v>
@@ -6651,7 +7241,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>659</v>
+        <v>597</v>
       </c>
       <c r="X48" t="s">
         <v>75</v>
@@ -6659,7 +7249,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>747</v>
+        <v>659</v>
       </c>
       <c r="X49" t="s">
         <v>76</v>
@@ -6667,7 +7257,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>598</v>
+        <v>747</v>
       </c>
       <c r="X50" t="s">
         <v>77</v>
@@ -6675,7 +7265,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>735</v>
+        <v>598</v>
       </c>
       <c r="X51" t="s">
         <v>78</v>
@@ -6683,7 +7273,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="X52" t="s">
         <v>992</v>
@@ -6691,7 +7281,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="X53" t="s">
         <v>934</v>
@@ -6699,7 +7289,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="X54" t="s">
         <v>79</v>
@@ -6707,7 +7297,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="X55" t="s">
         <v>703</v>
@@ -6715,7 +7305,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="X56" t="s">
         <v>928</v>
@@ -6723,7 +7313,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="X57" t="s">
         <v>80</v>
@@ -6731,7 +7321,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="X58" t="s">
         <v>81</v>
@@ -6739,7 +7329,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>657</v>
+        <v>608</v>
       </c>
       <c r="X59" t="s">
         <v>82</v>
@@ -6747,7 +7337,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>605</v>
+        <v>657</v>
       </c>
       <c r="X60" t="s">
         <v>83</v>
@@ -6755,7 +7345,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="X61" t="s">
         <v>84</v>
@@ -6763,7 +7353,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>748</v>
+        <v>606</v>
       </c>
       <c r="X62" t="s">
         <v>85</v>
@@ -6771,7 +7361,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="X63" t="s">
         <v>86</v>
@@ -6779,7 +7369,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>665</v>
+        <v>749</v>
       </c>
       <c r="X64" t="s">
         <v>907</v>
@@ -6787,7 +7377,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>609</v>
+        <v>665</v>
       </c>
       <c r="X65" t="s">
         <v>983</v>
@@ -6795,7 +7385,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="X66" t="s">
         <v>396</v>
@@ -6803,7 +7393,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>709</v>
+        <v>564</v>
       </c>
       <c r="X67" t="s">
         <v>772</v>
@@ -6811,7 +7401,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>610</v>
+        <v>709</v>
       </c>
       <c r="X68" t="s">
         <v>912</v>
@@ -6819,7 +7409,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>816</v>
+        <v>610</v>
       </c>
       <c r="X69" t="s">
         <v>87</v>
@@ -6827,7 +7417,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>600</v>
+        <v>816</v>
       </c>
       <c r="X70" t="s">
         <v>88</v>
@@ -6835,7 +7425,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>817</v>
+        <v>600</v>
       </c>
       <c r="X71" t="s">
         <v>89</v>
@@ -6843,7 +7433,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>557</v>
+        <v>817</v>
       </c>
       <c r="X72" t="s">
         <v>90</v>
@@ -6851,7 +7441,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>664</v>
+        <v>557</v>
       </c>
       <c r="X73" t="s">
         <v>195</v>
@@ -6859,7 +7449,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>575</v>
+        <v>1026</v>
       </c>
       <c r="X74" t="s">
         <v>196</v>
@@ -6867,7 +7457,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>581</v>
+        <v>664</v>
       </c>
       <c r="X75" t="s">
         <v>923</v>
@@ -6875,7 +7465,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="X76" t="s">
         <v>971</v>
@@ -6883,7 +7473,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>898</v>
+        <v>581</v>
       </c>
       <c r="X77" t="s">
         <v>91</v>
@@ -6891,7 +7481,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>646</v>
+        <v>586</v>
       </c>
       <c r="X78" t="s">
         <v>92</v>
@@ -6899,7 +7489,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>565</v>
+        <v>898</v>
       </c>
       <c r="X79" t="s">
         <v>93</v>
@@ -6907,7 +7497,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="X80" t="s">
         <v>1005</v>
@@ -6915,7 +7505,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="X81" t="s">
         <v>94</v>
@@ -6923,7 +7513,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="X82" t="s">
         <v>95</v>
@@ -6931,7 +7521,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="X83" t="s">
         <v>197</v>
@@ -6939,7 +7529,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="X84" t="s">
         <v>993</v>
@@ -6947,7 +7537,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="X85" t="s">
         <v>198</v>
@@ -6955,7 +7545,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="X86" t="s">
         <v>922</v>
@@ -6963,7 +7553,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="X87" t="s">
         <v>199</v>
@@ -6971,7 +7561,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="X88" t="s">
         <v>200</v>
@@ -6979,7 +7569,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="X89" t="s">
         <v>397</v>
@@ -6987,7 +7577,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
       <c r="X90" t="s">
         <v>96</v>
@@ -6995,7 +7585,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="X91" t="s">
         <v>201</v>
@@ -7003,18 +7593,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>573</v>
+        <v>660</v>
       </c>
       <c r="X92" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>572</v>
+      </c>
       <c r="X93" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>573</v>
+      </c>
       <c r="X94" t="s">
         <v>202</v>
       </c>
@@ -7183,7 +7779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -18754,7 +19350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -19565,7 +20161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -21250,7 +21846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -21547,7 +22143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -22306,7 +22902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D87D36E-04A6-D640-B45B-3F4AC7187531}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -22651,7 +23247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -25259,7 +25855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -25632,7 +26228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DF1F0F-B282-0943-91B8-08553FB5A8B7}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -26372,7 +26968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -27071,7 +27667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -28023,7 +28619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -29206,7 +29802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB658DF9-1366-8E48-8409-696BDE8D94B8}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -29434,7 +30030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -59,7 +59,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="1029">
   <si>
     <t>description</t>
   </si>
@@ -3370,13 +3370,19 @@
   <si>
     <t>saveTextByLocator(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="84" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3715,8 +3721,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="59">
+  <fills count="119">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4047,8 +4255,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="70">
+  <borders count="126">
     <border>
       <left/>
       <right/>
@@ -4777,6 +5325,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4812,7 +5924,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5132,52 +6244,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="34" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="37" fontId="38" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="40" fontId="39" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="43" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="43" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="42" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="49" borderId="61" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="61" fillId="49" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="52" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="52" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="55" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="55" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="55" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="55" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="61" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="64" fontId="54" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="67" fontId="55" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="70" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="58" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="89" fillId="76" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="79" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="82" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="82" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="91" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="94" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="97" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="100" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="106" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="109" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="112" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="112" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="118" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5951,7 +7159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -7647,126 +8855,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>97</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>765</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>98</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>99</v>
+        <v>765</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>913</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>112</v>
+        <v>913</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>118</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -45,26 +45,27 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1036">
   <si>
     <t>description</t>
   </si>
@@ -3376,13 +3377,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="84" x14ac:knownFonts="1">
+  <fonts count="100" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3923,8 +3945,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="119">
+  <fills count="149">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4595,8 +4718,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="126">
+  <borders count="154">
     <border>
       <left/>
       <right/>
@@ -5889,6 +6182,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5924,7 +6499,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6340,52 +6915,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="91" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="91" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="94" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="94" fontId="70" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="97" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="97" fontId="71" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="100" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="100" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="103" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="106" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="117" fillId="106" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="109" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="109" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="112" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="112" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="112" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="112" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="115" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="118" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="118" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="121" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="124" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="127" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="130" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="133" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="136" borderId="145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="139" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="142" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="142" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="130" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="145" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="130" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="148" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7159,7 +7782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -7215,51 +7838,54 @@
         <v>183</v>
       </c>
       <c r="N1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O1" t="s">
         <v>986</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>513</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>182</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>806</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>882</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>831</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>736</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>802</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>884</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>484</v>
       </c>
     </row>
@@ -7304,51 +7930,54 @@
         <v>899</v>
       </c>
       <c r="N2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O2" t="s">
         <v>989</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>830</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>900</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>527</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>398</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>807</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>883</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>855</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>763</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>803</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>119</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>124</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>902</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -7393,45 +8022,48 @@
         <v>184</v>
       </c>
       <c r="N3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O3" t="s">
         <v>990</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>901</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>514</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>399</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>808</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>833</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>764</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>804</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>125</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>743</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>132</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>485</v>
       </c>
     </row>
@@ -7473,45 +8105,48 @@
         <v>185</v>
       </c>
       <c r="N4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O4" t="s">
         <v>991</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>515</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>400</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>809</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>834</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>737</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>805</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>714</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>121</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>126</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>132</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>885</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>486</v>
       </c>
     </row>
@@ -7546,40 +8181,43 @@
       <c r="M5" t="s">
         <v>186</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>516</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>401</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>810</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>835</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>738</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>715</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>122</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>127</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>134</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>886</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7611,37 +8249,40 @@
       <c r="M6" t="s">
         <v>187</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q6" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>517</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>774</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>811</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>740</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>914</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>128</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>135</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>887</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>488</v>
       </c>
     </row>
@@ -7667,37 +8308,40 @@
       <c r="M7" t="s">
         <v>611</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q7" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>518</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>832</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>812</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>739</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>915</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>129</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>136</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>888</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>489</v>
       </c>
     </row>
@@ -7723,34 +8367,34 @@
       <c r="M8" t="s">
         <v>188</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>162</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>519</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>813</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>741</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>49</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>123</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>130</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>137</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>889</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>490</v>
       </c>
     </row>
@@ -7776,25 +8420,25 @@
       <c r="M9" t="s">
         <v>189</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>163</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>520</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>814</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>742</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>180</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7817,22 +8461,22 @@
       <c r="M10" t="s">
         <v>190</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>903</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>521</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>815</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>552</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>181</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>984</v>
       </c>
     </row>
@@ -7855,19 +8499,19 @@
       <c r="M11" t="s">
         <v>982</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>164</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>522</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>553</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>554</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -7890,19 +8534,19 @@
       <c r="M12" t="s">
         <v>910</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>523</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>50</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>138</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -7925,25 +8569,25 @@
       <c r="M13" t="s">
         <v>981</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>165</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>528</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>640</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>139</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>986</v>
+        <v>1029</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -7960,25 +8604,25 @@
       <c r="M14" t="s">
         <v>191</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>166</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>524</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>51</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>140</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>986</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -7992,25 +8636,25 @@
       <c r="M15" t="s">
         <v>192</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>1009</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>525</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>52</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>141</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
         <v>767</v>
@@ -8024,25 +8668,25 @@
       <c r="M16" t="s">
         <v>193</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>1010</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>526</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>44</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>142</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>768</v>
@@ -8053,19 +8697,19 @@
       <c r="K17" t="s">
         <v>169</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>1011</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>930</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>513</v>
       </c>
       <c r="E18" t="s">
         <v>829</v>
@@ -8076,16 +8720,16 @@
       <c r="K18" t="s">
         <v>925</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>53</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>806</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
         <v>37</v>
@@ -8096,16 +8740,16 @@
       <c r="K19" t="s">
         <v>170</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>54</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>882</v>
+        <v>806</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -8116,16 +8760,16 @@
       <c r="K20" t="s">
         <v>171</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>55</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>831</v>
+        <v>882</v>
       </c>
       <c r="E21" t="s">
         <v>543</v>
@@ -8136,16 +8780,16 @@
       <c r="K21" t="s">
         <v>762</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>56</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>736</v>
+        <v>831</v>
       </c>
       <c r="E22" t="s">
         <v>39</v>
@@ -8156,13 +8800,13 @@
       <c r="K22" t="s">
         <v>974</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>802</v>
+        <v>736</v>
       </c>
       <c r="E23" t="s">
         <v>625</v>
@@ -8173,13 +8817,13 @@
       <c r="K23" t="s">
         <v>150</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
@@ -8190,13 +8834,13 @@
       <c r="K24" t="s">
         <v>775</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
         <v>917</v>
@@ -8207,13 +8851,13 @@
       <c r="K25" t="s">
         <v>151</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
         <v>455</v>
@@ -8224,13 +8868,13 @@
       <c r="K26" t="s">
         <v>909</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
         <v>456</v>
@@ -8241,13 +8885,13 @@
       <c r="K27" t="s">
         <v>152</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>884</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>972</v>
@@ -8258,13 +8902,13 @@
       <c r="K28" t="s">
         <v>153</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>484</v>
+        <v>884</v>
       </c>
       <c r="E29" t="s">
         <v>973</v>
@@ -8272,18 +8916,21 @@
       <c r="G29" t="s">
         <v>579</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>484</v>
+      </c>
       <c r="E30" t="s">
         <v>854</v>
       </c>
       <c r="G30" t="s">
         <v>394</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8294,7 +8941,7 @@
       <c r="G31" t="s">
         <v>570</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8305,7 +8952,7 @@
       <c r="G32" t="s">
         <v>580</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8316,7 +8963,7 @@
       <c r="G33" t="s">
         <v>1025</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8327,7 +8974,7 @@
       <c r="G34" t="s">
         <v>555</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>67</v>
       </c>
     </row>
@@ -8338,7 +8985,7 @@
       <c r="G35" t="s">
         <v>644</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -8349,7 +8996,7 @@
       <c r="G36" t="s">
         <v>603</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8360,7 +9007,7 @@
       <c r="G37" t="s">
         <v>556</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>658</v>
       </c>
     </row>
@@ -8371,7 +9018,7 @@
       <c r="G38" t="s">
         <v>604</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>904</v>
       </c>
     </row>
@@ -8379,7 +9026,7 @@
       <c r="G39" t="s">
         <v>562</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>776</v>
       </c>
     </row>
@@ -8387,7 +9034,7 @@
       <c r="G40" t="s">
         <v>157</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8395,7 +9042,7 @@
       <c r="G41" t="s">
         <v>393</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8403,7 +9050,7 @@
       <c r="G42" t="s">
         <v>584</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8411,7 +9058,7 @@
       <c r="G43" t="s">
         <v>595</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8419,7 +9066,7 @@
       <c r="G44" t="s">
         <v>596</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8427,7 +9074,7 @@
       <c r="G45" t="s">
         <v>663</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8435,7 +9082,7 @@
       <c r="G46" t="s">
         <v>662</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>911</v>
       </c>
     </row>
@@ -8443,7 +9090,7 @@
       <c r="G47" t="s">
         <v>209</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8451,7 +9098,7 @@
       <c r="G48" t="s">
         <v>597</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8459,7 +9106,7 @@
       <c r="G49" t="s">
         <v>659</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8467,7 +9114,7 @@
       <c r="G50" t="s">
         <v>747</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8475,7 +9122,7 @@
       <c r="G51" t="s">
         <v>598</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8483,7 +9130,7 @@
       <c r="G52" t="s">
         <v>735</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>992</v>
       </c>
     </row>
@@ -8491,7 +9138,7 @@
       <c r="G53" t="s">
         <v>645</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>934</v>
       </c>
     </row>
@@ -8499,7 +9146,7 @@
       <c r="G54" t="s">
         <v>563</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8507,7 +9154,7 @@
       <c r="G55" t="s">
         <v>587</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8515,7 +9162,7 @@
       <c r="G56" t="s">
         <v>588</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>928</v>
       </c>
     </row>
@@ -8523,7 +9170,7 @@
       <c r="G57" t="s">
         <v>589</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8531,7 +9178,7 @@
       <c r="G58" t="s">
         <v>599</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8539,7 +9186,7 @@
       <c r="G59" t="s">
         <v>608</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8547,7 +9194,7 @@
       <c r="G60" t="s">
         <v>657</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8555,7 +9202,7 @@
       <c r="G61" t="s">
         <v>605</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>84</v>
       </c>
     </row>
@@ -8563,7 +9210,7 @@
       <c r="G62" t="s">
         <v>606</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8571,7 +9218,7 @@
       <c r="G63" t="s">
         <v>748</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8579,7 +9226,7 @@
       <c r="G64" t="s">
         <v>749</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>907</v>
       </c>
     </row>
@@ -8587,7 +9234,7 @@
       <c r="G65" t="s">
         <v>665</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>983</v>
       </c>
     </row>
@@ -8595,7 +9242,7 @@
       <c r="G66" t="s">
         <v>609</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8603,7 +9250,7 @@
       <c r="G67" t="s">
         <v>564</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>772</v>
       </c>
     </row>
@@ -8611,7 +9258,7 @@
       <c r="G68" t="s">
         <v>709</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>912</v>
       </c>
     </row>
@@ -8619,7 +9266,7 @@
       <c r="G69" t="s">
         <v>610</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8627,7 +9274,7 @@
       <c r="G70" t="s">
         <v>816</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8635,7 +9282,7 @@
       <c r="G71" t="s">
         <v>600</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8643,7 +9290,7 @@
       <c r="G72" t="s">
         <v>817</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8651,7 +9298,7 @@
       <c r="G73" t="s">
         <v>557</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8659,7 +9306,7 @@
       <c r="G74" t="s">
         <v>1026</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8667,7 +9314,7 @@
       <c r="G75" t="s">
         <v>664</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>923</v>
       </c>
     </row>
@@ -8675,7 +9322,7 @@
       <c r="G76" t="s">
         <v>575</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>971</v>
       </c>
     </row>
@@ -8683,7 +9330,7 @@
       <c r="G77" t="s">
         <v>581</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8691,7 +9338,7 @@
       <c r="G78" t="s">
         <v>586</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8699,7 +9346,7 @@
       <c r="G79" t="s">
         <v>898</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8707,7 +9354,7 @@
       <c r="G80" t="s">
         <v>646</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -8715,7 +9362,7 @@
       <c r="G81" t="s">
         <v>565</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8723,7 +9370,7 @@
       <c r="G82" t="s">
         <v>576</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8731,7 +9378,7 @@
       <c r="G83" t="s">
         <v>582</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8739,7 +9386,7 @@
       <c r="G84" t="s">
         <v>571</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>993</v>
       </c>
     </row>
@@ -8747,7 +9394,7 @@
       <c r="G85" t="s">
         <v>566</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8755,7 +9402,7 @@
       <c r="G86" t="s">
         <v>583</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>922</v>
       </c>
     </row>
@@ -8763,7 +9410,7 @@
       <c r="G87" t="s">
         <v>567</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8771,7 +9418,7 @@
       <c r="G88" t="s">
         <v>568</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8779,7 +9426,7 @@
       <c r="G89" t="s">
         <v>601</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8787,7 +9434,7 @@
       <c r="G90" t="s">
         <v>607</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>96</v>
       </c>
     </row>
@@ -8795,7 +9442,7 @@
       <c r="G91" t="s">
         <v>590</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8803,7 +9450,7 @@
       <c r="G92" t="s">
         <v>660</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>905</v>
       </c>
     </row>
@@ -8811,7 +9458,7 @@
       <c r="G93" t="s">
         <v>572</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>906</v>
       </c>
     </row>
@@ -8819,172 +9466,172 @@
       <c r="G94" t="s">
         <v>573</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>118</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -65,7 +65,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6917" uniqueCount="1040">
   <si>
     <t>description</t>
   </si>
@@ -3398,13 +3398,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="100" x14ac:knownFonts="1">
+  <fonts count="164" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4046,8 +4058,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="149">
+  <fills count="269">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4888,8 +5304,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="154">
+  <borders count="266">
     <border>
       <left/>
       <right/>
@@ -6464,6 +7560,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6499,7 +8723,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="223">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6963,52 +9187,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="118" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="121" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="121" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="124" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="124" fontId="86" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="127" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="127" fontId="87" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="130" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="130" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="133" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="133" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="136" borderId="145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="145" fillId="136" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="139" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="139" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="142" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="142" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="142" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="142" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="130" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="130" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="145" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="145" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="130" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="130" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="148" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="148" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="151" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="165" fillId="154" fontId="102" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="157" fontId="103" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="160" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="106" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="173" fillId="166" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="169" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="172" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="172" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="160" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="175" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="160" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="181" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="184" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="187" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="190" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="122" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="201" fillId="196" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="199" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="202" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="202" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="211" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="214" fontId="134" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="217" fontId="135" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="220" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="223" fontId="138" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="229" fillId="226" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="229" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="232" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="232" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="235" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="238" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="241" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="244" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="247" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="250" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="253" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="256" borderId="257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="259" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="262" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="262" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="250" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="265" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="250" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="268" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8182,7 +10598,7 @@
         <v>186</v>
       </c>
       <c r="N5" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -8250,7 +10666,7 @@
         <v>187</v>
       </c>
       <c r="N6" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -8309,7 +10725,7 @@
         <v>611</v>
       </c>
       <c r="N7" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
@@ -8367,6 +10783,9 @@
       <c r="M8" t="s">
         <v>188</v>
       </c>
+      <c r="N8" t="s">
+        <v>1033</v>
+      </c>
       <c r="Q8" t="s">
         <v>162</v>
       </c>
@@ -8420,6 +10839,9 @@
       <c r="M9" t="s">
         <v>189</v>
       </c>
+      <c r="N9" t="s">
+        <v>1034</v>
+      </c>
       <c r="Q9" t="s">
         <v>163</v>
       </c>
@@ -8461,6 +10883,9 @@
       <c r="M10" t="s">
         <v>190</v>
       </c>
+      <c r="N10" t="s">
+        <v>1035</v>
+      </c>
       <c r="Q10" t="s">
         <v>903</v>
       </c>
@@ -8849,7 +11274,7 @@
         <v>156</v>
       </c>
       <c r="K25" t="s">
-        <v>151</v>
+        <v>1039</v>
       </c>
       <c r="Y25" t="s">
         <v>59</v>
@@ -8866,7 +11291,7 @@
         <v>577</v>
       </c>
       <c r="K26" t="s">
-        <v>909</v>
+        <v>151</v>
       </c>
       <c r="Y26" t="s">
         <v>60</v>
@@ -8883,7 +11308,7 @@
         <v>561</v>
       </c>
       <c r="K27" t="s">
-        <v>152</v>
+        <v>909</v>
       </c>
       <c r="Y27" t="s">
         <v>61</v>
@@ -8900,7 +11325,7 @@
         <v>578</v>
       </c>
       <c r="K28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y28" t="s">
         <v>641</v>
@@ -8915,6 +11340,9 @@
       </c>
       <c r="G29" t="s">
         <v>579</v>
+      </c>
+      <c r="K29" t="s">
+        <v>153</v>
       </c>
       <c r="Y29" t="s">
         <v>62</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -33,7 +33,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -65,7 +65,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6917" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7452" uniqueCount="1044">
   <si>
     <t>description</t>
   </si>
@@ -3410,13 +3410,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="164" x14ac:knownFonts="1">
+  <fonts count="180" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4462,8 +4474,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="269">
+  <fills count="299">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5984,8 +6097,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="266">
+  <borders count="294">
     <border>
       <left/>
       <right/>
@@ -8688,6 +8971,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8723,7 +9288,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="239">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9379,52 +9944,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="238" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="241" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="241" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="244" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="244" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="247" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="247" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="250" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="250" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="253" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="253" fontId="154" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="256" borderId="257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="257" fillId="256" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="259" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="259" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="262" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="262" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="262" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="262" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="250" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="250" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="265" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="265" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="250" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="250" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="268" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="268" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="271" borderId="273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="274" borderId="277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="277" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="280" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="283" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="286" borderId="285" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="289" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="292" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="292" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="280" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="295" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="280" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10408,7 +11021,7 @@
         <v>932</v>
       </c>
       <c r="D3" t="s">
-        <v>997</v>
+        <v>1040</v>
       </c>
       <c r="E3" t="s">
         <v>926</v>
@@ -10491,7 +11104,7 @@
         <v>753</v>
       </c>
       <c r="D4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -10574,7 +11187,7 @@
         <v>754</v>
       </c>
       <c r="D5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E5" t="s">
         <v>927</v>
@@ -10598,7 +11211,7 @@
         <v>186</v>
       </c>
       <c r="N5" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -10644,6 +11257,9 @@
       <c r="B6" t="s">
         <v>755</v>
       </c>
+      <c r="D6" t="s">
+        <v>999</v>
+      </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -10666,7 +11282,7 @@
         <v>187</v>
       </c>
       <c r="N6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -10725,7 +11341,7 @@
         <v>611</v>
       </c>
       <c r="N7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
@@ -10784,7 +11400,7 @@
         <v>188</v>
       </c>
       <c r="N8" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="s">
         <v>162</v>
@@ -10840,7 +11456,7 @@
         <v>189</v>
       </c>
       <c r="N9" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="Q9" t="s">
         <v>163</v>
@@ -10884,7 +11500,7 @@
         <v>190</v>
       </c>
       <c r="N10" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="Q10" t="s">
         <v>903</v>
@@ -10924,6 +11540,9 @@
       <c r="M11" t="s">
         <v>982</v>
       </c>
+      <c r="N11" t="s">
+        <v>1034</v>
+      </c>
       <c r="Q11" t="s">
         <v>164</v>
       </c>
@@ -10959,6 +11578,9 @@
       <c r="M12" t="s">
         <v>910</v>
       </c>
+      <c r="N12" t="s">
+        <v>1035</v>
+      </c>
       <c r="Q12" t="s">
         <v>26</v>
       </c>
@@ -11274,7 +11896,7 @@
         <v>156</v>
       </c>
       <c r="K25" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="Y25" t="s">
         <v>59</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -40,7 +40,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -59,7 +59,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7452" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7989" uniqueCount="1046">
   <si>
     <t>description</t>
   </si>
@@ -3422,13 +3422,19 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="180" x14ac:knownFonts="1">
+  <fonts count="196" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4575,8 +4581,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="299">
+  <fills count="329">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6267,8 +6374,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="294">
+  <borders count="322">
     <border>
       <left/>
       <right/>
@@ -9253,6 +9530,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9288,7 +9847,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="255">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9992,52 +10551,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="268" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="271" borderId="273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="271" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="274" borderId="277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="274" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="277" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="277" fontId="167" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="280" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="280" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="283" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="283" fontId="170" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="286" borderId="285" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="285" fillId="286" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="289" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="289" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="292" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="292" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="292" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="292" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="280" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="280" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="295" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="295" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="280" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="280" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="298" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="301" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="304" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="307" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="310" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="316" borderId="313" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="319" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="322" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="322" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="310" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="310" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10811,7 +11418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -11201,6 +11808,9 @@
       <c r="H5" t="s">
         <v>924</v>
       </c>
+      <c r="I5" t="s">
+        <v>1044</v>
+      </c>
       <c r="J5" t="s">
         <v>707</v>
       </c>
@@ -12077,7 +12687,7 @@
         <v>562</v>
       </c>
       <c r="Y39" t="s">
-        <v>776</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="40">
@@ -12085,7 +12695,7 @@
         <v>157</v>
       </c>
       <c r="Y40" t="s">
-        <v>69</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41">
@@ -12093,7 +12703,7 @@
         <v>393</v>
       </c>
       <c r="Y41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
@@ -12101,7 +12711,7 @@
         <v>584</v>
       </c>
       <c r="Y42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
@@ -12109,7 +12719,7 @@
         <v>595</v>
       </c>
       <c r="Y43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
@@ -12117,7 +12727,7 @@
         <v>596</v>
       </c>
       <c r="Y44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
@@ -12125,7 +12735,7 @@
         <v>663</v>
       </c>
       <c r="Y45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
@@ -12133,7 +12743,7 @@
         <v>662</v>
       </c>
       <c r="Y46" t="s">
-        <v>911</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
@@ -12141,7 +12751,7 @@
         <v>209</v>
       </c>
       <c r="Y47" t="s">
-        <v>395</v>
+        <v>911</v>
       </c>
     </row>
     <row r="48">
@@ -12149,7 +12759,7 @@
         <v>597</v>
       </c>
       <c r="Y48" t="s">
-        <v>75</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49">
@@ -12157,7 +12767,7 @@
         <v>659</v>
       </c>
       <c r="Y49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -12165,7 +12775,7 @@
         <v>747</v>
       </c>
       <c r="Y50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
@@ -12173,7 +12783,7 @@
         <v>598</v>
       </c>
       <c r="Y51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -12181,7 +12791,7 @@
         <v>735</v>
       </c>
       <c r="Y52" t="s">
-        <v>992</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -12189,7 +12799,7 @@
         <v>645</v>
       </c>
       <c r="Y53" t="s">
-        <v>934</v>
+        <v>992</v>
       </c>
     </row>
     <row r="54">
@@ -12197,7 +12807,7 @@
         <v>563</v>
       </c>
       <c r="Y54" t="s">
-        <v>79</v>
+        <v>934</v>
       </c>
     </row>
     <row r="55">
@@ -12205,7 +12815,7 @@
         <v>587</v>
       </c>
       <c r="Y55" t="s">
-        <v>703</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -12213,7 +12823,7 @@
         <v>588</v>
       </c>
       <c r="Y56" t="s">
-        <v>928</v>
+        <v>703</v>
       </c>
     </row>
     <row r="57">
@@ -12221,7 +12831,7 @@
         <v>589</v>
       </c>
       <c r="Y57" t="s">
-        <v>80</v>
+        <v>928</v>
       </c>
     </row>
     <row r="58">
@@ -12229,7 +12839,7 @@
         <v>599</v>
       </c>
       <c r="Y58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -12237,7 +12847,7 @@
         <v>608</v>
       </c>
       <c r="Y59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
@@ -12245,7 +12855,7 @@
         <v>657</v>
       </c>
       <c r="Y60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
@@ -12253,7 +12863,7 @@
         <v>605</v>
       </c>
       <c r="Y61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
@@ -12261,7 +12871,7 @@
         <v>606</v>
       </c>
       <c r="Y62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
@@ -12269,7 +12879,7 @@
         <v>748</v>
       </c>
       <c r="Y63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
@@ -12277,7 +12887,7 @@
         <v>749</v>
       </c>
       <c r="Y64" t="s">
-        <v>907</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
@@ -12285,7 +12895,7 @@
         <v>665</v>
       </c>
       <c r="Y65" t="s">
-        <v>983</v>
+        <v>907</v>
       </c>
     </row>
     <row r="66">
@@ -12293,7 +12903,7 @@
         <v>609</v>
       </c>
       <c r="Y66" t="s">
-        <v>396</v>
+        <v>983</v>
       </c>
     </row>
     <row r="67">
@@ -12301,7 +12911,7 @@
         <v>564</v>
       </c>
       <c r="Y67" t="s">
-        <v>772</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68">
@@ -12309,7 +12919,7 @@
         <v>709</v>
       </c>
       <c r="Y68" t="s">
-        <v>912</v>
+        <v>772</v>
       </c>
     </row>
     <row r="69">
@@ -12317,7 +12927,7 @@
         <v>610</v>
       </c>
       <c r="Y69" t="s">
-        <v>87</v>
+        <v>912</v>
       </c>
     </row>
     <row r="70">
@@ -12325,7 +12935,7 @@
         <v>816</v>
       </c>
       <c r="Y70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71">
@@ -12333,7 +12943,7 @@
         <v>600</v>
       </c>
       <c r="Y71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72">
@@ -12341,7 +12951,7 @@
         <v>817</v>
       </c>
       <c r="Y72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73">
@@ -12349,7 +12959,7 @@
         <v>557</v>
       </c>
       <c r="Y73" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
@@ -12357,7 +12967,7 @@
         <v>1026</v>
       </c>
       <c r="Y74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
@@ -12365,7 +12975,7 @@
         <v>664</v>
       </c>
       <c r="Y75" t="s">
-        <v>923</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
@@ -12373,7 +12983,7 @@
         <v>575</v>
       </c>
       <c r="Y76" t="s">
-        <v>971</v>
+        <v>923</v>
       </c>
     </row>
     <row r="77">
@@ -12381,7 +12991,7 @@
         <v>581</v>
       </c>
       <c r="Y77" t="s">
-        <v>91</v>
+        <v>971</v>
       </c>
     </row>
     <row r="78">
@@ -12389,7 +12999,7 @@
         <v>586</v>
       </c>
       <c r="Y78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79">
@@ -12397,7 +13007,7 @@
         <v>898</v>
       </c>
       <c r="Y79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80">
@@ -12405,7 +13015,7 @@
         <v>646</v>
       </c>
       <c r="Y80" t="s">
-        <v>1005</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81">
@@ -12413,7 +13023,7 @@
         <v>565</v>
       </c>
       <c r="Y81" t="s">
-        <v>94</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="82">
@@ -12421,7 +13031,7 @@
         <v>576</v>
       </c>
       <c r="Y82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
@@ -12429,7 +13039,7 @@
         <v>582</v>
       </c>
       <c r="Y83" t="s">
-        <v>197</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
@@ -12437,7 +13047,7 @@
         <v>571</v>
       </c>
       <c r="Y84" t="s">
-        <v>993</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -12445,7 +13055,7 @@
         <v>566</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>993</v>
       </c>
     </row>
     <row r="86">
@@ -12453,7 +13063,7 @@
         <v>583</v>
       </c>
       <c r="Y86" t="s">
-        <v>922</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -12461,7 +13071,7 @@
         <v>567</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>922</v>
       </c>
     </row>
     <row r="88">
@@ -12469,7 +13079,7 @@
         <v>568</v>
       </c>
       <c r="Y88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -12477,7 +13087,7 @@
         <v>601</v>
       </c>
       <c r="Y89" t="s">
-        <v>397</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -12485,7 +13095,7 @@
         <v>607</v>
       </c>
       <c r="Y90" t="s">
-        <v>96</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91">
@@ -12493,7 +13103,7 @@
         <v>590</v>
       </c>
       <c r="Y91" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
@@ -12501,7 +13111,7 @@
         <v>660</v>
       </c>
       <c r="Y92" t="s">
-        <v>905</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
@@ -12509,7 +13119,7 @@
         <v>572</v>
       </c>
       <c r="Y93" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="94">
@@ -12517,171 +13127,176 @@
         <v>573</v>
       </c>
       <c r="Y94" t="s">
-        <v>202</v>
+        <v>906</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>453</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>1012</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>97</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>1028</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>765</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>98</v>
+        <v>765</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>913</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>111</v>
+        <v>913</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>118</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{ACAD5A28-2F88-AD4F-9E3E-D420924F7327}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21140" windowWidth="38400" xWindow="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21140" windowWidth="38400" xWindow="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -34,7 +34,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -59,13 +59,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="1059">
   <si>
     <t>description</t>
   </si>
@@ -3458,13 +3459,22 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3702,8 +3712,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3881,8 +3992,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+      